--- a/path.xlsx
+++ b/path.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,24 +460,32 @@
           <t>Y Vel</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Yaw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.561895</v>
+        <v>1.410944</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>8.75</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,18 +494,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.651017</v>
+        <v>1.500786</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>8.75</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -506,18 +517,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.725571</v>
+        <v>1.582217</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>8.75</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -526,19 +540,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.807947</v>
+        <v>1.657208</v>
       </c>
       <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0007789230439811945</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.002735002897679806</v>
-      </c>
       <c r="F5" t="n">
-        <v>3.636084100477888e-09</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -546,19 +563,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.884427</v>
+        <v>1.747437</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.003858566284179688</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0007391357212327421</v>
+        <v>8.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001966567477211356</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04890589043498039</v>
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +586,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.995825</v>
+        <v>1.82797</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.003826141357421875</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006210708525031805</v>
+        <v>8.75</v>
       </c>
       <c r="E7" t="n">
-        <v>9.069535735761747e-05</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006419086363166571</v>
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -586,19 +609,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.112681</v>
+        <v>1.920707</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.003999710083007812</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006684112595394254</v>
+        <v>8.75</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0004444449732545763</v>
+        <v>-0.002735002897679806</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01059147343039513</v>
+        <v>3.633828571381059e-09</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -606,19 +632,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.206136</v>
+        <v>2.00348</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.004122734069824219</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007501601940020919</v>
+        <v>8.75</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0004884694353677332</v>
+        <v>-0.002735002897679806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01488662697374821</v>
+        <v>3.633828571381059e-09</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -626,19 +655,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.316283</v>
+        <v>2.088187</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.004186630249023438</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0008752822759561241</v>
+        <v>8.74616527557373</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0002687859814614058</v>
+        <v>0.001835593837313354</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01047465577721596</v>
+        <v>-0.04869551956653595</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.0006713866605423391</v>
       </c>
     </row>
     <row r="11">
@@ -646,19 +678,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.4089</v>
+        <v>2.177559</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.004181861877441406</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0009105682256631553</v>
+        <v>8.74616527557373</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.000173598964465782</v>
+        <v>0.001835593837313354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007320110686123371</v>
+        <v>-0.04869551956653595</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0006713866605423391</v>
       </c>
     </row>
     <row r="12">
@@ -666,19 +701,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.498715</v>
+        <v>2.262819</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00417327880859375</v>
+        <v>1000.000549316406</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009326171712018549</v>
+        <v>8.74620532989502</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0001070562066161074</v>
+        <v>6.809675687691197e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004767397418618202</v>
+        <v>-0.006366176530718803</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.0007934570894576609</v>
       </c>
     </row>
     <row r="13">
@@ -686,19 +724,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.575785</v>
+        <v>2.341749</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.004163742065429688</v>
+        <v>1000.000549316406</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009457015548832715</v>
+        <v>8.74620532989502</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.365204899339005e-05</v>
+        <v>6.809675687691197e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002930273534730077</v>
+        <v>-0.006366176530718803</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.0007934570894576609</v>
       </c>
     </row>
     <row r="14">
@@ -706,19 +747,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.66977</v>
+        <v>2.429823</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00415802001953125</v>
+        <v>1000.000610351562</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00095367431640625</v>
+        <v>8.746031761169434</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.693102917168289e-05</v>
+        <v>-0.000417017174186185</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001707602292299271</v>
+        <v>0.01056433189660311</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.00079345703125</v>
       </c>
     </row>
     <row r="15">
@@ -726,19 +770,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.767962</v>
+        <v>2.512247</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.004183769226074219</v>
+        <v>1000.000610351562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0009561157203279436</v>
+        <v>8.746031761169434</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.049451930157375e-05</v>
+        <v>-0.000417017174186185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0001142098190030083</v>
+        <v>0.01056433189660311</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.00079345703125</v>
       </c>
     </row>
     <row r="16">
@@ -746,19 +793,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.848995</v>
+        <v>2.596804</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.004212379455566406</v>
+        <v>1000.000610351562</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0009581375052221119</v>
+        <v>8.746031761169434</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.247577438334702e-05</v>
+        <v>-0.000417017174186185</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001269933709409088</v>
+        <v>0.01056433189660311</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.00079345703125</v>
       </c>
     </row>
     <row r="17">
@@ -766,19 +816,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.97388</v>
+        <v>2.693725</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.004238128662109375</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0009599685436114669</v>
+        <v>8.745903968811035</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.015021098282887e-05</v>
+        <v>-0.0004458405310288072</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001037191177601926</v>
+        <v>0.01482934225350618</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.0007019041222520173</v>
       </c>
     </row>
     <row r="18">
@@ -786,19 +839,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.109178</v>
+        <v>2.777297</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.004258155822753906</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0009613037109375</v>
+        <v>8.745903968811035</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.14502903065295e-06</v>
+        <v>-0.0004458405310288072</v>
       </c>
       <c r="F18" t="n">
-        <v>7.459735934389755e-05</v>
+        <v>0.01482934225350618</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.0007019041222520173</v>
       </c>
     </row>
     <row r="19">
@@ -806,19 +862,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.217123</v>
+        <v>2.876399</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0042724609375</v>
+        <v>1000.000854492188</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0009622955112718046</v>
+        <v>8.745845794677734</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.715672735575936e-06</v>
+        <v>-0.0003465904155746102</v>
       </c>
       <c r="F19" t="n">
-        <v>3.036373527720571e-05</v>
+        <v>0.01352384872734547</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.00054931640625</v>
       </c>
     </row>
     <row r="20">
@@ -826,19 +885,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.316771</v>
+        <v>2.96205</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.004278182983398438</v>
+        <v>1000.000854492188</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0009627532563172281</v>
+        <v>8.745845794677734</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.349403985135723e-06</v>
+        <v>-0.0003465904155746102</v>
       </c>
       <c r="F20" t="n">
-        <v>2.659222263901029e-05</v>
+        <v>0.01352384872734547</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.00054931640625</v>
       </c>
     </row>
     <row r="21">
@@ -846,19 +908,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.406678</v>
+        <v>3.068442</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.004281997680664062</v>
+        <v>1000.000915527344</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0009630203130654991</v>
+        <v>8.745829582214355</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.638299409023602e-06</v>
+        <v>-0.0002376677002757788</v>
       </c>
       <c r="F21" t="n">
-        <v>1.986413917620666e-05</v>
+        <v>0.0104242404922843</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.0003662109666038305</v>
       </c>
     </row>
     <row r="22">
@@ -866,19 +931,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.494944</v>
+        <v>3.166741</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.004284858703613281</v>
+        <v>1000.000915527344</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0009631347493268549</v>
+        <v>8.745829582214355</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.800897161454486e-07</v>
+        <v>-0.000152517925016582</v>
       </c>
       <c r="F22" t="n">
-        <v>4.497101144806948e-06</v>
+        <v>0.007282883860170841</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0002136230323230848</v>
       </c>
     </row>
     <row r="23">
@@ -886,19 +954,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.62404</v>
+        <v>3.26175</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.004281997680664062</v>
+        <v>1000.0009765625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06726448237895966</v>
+        <v>8.745831489562988</v>
       </c>
       <c r="E23" t="n">
-        <v>1.256192564964294</v>
+        <v>-0.000152517925016582</v>
       </c>
       <c r="F23" t="n">
-        <v>5.074222281109542e-05</v>
+        <v>0.007282883860170841</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.0002136230323230848</v>
       </c>
     </row>
     <row r="24">
@@ -906,19 +977,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.758589</v>
+        <v>3.359781</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.004281997680664062</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2764542400836945</v>
+        <v>8.74583911895752</v>
       </c>
       <c r="E24" t="n">
-        <v>2.575804471969604</v>
+        <v>-9.406788740307093e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>4.876163075095974e-05</v>
+        <v>0.004742854740470648</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0001220703125</v>
       </c>
     </row>
     <row r="25">
@@ -926,19 +1000,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.877632</v>
+        <v>3.44526</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.004275321960449219</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D25" t="n">
-        <v>1.023601651191711</v>
+        <v>8.74583911895752</v>
       </c>
       <c r="E25" t="n">
-        <v>4.542625427246094</v>
+        <v>-9.406788740307093e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>7.04620179021731e-05</v>
+        <v>0.004742854740470648</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0001220703125</v>
       </c>
     </row>
     <row r="26">
@@ -946,19 +1023,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.972536</v>
+        <v>3.54241</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.004270553588867188</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D26" t="n">
-        <v>1.521474123001099</v>
+        <v>8.745846748352051</v>
       </c>
       <c r="E26" t="n">
-        <v>5.270235061645508</v>
+        <v>-5.667558434652165e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>9.088518709177151e-05</v>
+        <v>0.002915197517722845</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.05175763060106e-05</v>
       </c>
     </row>
     <row r="27">
@@ -966,19 +1046,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.060103</v>
+        <v>3.632716</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.004261016845703125</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D27" t="n">
-        <v>2.08473801612854</v>
+        <v>8.745846748352051</v>
       </c>
       <c r="E27" t="n">
-        <v>5.891059875488281</v>
+        <v>-5.667558434652165e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0001173404307337478</v>
+        <v>0.002915197517722845</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-3.05175763060106e-05</v>
       </c>
     </row>
     <row r="28">
@@ -986,19 +1069,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.172589</v>
+        <v>3.731897</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.004250526428222656</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D28" t="n">
-        <v>2.705196857452393</v>
+        <v>8.745851516723633</v>
       </c>
       <c r="E28" t="n">
-        <v>6.438421249389648</v>
+        <v>-3.362639108672738e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001475459575885907</v>
+        <v>0.001698925625532866</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7.692676263104659e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1006,19 +1092,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.311484</v>
+        <v>3.822532</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.004236221313476562</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D29" t="n">
-        <v>3.377372264862061</v>
+        <v>8.745851516723633</v>
       </c>
       <c r="E29" t="n">
-        <v>6.937209129333496</v>
+        <v>-3.362639108672738e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.000182816045708023</v>
+        <v>0.001698925625532866</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.692676263104659e-06</v>
       </c>
     </row>
     <row r="30">
@@ -1026,19 +1115,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.441858</v>
+        <v>3.92075</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.004218101501464844</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D30" t="n">
-        <v>4.097573757171631</v>
+        <v>8.74582576751709</v>
       </c>
       <c r="E30" t="n">
-        <v>7.403781414031982</v>
+        <v>-1.149873605754692e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000222719885641709</v>
+        <v>0.0001140835447586142</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.421349679731065e-05</v>
       </c>
     </row>
     <row r="31">
@@ -1046,19 +1138,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.564317</v>
+        <v>4.010482</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.004168510437011719</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D31" t="n">
-        <v>5.672657489776611</v>
+        <v>8.74582576751709</v>
       </c>
       <c r="E31" t="n">
-        <v>8.277637481689453</v>
+        <v>-1.149873605754692e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000314023724058643</v>
+        <v>0.0001140835447586142</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.421349679731065e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1066,19 +1161,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.663884</v>
+        <v>4.110848</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.004137992858886719</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D32" t="n">
-        <v>6.524415016174316</v>
+        <v>8.745797157287598</v>
       </c>
       <c r="E32" t="n">
-        <v>8.695314407348633</v>
+        <v>-1.39398889587028e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0003657630877569318</v>
+        <v>0.0001271224027732387</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.427052120561711e-05</v>
       </c>
     </row>
     <row r="33">
@@ -1086,19 +1184,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.762129</v>
+        <v>4.207393</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.004100799560546875</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D33" t="n">
-        <v>7.417513847351074</v>
+        <v>8.745797157287598</v>
       </c>
       <c r="E33" t="n">
-        <v>9.103967666625977</v>
+        <v>-1.39398889587028e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0004234457737766206</v>
+        <v>0.0001271224027732387</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.427052120561711e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1106,19 +1207,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.867889</v>
+        <v>4.308074</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.004057884216308594</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D34" t="n">
-        <v>8.351119041442871</v>
+        <v>8.745771408081055</v>
       </c>
       <c r="E34" t="n">
-        <v>9.50516414642334</v>
+        <v>-1.134508147515589e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0004819101595785469</v>
+        <v>0.000103889760794118</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.43187880894402e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1126,19 +1230,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.005247</v>
+        <v>4.407125</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.004009246826171875</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D35" t="n">
-        <v>9.324525833129883</v>
+        <v>8.745771408081055</v>
       </c>
       <c r="E35" t="n">
-        <v>9.899908065795898</v>
+        <v>-1.134508147515589e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0005450561293400824</v>
+        <v>0.000103889760794118</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.43187880894402e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1146,19 +1253,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.132894</v>
+        <v>4.520879</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0038909912109375</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D36" t="n">
-        <v>11.38830375671387</v>
+        <v>8.74575138092041</v>
       </c>
       <c r="E36" t="n">
-        <v>10.67243957519531</v>
+        <v>-7.979348993103486e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0006817218963988125</v>
+        <v>7.483115768991411e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.435257399862166e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1166,19 +1276,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.240091</v>
+        <v>4.620603</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.003821372985839844</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D37" t="n">
-        <v>12.47758388519287</v>
+        <v>8.74575138092041</v>
       </c>
       <c r="E37" t="n">
-        <v>11.05096530914307</v>
+        <v>-7.979348993103486e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0007552294409833848</v>
+        <v>7.483115768991411e-05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.435257399862166e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1186,19 +1299,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.351282</v>
+        <v>4.722876</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.003745079040527344</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D38" t="n">
-        <v>13.60444831848145</v>
+        <v>8.745742797851562</v>
       </c>
       <c r="E38" t="n">
-        <v>11.42464160919189</v>
+        <v>-2.142563971574418e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0008342734072357416</v>
+        <v>2.11067217605887e-05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.43694687722018e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1206,19 +1322,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.480214</v>
+        <v>4.827976</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.003660202026367188</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D39" t="n">
-        <v>14.76841640472412</v>
+        <v>8.74573802947998</v>
       </c>
       <c r="E39" t="n">
-        <v>11.7936315536499</v>
+        <v>-3.128575372102205e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0009134497959166765</v>
+        <v>3.031447158718947e-05</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.438458093616646e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1226,19 +1345,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.61414</v>
+        <v>4.926635</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.003464698791503906</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D40" t="n">
-        <v>17.20582008361816</v>
+        <v>8.74573802947998</v>
       </c>
       <c r="E40" t="n">
-        <v>12.51799297332764</v>
+        <v>-3.128575372102205e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001082889270037413</v>
+        <v>3.031447158718947e-05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.438458093616646e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1246,19 +1368,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.730177</v>
+        <v>5.02935</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.003354072570800781</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D41" t="n">
-        <v>18.47835731506348</v>
+        <v>8.745732307434082</v>
       </c>
       <c r="E41" t="n">
-        <v>12.87354373931885</v>
+        <v>-2.649436510182568e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001172156305983663</v>
+        <v>2.660348218341824e-05</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.439588504581479e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1266,19 +1391,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.873293</v>
+        <v>5.131444</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.00323486328125</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D42" t="n">
-        <v>19.78619956970215</v>
+        <v>8.745732307434082</v>
       </c>
       <c r="E42" t="n">
-        <v>13.22477531433105</v>
+        <v>-2.649436510182568e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001265974598936737</v>
+        <v>2.660348218341824e-05</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.439588504581479e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1286,19 +1414,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.01524</v>
+        <v>5.249266</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.003106117248535156</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D43" t="n">
-        <v>21.12891960144043</v>
+        <v>8.7457275390625</v>
       </c>
       <c r="E43" t="n">
-        <v>13.57175064086914</v>
+        <v>-1.935645514095086e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001360558439046144</v>
+        <v>1.994365993596148e-05</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.440321375412168e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1306,19 +1437,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.137888</v>
+        <v>5.354506</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.002818107604980469</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D44" t="n">
-        <v>23.91730880737305</v>
+        <v>8.7457275390625</v>
       </c>
       <c r="E44" t="n">
-        <v>14.25316333770752</v>
+        <v>-1.935645514095086e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001560292672365904</v>
+        <v>1.994365993596148e-05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.440321375412168e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1326,19 +1460,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.256346</v>
+        <v>5.461165</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.002657890319824219</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D45" t="n">
-        <v>25.36214828491211</v>
+        <v>8.745724678039551</v>
       </c>
       <c r="E45" t="n">
-        <v>14.58770847320557</v>
+        <v>-4.014884495973092e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001665810937993228</v>
+        <v>4.645531589630991e-06</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.440676714992151e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1346,19 +1483,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.36997</v>
+        <v>5.568505</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.002489089965820312</v>
+        <v>1000.0673828125</v>
       </c>
       <c r="D46" t="n">
-        <v>26.8402099609375</v>
+        <v>8.745007514953613</v>
       </c>
       <c r="E46" t="n">
-        <v>14.91821098327637</v>
+        <v>1.255920052528381</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001774050528183579</v>
+        <v>-0.01732652448117733</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.02642822265625</v>
       </c>
     </row>
     <row r="47">
@@ -1366,19 +1506,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.518429</v>
+        <v>5.674587</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.002308845520019531</v>
+        <v>1000.0673828125</v>
       </c>
       <c r="D47" t="n">
-        <v>28.3510913848877</v>
+        <v>8.745007514953613</v>
       </c>
       <c r="E47" t="n">
-        <v>15.24472522735596</v>
+        <v>1.255920052528381</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001886782934889197</v>
+        <v>-0.01732652448117733</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.02642822265625</v>
       </c>
     </row>
     <row r="48">
@@ -1386,19 +1529,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.657033</v>
+        <v>5.793779</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.001920700073242188</v>
+        <v>1000.276489257812</v>
       </c>
       <c r="D48" t="n">
-        <v>31.46972274780273</v>
+        <v>8.742654800415039</v>
       </c>
       <c r="E48" t="n">
-        <v>15.88596725463867</v>
+        <v>2.575202941894531</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001975540770217776</v>
+        <v>-0.03915747255086899</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.1107788011431694</v>
       </c>
     </row>
     <row r="49">
@@ -1406,19 +1552,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.776653</v>
+        <v>5.901219</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.001722335815429688</v>
+        <v>1000.276489257812</v>
       </c>
       <c r="D49" t="n">
-        <v>33.07669448852539</v>
+        <v>8.742654800415039</v>
       </c>
       <c r="E49" t="n">
-        <v>16.2007884979248</v>
+        <v>2.575202941894531</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001971280435100198</v>
+        <v>-0.03915747255086899</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.1107788011431694</v>
       </c>
     </row>
     <row r="50">
@@ -1426,19 +1575,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.90828</v>
+        <v>6.007678</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.001523971557617188</v>
+        <v>1000.602661132812</v>
       </c>
       <c r="D50" t="n">
-        <v>34.71493148803711</v>
+        <v>8.738525390625</v>
       </c>
       <c r="E50" t="n">
-        <v>16.51180839538574</v>
+        <v>3.662173748016357</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001948837889358401</v>
+        <v>-0.06300290673971176</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.2413635551929474</v>
       </c>
     </row>
     <row r="51">
@@ -1446,19 +1598,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.051165</v>
+        <v>6.118115</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.001142501831054688</v>
+        <v>1001.023254394531</v>
       </c>
       <c r="D51" t="n">
-        <v>38.08368301391602</v>
+        <v>8.732319831848145</v>
       </c>
       <c r="E51" t="n">
-        <v>17.12260627746582</v>
+        <v>4.541271209716797</v>
       </c>
       <c r="F51" t="n">
-        <v>0.001819510711356997</v>
+        <v>-0.08916348963975906</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.4074401259422302</v>
       </c>
     </row>
     <row r="52">
@@ -1466,19 +1621,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.159607</v>
+        <v>6.226041</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0009622573852539062</v>
+        <v>1001.023254394531</v>
       </c>
       <c r="D52" t="n">
-        <v>39.81344985961914</v>
+        <v>8.732319831848145</v>
       </c>
       <c r="E52" t="n">
-        <v>17.42247772216797</v>
+        <v>4.541271209716797</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001734184450469911</v>
+        <v>-0.08916348963975906</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.4074401259422302</v>
       </c>
     </row>
     <row r="53">
@@ -1486,19 +1644,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.275756</v>
+        <v>6.348738</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.000789642333984375</v>
+        <v>1001.52099609375</v>
       </c>
       <c r="D53" t="n">
-        <v>41.572998046875</v>
+        <v>8.723714828491211</v>
       </c>
       <c r="E53" t="n">
-        <v>17.71872329711914</v>
+        <v>5.268417835235596</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001636374508962035</v>
+        <v>-0.1172889024019241</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.5984190702438354</v>
       </c>
     </row>
     <row r="54">
@@ -1506,19 +1667,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.406649</v>
+        <v>6.461931</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0006284713745117188</v>
+        <v>1002.083984375</v>
       </c>
       <c r="D54" t="n">
-        <v>43.36196517944336</v>
+        <v>8.712429046630859</v>
       </c>
       <c r="E54" t="n">
-        <v>18.01154899597168</v>
+        <v>5.888685703277588</v>
       </c>
       <c r="F54" t="n">
-        <v>0.001537338015623391</v>
+        <v>-0.147413432598114</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.80487060546875</v>
       </c>
     </row>
     <row r="55">
@@ -1526,19 +1690,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.561181</v>
+        <v>6.569616</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.000335693359375</v>
+        <v>1002.083984375</v>
       </c>
       <c r="D55" t="n">
-        <v>47.02693557739258</v>
+        <v>8.712429046630859</v>
       </c>
       <c r="E55" t="n">
-        <v>18.58843612670898</v>
+        <v>5.888685703277588</v>
       </c>
       <c r="F55" t="n">
-        <v>0.001330394763499498</v>
+        <v>-0.147413432598114</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.80487060546875</v>
       </c>
     </row>
     <row r="56">
@@ -1546,19 +1713,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.688407</v>
+        <v>6.683552</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0002040863037109375</v>
+        <v>1002.704223632812</v>
       </c>
       <c r="D56" t="n">
-        <v>48.90240097045898</v>
+        <v>8.698147773742676</v>
       </c>
       <c r="E56" t="n">
-        <v>18.87305068969727</v>
+        <v>6.435371398925781</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001226962893269956</v>
+        <v>-0.179594874382019</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1.01989734172821</v>
       </c>
     </row>
     <row r="57">
@@ -1566,19 +1736,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.826122</v>
+        <v>6.799497</v>
       </c>
       <c r="C57" t="n">
-        <v>-8.296966552734375e-05</v>
+        <v>1002.704223632812</v>
       </c>
       <c r="D57" t="n">
-        <v>50.80620193481445</v>
+        <v>8.698147773742676</v>
       </c>
       <c r="E57" t="n">
-        <v>19.15538215637207</v>
+        <v>6.435371398925781</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001119980006478727</v>
+        <v>-0.179594874382019</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1.01989734172821</v>
       </c>
     </row>
     <row r="58">
@@ -1586,19 +1759,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.976842</v>
+        <v>6.915962</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0001268386840820312</v>
+        <v>1003.376098632812</v>
       </c>
       <c r="D58" t="n">
-        <v>54.69791793823242</v>
+        <v>8.680624961853027</v>
       </c>
       <c r="E58" t="n">
-        <v>19.7137622833252</v>
+        <v>6.93337345123291</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0009191785356961191</v>
+        <v>-0.2133295983076096</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.237701296806335</v>
       </c>
     </row>
     <row r="59">
@@ -1606,19 +1782,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.096117</v>
+        <v>7.0299</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0002164840698242188</v>
+        <v>1004.095825195312</v>
       </c>
       <c r="D59" t="n">
-        <v>56.68544006347656</v>
+        <v>8.659655570983887</v>
       </c>
       <c r="E59" t="n">
-        <v>19.99001502990723</v>
+        <v>7.399051189422607</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0008203177712857723</v>
+        <v>-0.2483720332384109</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1.45318615436554</v>
       </c>
     </row>
     <row r="60">
@@ -1626,19 +1805,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.228498</v>
+        <v>7.148656</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0002965927124023438</v>
+        <v>1004.095825195312</v>
       </c>
       <c r="D60" t="n">
-        <v>58.70047760009766</v>
+        <v>8.659655570983887</v>
       </c>
       <c r="E60" t="n">
-        <v>20.2644100189209</v>
+        <v>7.399051189422607</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0007200710824690759</v>
+        <v>-0.2483720332384109</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1.45318615436554</v>
       </c>
     </row>
     <row r="61">
@@ -1646,19 +1828,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.385236000000001</v>
+        <v>7.272551</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0003652572631835938</v>
+        <v>1004.861145019531</v>
       </c>
       <c r="D61" t="n">
-        <v>60.74285507202148</v>
+        <v>8.635075569152832</v>
       </c>
       <c r="E61" t="n">
-        <v>20.53700637817383</v>
+        <v>7.842730522155762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0006241864757612348</v>
+        <v>-0.2844030559062958</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1.662323236465454</v>
       </c>
     </row>
     <row r="62">
@@ -1666,19 +1851,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.516415</v>
+        <v>7.388838</v>
       </c>
       <c r="C62" t="n">
-        <v>0.000476837158203125</v>
+        <v>1005.669921875</v>
       </c>
       <c r="D62" t="n">
-        <v>64.90891265869141</v>
+        <v>8.606767654418945</v>
       </c>
       <c r="E62" t="n">
-        <v>21.07697296142578</v>
+        <v>8.270839691162109</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0004314767720643431</v>
+        <v>-0.321064680814743</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.861785650253296</v>
       </c>
     </row>
     <row r="63">
@@ -1686,19 +1874,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.649504</v>
+        <v>7.506086</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0005168914794921875</v>
+        <v>1005.669921875</v>
       </c>
       <c r="D63" t="n">
-        <v>67.03224182128906</v>
+        <v>8.606767654418945</v>
       </c>
       <c r="E63" t="n">
-        <v>21.34441757202148</v>
+        <v>8.270839691162109</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0003344329888932407</v>
+        <v>-0.321064680814743</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1.861785650253296</v>
       </c>
     </row>
     <row r="64">
@@ -1706,19 +1897,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.805364000000001</v>
+        <v>7.634204</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0005474090576171875</v>
+        <v>1006.520812988281</v>
       </c>
       <c r="D64" t="n">
-        <v>69.18222808837891</v>
+        <v>8.574660301208496</v>
       </c>
       <c r="E64" t="n">
-        <v>21.61021041870117</v>
+        <v>8.687372207641602</v>
       </c>
       <c r="F64" t="n">
-        <v>0.000235639774473384</v>
+        <v>-0.3579919040203094</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-2.049072504043579</v>
       </c>
     </row>
     <row r="65">
@@ -1726,19 +1920,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.967492</v>
+        <v>7.755283</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0005788803100585938</v>
+        <v>1007.413208007812</v>
       </c>
       <c r="D65" t="n">
-        <v>73.56148529052734</v>
+        <v>8.538722038269043</v>
       </c>
       <c r="E65" t="n">
-        <v>22.13690376281738</v>
+        <v>9.094834327697754</v>
       </c>
       <c r="F65" t="n">
-        <v>2.523781222407706e-05</v>
+        <v>-0.3948204219341278</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-2.2222900390625</v>
       </c>
     </row>
     <row r="66">
@@ -1746,19 +1943,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.100002</v>
+        <v>7.87917</v>
       </c>
       <c r="C66" t="n">
-        <v>0.000579833984375</v>
+        <v>1007.413208007812</v>
       </c>
       <c r="D66" t="n">
-        <v>75.79045104980469</v>
+        <v>8.538722038269043</v>
       </c>
       <c r="E66" t="n">
-        <v>22.39783668518066</v>
+        <v>9.094834327697754</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.980519588571042e-05</v>
+        <v>-0.3948204219341278</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2.2222900390625</v>
       </c>
     </row>
     <row r="67">
@@ -1766,19 +1966,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.251486</v>
+        <v>8.006342</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0005731582641601562</v>
+        <v>1008.345825195312</v>
       </c>
       <c r="D67" t="n">
-        <v>78.04540252685547</v>
+        <v>8.498969078063965</v>
       </c>
       <c r="E67" t="n">
-        <v>22.65718269348145</v>
+        <v>9.494812965393066</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.000130672226077877</v>
+        <v>-0.431205689907074</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2.380157232284546</v>
       </c>
     </row>
     <row r="68">
@@ -1786,19 +1989,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.379458</v>
+        <v>8.126621999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0005369186401367188</v>
+        <v>1009.318359375</v>
       </c>
       <c r="D68" t="n">
-        <v>82.6326904296875</v>
+        <v>8.455451965332031</v>
       </c>
       <c r="E68" t="n">
-        <v>23.17116165161133</v>
+        <v>9.888334274291992</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.0002522591967135668</v>
+        <v>-0.4668321907520294</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-2.521850347518921</v>
       </c>
     </row>
     <row r="69">
@@ -1806,19 +2012,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.518212</v>
+        <v>8.249185000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0005102157592773438</v>
+        <v>1009.318359375</v>
       </c>
       <c r="D69" t="n">
-        <v>84.96470642089844</v>
+        <v>8.455451965332031</v>
       </c>
       <c r="E69" t="n">
-        <v>23.42581939697266</v>
+        <v>9.888334274291992</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.0002972972870338708</v>
+        <v>-0.4668321907520294</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-2.521850347518921</v>
       </c>
     </row>
     <row r="70">
@@ -1826,19 +2035,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.658497000000001</v>
+        <v>8.373848000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0004796981811523438</v>
+        <v>1010.329772949219</v>
       </c>
       <c r="D70" t="n">
-        <v>87.32209777832031</v>
+        <v>8.408257484436035</v>
       </c>
       <c r="E70" t="n">
-        <v>23.67893218994141</v>
+        <v>10.27607440948486</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0003349915496073663</v>
+        <v>-0.5014278888702393</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2.647094488143921</v>
       </c>
     </row>
     <row r="71">
@@ -1846,19 +2058,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.812231000000001</v>
+        <v>8.493789</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0004091262817382812</v>
+        <v>1011.379638671875</v>
       </c>
       <c r="D71" t="n">
-        <v>92.11240386962891</v>
+        <v>8.357501983642578</v>
       </c>
       <c r="E71" t="n">
-        <v>24.18057632446289</v>
+        <v>10.65848731994629</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.0003815666423179209</v>
+        <v>-0.5347641110420227</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-2.756012439727783</v>
       </c>
     </row>
     <row r="72">
@@ -1866,19 +2081,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.955997999999999</v>
+        <v>8.620566</v>
       </c>
       <c r="C72" t="n">
-        <v>0.000370025634765625</v>
+        <v>1011.379638671875</v>
       </c>
       <c r="D72" t="n">
-        <v>94.54499816894531</v>
+        <v>8.357501983642578</v>
       </c>
       <c r="E72" t="n">
-        <v>24.42911720275879</v>
+        <v>10.65848731994629</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.0003960801695939153</v>
+        <v>-0.5347641110420227</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2.756012439727783</v>
       </c>
     </row>
     <row r="73">
@@ -1886,19 +2104,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.100131</v>
+        <v>8.743520999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0003309249877929688</v>
+        <v>1012.467468261719</v>
       </c>
       <c r="D73" t="n">
-        <v>97.00238037109375</v>
+        <v>8.303324699401855</v>
       </c>
       <c r="E73" t="n">
-        <v>24.67615699768066</v>
+        <v>11.03588962554932</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0004067272529937327</v>
+        <v>-0.5666682720184326</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2.849059820175171</v>
       </c>
     </row>
     <row r="74">
@@ -1906,19 +2127,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.259237</v>
+        <v>8.869906</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0002508163452148438</v>
+        <v>1013.592895507812</v>
       </c>
       <c r="D74" t="n">
-        <v>101.9908065795898</v>
+        <v>8.245881080627441</v>
       </c>
       <c r="E74" t="n">
-        <v>25.16574478149414</v>
+        <v>11.40850639343262</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0004165362915955484</v>
+        <v>-0.5970171093940735</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2.927033424377441</v>
       </c>
     </row>
     <row r="75">
@@ -1926,19 +2150,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.402939</v>
+        <v>9.002128000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0002107620239257812</v>
+        <v>1014.755065917969</v>
       </c>
       <c r="D75" t="n">
-        <v>104.521598815918</v>
+        <v>8.185341835021973</v>
       </c>
       <c r="E75" t="n">
-        <v>25.40830993652344</v>
+        <v>11.77649974822998</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.000418086041463539</v>
+        <v>-0.6257410049438477</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2.990967273712158</v>
       </c>
     </row>
     <row r="76">
@@ -1946,19 +2173,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.559696</v>
+        <v>9.122585000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00012969970703125</v>
+        <v>1014.755065917969</v>
       </c>
       <c r="D76" t="n">
-        <v>109.6555023193359</v>
+        <v>8.185341835021973</v>
       </c>
       <c r="E76" t="n">
-        <v>25.88901710510254</v>
+        <v>11.77649974822998</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.0004163784324191511</v>
+        <v>-0.6257410049438477</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2.990967273712158</v>
       </c>
     </row>
     <row r="77">
@@ -1966,19 +2196,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.717115</v>
+        <v>9.259536000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>8.96453857421875e-05</v>
+        <v>1015.953857421875</v>
       </c>
       <c r="D77" t="n">
-        <v>112.2583465576172</v>
+        <v>8.121878623962402</v>
       </c>
       <c r="E77" t="n">
-        <v>26.12717437744141</v>
+        <v>12.13999938964844</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.0004135965136811137</v>
+        <v>-0.6528212428092957</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-3.042053461074829</v>
       </c>
     </row>
     <row r="78">
@@ -1986,19 +2219,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.878868</v>
+        <v>9.386742</v>
       </c>
       <c r="C78" t="n">
-        <v>8.58306884765625e-06</v>
+        <v>1017.188903808594</v>
       </c>
       <c r="D78" t="n">
-        <v>117.5350875854492</v>
+        <v>8.055670738220215</v>
       </c>
       <c r="E78" t="n">
-        <v>26.5991325378418</v>
+        <v>12.49910449981689</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.0004052480217069387</v>
+        <v>-0.6782829761505127</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-3.081635475158691</v>
       </c>
     </row>
     <row r="79">
@@ -2006,19 +2242,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.037201</v>
+        <v>9.517325</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.147125244140625e-05</v>
+        <v>1017.188903808594</v>
       </c>
       <c r="D79" t="n">
-        <v>120.2086791992188</v>
+        <v>8.055670738220215</v>
       </c>
       <c r="E79" t="n">
-        <v>26.83294868469238</v>
+        <v>12.49910449981689</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0003871879016514868</v>
+        <v>-0.6782829761505127</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-3.081635475158691</v>
       </c>
     </row>
     <row r="80">
@@ -2026,19 +2265,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.202866</v>
+        <v>9.646459999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.0001049041748046875</v>
+        <v>1018.459533691406</v>
       </c>
       <c r="D80" t="n">
-        <v>125.6256256103516</v>
+        <v>7.986887454986572</v>
       </c>
       <c r="E80" t="n">
-        <v>27.29627799987793</v>
+        <v>12.8538932800293</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.0003423873567953706</v>
+        <v>-0.7021879553794861</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-3.111083984375</v>
       </c>
     </row>
     <row r="81">
@@ -2046,19 +2288,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.340403</v>
+        <v>9.777232</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0001382827758789062</v>
+        <v>1019.765380859375</v>
       </c>
       <c r="D81" t="n">
-        <v>128.3686828613281</v>
+        <v>7.915695667266846</v>
       </c>
       <c r="E81" t="n">
-        <v>27.52581787109375</v>
+        <v>13.20443344116211</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.000310924369841814</v>
+        <v>-0.7246329188346863</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-3.131836652755737</v>
       </c>
     </row>
     <row r="82">
@@ -2066,19 +2311,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.514668</v>
+        <v>9.909305</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0001926422119140625</v>
+        <v>1021.106079101562</v>
       </c>
       <c r="D82" t="n">
-        <v>133.9232940673828</v>
+        <v>7.842248439788818</v>
       </c>
       <c r="E82" t="n">
-        <v>27.98065948486328</v>
+        <v>13.55078220367432</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0002331276918994263</v>
+        <v>-0.7457382082939148</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-3.14532470703125</v>
       </c>
     </row>
     <row r="83">
@@ -2086,19 +2334,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.656452</v>
+        <v>10.038221</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.0002145767211914062</v>
+        <v>1021.106079101562</v>
       </c>
       <c r="D83" t="n">
-        <v>136.7345428466797</v>
+        <v>7.842248439788818</v>
       </c>
       <c r="E83" t="n">
-        <v>28.20597648620605</v>
+        <v>13.55078220367432</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.0001885885722003877</v>
+        <v>-0.7457382082939148</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-3.14532470703125</v>
       </c>
     </row>
     <row r="84">
@@ -2106,19 +2357,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.827123</v>
+        <v>10.175218</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.0002317428588867188</v>
+        <v>1022.481140136719</v>
       </c>
       <c r="D84" t="n">
-        <v>139.5682525634766</v>
+        <v>7.766683578491211</v>
       </c>
       <c r="E84" t="n">
-        <v>28.42990493774414</v>
+        <v>13.89299011230469</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.0001410992263117805</v>
+        <v>-0.7656408548355103</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3.152801513671875</v>
       </c>
     </row>
     <row r="85">
@@ -2126,19 +2380,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.00213</v>
+        <v>10.308876</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.0002527236938476562</v>
+        <v>1023.89013671875</v>
       </c>
       <c r="D85" t="n">
-        <v>145.302490234375</v>
+        <v>7.689128398895264</v>
       </c>
       <c r="E85" t="n">
-        <v>28.87360382080078</v>
+        <v>14.23110675811768</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.202354466542602e-05</v>
+        <v>-0.7844861149787903</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3.155549049377441</v>
       </c>
     </row>
     <row r="86">
@@ -2146,19 +2403,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.153358</v>
+        <v>10.44676</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.0002536773681640625</v>
+        <v>1025.332763671875</v>
       </c>
       <c r="D86" t="n">
-        <v>148.2027282714844</v>
+        <v>7.609691143035889</v>
       </c>
       <c r="E86" t="n">
-        <v>29.0933952331543</v>
+        <v>14.56517505645752</v>
       </c>
       <c r="F86" t="n">
-        <v>9.981512448575813e-06</v>
+        <v>-0.8024211525917053</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3.154694080352783</v>
       </c>
     </row>
     <row r="87">
@@ -2166,19 +2426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.321836</v>
+        <v>10.574801</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.0002431869506835938</v>
+        <v>1025.332763671875</v>
       </c>
       <c r="D87" t="n">
-        <v>154.0687561035156</v>
+        <v>7.609691143035889</v>
       </c>
       <c r="E87" t="n">
-        <v>29.52888870239258</v>
+        <v>14.56517505645752</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0001187699745059945</v>
+        <v>-0.8024211525917053</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3.154694080352783</v>
       </c>
     </row>
     <row r="88">
@@ -2186,19 +2449,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.475164</v>
+        <v>10.712576</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.0002298355102539062</v>
+        <v>1026.80859375</v>
       </c>
       <c r="D88" t="n">
-        <v>157.0342864990234</v>
+        <v>7.528464794158936</v>
       </c>
       <c r="E88" t="n">
-        <v>29.7446117401123</v>
+        <v>14.89524173736572</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0001597225054865703</v>
+        <v>-0.8195913434028625</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3.151184558868408</v>
       </c>
     </row>
     <row r="89">
@@ -2206,19 +2472,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.626158</v>
+        <v>10.848416</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.0001916885375976562</v>
+        <v>1028.317138671875</v>
       </c>
       <c r="D89" t="n">
-        <v>163.0296783447266</v>
+        <v>7.445528507232666</v>
       </c>
       <c r="E89" t="n">
-        <v>30.17201614379883</v>
+        <v>15.22134208679199</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0002340166829526424</v>
+        <v>-0.8361294865608215</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3.145905017852783</v>
       </c>
     </row>
     <row r="90">
@@ -2226,19 +2495,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.795181</v>
+        <v>10.98849</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.0001659393310546875</v>
+        <v>1029.858154296875</v>
       </c>
       <c r="D90" t="n">
-        <v>166.0593109130859</v>
+        <v>7.360946655273438</v>
       </c>
       <c r="E90" t="n">
-        <v>30.38372230529785</v>
+        <v>15.54352378845215</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0002594219404272735</v>
+        <v>-0.8521557450294495</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-3.139465808868408</v>
       </c>
     </row>
     <row r="91">
@@ -2246,19 +2518,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.973479</v>
+        <v>11.120993</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.000110626220703125</v>
+        <v>1029.858154296875</v>
       </c>
       <c r="D91" t="n">
-        <v>172.180419921875</v>
+        <v>7.360946655273438</v>
       </c>
       <c r="E91" t="n">
-        <v>30.77071762084961</v>
+        <v>15.54352378845215</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0002877413935493678</v>
+        <v>-0.8521557450294495</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-3.139465808868408</v>
       </c>
     </row>
     <row r="92">
@@ -2266,19 +2541,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.132423</v>
+        <v>11.262258</v>
       </c>
       <c r="C92" t="n">
-        <v>-8.106231689453125e-05</v>
+        <v>1031.431030273438</v>
       </c>
       <c r="D92" t="n">
-        <v>175.262939453125</v>
+        <v>7.274770736694336</v>
       </c>
       <c r="E92" t="n">
-        <v>30.85689926147461</v>
+        <v>15.86182308197021</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0002897887607105076</v>
+        <v>-0.8677734136581421</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-3.132477521896362</v>
       </c>
     </row>
     <row r="93">
@@ -2286,19 +2564,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.301998</v>
+        <v>11.401234</v>
       </c>
       <c r="C93" t="n">
-        <v>-5.245208740234375e-05</v>
+        <v>1033.033203125</v>
       </c>
       <c r="D93" t="n">
-        <v>178.3489532470703</v>
+        <v>7.169400691986084</v>
       </c>
       <c r="E93" t="n">
-        <v>30.86229515075684</v>
+        <v>16.1416015625</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0002856638166122139</v>
+        <v>-1.196021676063538</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3.618103742599487</v>
       </c>
     </row>
     <row r="94">
@@ -2306,19 +2587,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.452732</v>
+        <v>11.540941</v>
       </c>
       <c r="C94" t="n">
-        <v>2.86102294921875e-06</v>
+        <v>1034.664428710938</v>
       </c>
       <c r="D94" t="n">
-        <v>184.5040588378906</v>
+        <v>7.040660381317139</v>
       </c>
       <c r="E94" t="n">
-        <v>30.68336296081543</v>
+        <v>16.4223461151123</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0002599376603029668</v>
+        <v>-1.480881929397583</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-4.620943069458008</v>
       </c>
     </row>
     <row r="95">
@@ -2326,19 +2610,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.641538</v>
+        <v>11.683867</v>
       </c>
       <c r="C95" t="n">
-        <v>5.054473876953125e-05</v>
+        <v>1034.664428710938</v>
       </c>
       <c r="D95" t="n">
-        <v>190.6041412353516</v>
+        <v>7.040660381317139</v>
       </c>
       <c r="E95" t="n">
-        <v>30.33957290649414</v>
+        <v>16.4223461151123</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0002182952594012022</v>
+        <v>-1.480881929397583</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-4.620943069458008</v>
       </c>
     </row>
     <row r="96">
@@ -2346,19 +2633,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.789632</v>
+        <v>11.81996</v>
       </c>
       <c r="C96" t="n">
-        <v>7.152557373046875e-05</v>
+        <v>1036.322998046875</v>
       </c>
       <c r="D96" t="n">
-        <v>193.62548828125</v>
+        <v>6.883400917053223</v>
       </c>
       <c r="E96" t="n">
-        <v>30.12950325012207</v>
+        <v>16.68780517578125</v>
       </c>
       <c r="F96" t="n">
-        <v>0.000193011830560863</v>
+        <v>-1.823136448860168</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-5.888797283172607</v>
       </c>
     </row>
     <row r="97">
@@ -2366,19 +2656,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.986586</v>
+        <v>11.967655</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001058578491210938</v>
+        <v>1038.007690429688</v>
       </c>
       <c r="D97" t="n">
-        <v>199.6009063720703</v>
+        <v>6.69122838973999</v>
       </c>
       <c r="E97" t="n">
-        <v>29.66285514831543</v>
+        <v>16.93797874450684</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0001337353169219568</v>
+        <v>-2.204539775848389</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-7.273780345916748</v>
       </c>
     </row>
     <row r="98">
@@ -2386,19 +2679,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.1668</v>
+        <v>12.107994</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0001173019409179688</v>
+        <v>1039.716796875</v>
       </c>
       <c r="D98" t="n">
-        <v>202.5525512695312</v>
+        <v>6.460826396942139</v>
       </c>
       <c r="E98" t="n">
-        <v>29.41444969177246</v>
+        <v>17.17680740356445</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0001046038596541621</v>
+        <v>-2.596282958984375</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-8.651379585266113</v>
       </c>
     </row>
     <row r="99">
@@ -2406,19 +2702,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.350736</v>
+        <v>12.256611</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0001325607299804688</v>
+        <v>1041.449829101562</v>
       </c>
       <c r="D99" t="n">
-        <v>208.3808746337891</v>
+        <v>6.191465377807617</v>
       </c>
       <c r="E99" t="n">
-        <v>28.9289722442627</v>
+        <v>17.40855407714844</v>
       </c>
       <c r="F99" t="n">
-        <v>4.38441893493291e-05</v>
+        <v>-2.977402925491333</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-9.92121696472168</v>
       </c>
     </row>
     <row r="100">
@@ -2426,19 +2725,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.509549</v>
+        <v>12.402076</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0001363754272460938</v>
+        <v>1041.449829101562</v>
       </c>
       <c r="D100" t="n">
-        <v>211.2648162841797</v>
+        <v>6.191465377807617</v>
       </c>
       <c r="E100" t="n">
-        <v>28.78257179260254</v>
+        <v>17.40855407714844</v>
       </c>
       <c r="F100" t="n">
-        <v>1.494991101935739e-05</v>
+        <v>-2.977402925491333</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-9.92121696472168</v>
       </c>
     </row>
     <row r="101">
@@ -2446,19 +2748,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.685465</v>
+        <v>12.543547</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0001344680786132812</v>
+        <v>1043.205932617188</v>
       </c>
       <c r="D101" t="n">
-        <v>217.0094909667969</v>
+        <v>5.88463830947876</v>
       </c>
       <c r="E101" t="n">
-        <v>28.69833755493164</v>
+        <v>17.63856506347656</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.751344775082543e-05</v>
+        <v>-3.328850269317627</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-11.01155090332031</v>
       </c>
     </row>
     <row r="102">
@@ -2466,19 +2771,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.868563</v>
+        <v>12.697435</v>
       </c>
       <c r="C102" t="n">
-        <v>0.00012969970703125</v>
+        <v>1044.985229492188</v>
       </c>
       <c r="D102" t="n">
-        <v>219.8816680908203</v>
+        <v>5.543717384338379</v>
       </c>
       <c r="E102" t="n">
-        <v>28.73180770874023</v>
+        <v>17.8721752166748</v>
       </c>
       <c r="F102" t="n">
-        <v>-5.967025208519772e-05</v>
+        <v>-3.635523080825806</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-11.8770923614502</v>
       </c>
     </row>
     <row r="103">
@@ -2486,19 +2794,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.037554</v>
+        <v>12.847524</v>
       </c>
       <c r="C103" t="n">
-        <v>0.00011444091796875</v>
+        <v>1046.7880859375</v>
       </c>
       <c r="D103" t="n">
-        <v>225.6454315185547</v>
+        <v>5.173484802246094</v>
       </c>
       <c r="E103" t="n">
-        <v>28.89664077758789</v>
+        <v>18.11360740661621</v>
       </c>
       <c r="F103" t="n">
-        <v>-9.798118844628334e-05</v>
+        <v>-3.887078762054443</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-12.49666404724121</v>
       </c>
     </row>
     <row r="104">
@@ -2506,19 +2817,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.20893</v>
+        <v>12.9935</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0001039505004882812</v>
+        <v>1048.615356445312</v>
       </c>
       <c r="D104" t="n">
-        <v>228.5423736572266</v>
+        <v>4.77963924407959</v>
       </c>
       <c r="E104" t="n">
-        <v>29.01438140869141</v>
+        <v>18.36545562744141</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.0001146391950896941</v>
+        <v>-4.078084468841553</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-12.86998462677002</v>
       </c>
     </row>
     <row r="105">
@@ -2526,19 +2840,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.386182</v>
+        <v>13.159071</v>
       </c>
       <c r="C105" t="n">
-        <v>7.82012939453125e-05</v>
+        <v>1050.468139648438</v>
       </c>
       <c r="D105" t="n">
-        <v>234.3759460449219</v>
+        <v>4.368278503417969</v>
       </c>
       <c r="E105" t="n">
-        <v>29.29769706726074</v>
+        <v>18.62851333618164</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.0001450305280741304</v>
+        <v>-4.207977771759033</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-13.01442337036133</v>
       </c>
     </row>
     <row r="106">
@@ -2546,19 +2863,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.562231</v>
+        <v>13.303309</v>
       </c>
       <c r="C106" t="n">
-        <v>4.9591064453125e-05</v>
+        <v>1050.468139648438</v>
       </c>
       <c r="D106" t="n">
-        <v>240.2710266113281</v>
+        <v>4.368278503417969</v>
       </c>
       <c r="E106" t="n">
-        <v>29.62492942810059</v>
+        <v>18.62851333618164</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.0001561127428431064</v>
+        <v>-4.207977771759033</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-13.01442337036133</v>
       </c>
     </row>
     <row r="107">
@@ -2566,19 +2886,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.712485</v>
+        <v>13.454582</v>
       </c>
       <c r="C107" t="n">
-        <v>3.528594970703125e-05</v>
+        <v>1052.347534179688</v>
       </c>
       <c r="D107" t="n">
-        <v>243.2439270019531</v>
+        <v>3.945422887802124</v>
       </c>
       <c r="E107" t="n">
-        <v>29.79974937438965</v>
+        <v>18.9019947052002</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.000157805290655233</v>
+        <v>-4.280540466308594</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-12.96074295043945</v>
       </c>
     </row>
     <row r="108">
@@ -2586,19 +2909,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.887378</v>
+        <v>13.609555</v>
       </c>
       <c r="C108" t="n">
-        <v>2.09808349609375e-05</v>
+        <v>1054.25439453125</v>
       </c>
       <c r="D108" t="n">
-        <v>246.2345886230469</v>
+        <v>3.516614675521851</v>
       </c>
       <c r="E108" t="n">
-        <v>29.98002433776855</v>
+        <v>19.18403434753418</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.0001560210657771677</v>
+        <v>-4.302825450897217</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-12.74827861785889</v>
       </c>
     </row>
     <row r="109">
@@ -2606,19 +2932,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>16.080091</v>
+        <v>13.757345</v>
       </c>
       <c r="C109" t="n">
-        <v>-9.5367431640625e-06</v>
+        <v>1056.189575195312</v>
       </c>
       <c r="D109" t="n">
-        <v>252.2710876464844</v>
+        <v>3.086619138717651</v>
       </c>
       <c r="E109" t="n">
-        <v>30.3525447845459</v>
+        <v>19.47221183776855</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.0001410512340953574</v>
+        <v>-4.284116268157959</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-12.42030811309814</v>
       </c>
     </row>
     <row r="110">
@@ -2626,19 +2955,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>16.269112</v>
+        <v>13.910675</v>
       </c>
       <c r="C110" t="n">
-        <v>-3.528594970703125e-05</v>
+        <v>1058.153442382812</v>
       </c>
       <c r="D110" t="n">
-        <v>258.371826171875</v>
+        <v>2.65923547744751</v>
       </c>
       <c r="E110" t="n">
-        <v>30.57968902587891</v>
+        <v>19.76395797729492</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.0001151477990788408</v>
+        <v>-4.234859943389893</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-12.02000713348389</v>
       </c>
     </row>
     <row r="111">
@@ -2646,19 +2978,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>16.43675</v>
+        <v>14.066612</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.673004150390625e-05</v>
+        <v>1060.146362304688</v>
       </c>
       <c r="D111" t="n">
-        <v>261.4293823242188</v>
+        <v>2.23720908164978</v>
       </c>
       <c r="E111" t="n">
-        <v>30.57136344909668</v>
+        <v>20.05688858032227</v>
       </c>
       <c r="F111" t="n">
-        <v>-9.918106661643833e-05</v>
+        <v>-4.165743827819824</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-11.58720684051514</v>
       </c>
     </row>
     <row r="112">
@@ -2666,19 +3001,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>16.6125</v>
+        <v>14.216192</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.29425048828125e-05</v>
+        <v>1060.146362304688</v>
       </c>
       <c r="D112" t="n">
-        <v>267.5242614746094</v>
+        <v>2.23720908164978</v>
       </c>
       <c r="E112" t="n">
-        <v>30.37475776672363</v>
+        <v>20.05688858032227</v>
       </c>
       <c r="F112" t="n">
-        <v>-6.381511775543913e-05</v>
+        <v>-4.165743827819824</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-11.58720684051514</v>
       </c>
     </row>
     <row r="113">
@@ -2686,19 +3024,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>16.787057</v>
+        <v>14.371805</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.771087646484375e-05</v>
+        <v>1062.168579101562</v>
       </c>
       <c r="D113" t="n">
-        <v>270.5519409179688</v>
+        <v>1.822231531143188</v>
       </c>
       <c r="E113" t="n">
-        <v>30.21350479125977</v>
+        <v>20.34895706176758</v>
       </c>
       <c r="F113" t="n">
-        <v>-4.488359627430327e-05</v>
+        <v>-4.08696174621582</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-11.15645027160645</v>
       </c>
     </row>
     <row r="114">
@@ -2706,19 +3047,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>16.980826</v>
+        <v>14.537006</v>
       </c>
       <c r="C114" t="n">
-        <v>-7.343292236328125e-05</v>
+        <v>1064.219604492188</v>
       </c>
       <c r="D114" t="n">
-        <v>276.5515441894531</v>
+        <v>1.41500449180603</v>
       </c>
       <c r="E114" t="n">
-        <v>29.81265640258789</v>
+        <v>20.6385498046875</v>
       </c>
       <c r="F114" t="n">
-        <v>-5.028127816331107e-06</v>
+        <v>-4.007652759552002</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-10.75553894042969</v>
       </c>
     </row>
     <row r="115">
@@ -2726,19 +3070,1287 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>17.162576</v>
+        <v>14.69738</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.43865966796875e-05</v>
+        <v>1066.299560546875</v>
       </c>
       <c r="D115" t="n">
-        <v>279.519287109375</v>
+        <v>1.01535701751709</v>
       </c>
       <c r="E115" t="n">
-        <v>29.58577537536621</v>
+        <v>20.92446327209473</v>
       </c>
       <c r="F115" t="n">
-        <v>1.132633497036295e-05</v>
+        <v>-3.935525178909302</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-10.40498352050781</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>14.849813</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1068.407958984375</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6223960518836975</v>
+      </c>
+      <c r="E116" t="n">
+        <v>21.20586776733398</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-3.876605749130249</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-10.11802673339844</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>15.008888</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1070.544311523438</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.2346799373626709</v>
+      </c>
+      <c r="E117" t="n">
+        <v>21.48226547241211</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-3.83514142036438</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-9.90131950378418</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.174469</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1072.7080078125</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.149606466293335</v>
+      </c>
+      <c r="E118" t="n">
+        <v>21.75338554382324</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-3.81367015838623</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-9.755661010742188</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>15.332422</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1072.7080078125</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.149606466293335</v>
+      </c>
+      <c r="E119" t="n">
+        <v>21.75338554382324</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-3.81367015838623</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-9.755661010742188</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>15.485119</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1074.898681640625</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.5324850082397461</v>
+      </c>
+      <c r="E120" t="n">
+        <v>22.01918411254883</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-3.813204526901245</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-9.67744255065918</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>15.642773</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1077.110107421875</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.9386793971061707</v>
+      </c>
+      <c r="E121" t="n">
+        <v>22.17850494384766</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-4.252508163452148</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-10.28917026519775</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>15.804329</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1079.33837890625</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.381850361824036</v>
+      </c>
+      <c r="E122" t="n">
+        <v>22.32456016540527</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-4.724204063415527</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-11.75468921661377</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>15.966521</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1081.570434570312</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-1.893348336219788</v>
+      </c>
+      <c r="E123" t="n">
+        <v>22.25547981262207</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-5.687849998474121</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-14.30571460723877</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>16.145751</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1083.804931640625</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-2.477503061294556</v>
+      </c>
+      <c r="E124" t="n">
+        <v>22.29160118103027</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-6.397495746612549</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-17.30768966674805</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16.304133</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1086.037719726562</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-3.144207000732422</v>
+      </c>
+      <c r="E125" t="n">
+        <v>22.22880744934082</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-7.273129940032959</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-20.14031791687012</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>16.464008</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1088.261962890625</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-3.90177321434021</v>
+      </c>
+      <c r="E126" t="n">
+        <v>22.12738037109375</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-8.162338256835938</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-22.68739318847656</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>16.630113</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1090.475708007812</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-4.748083591461182</v>
+      </c>
+      <c r="E127" t="n">
+        <v>22.02480888366699</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-8.99769401550293</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-24.80402565002441</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>16.802597</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1092.679931640625</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-5.675973415374756</v>
+      </c>
+      <c r="E128" t="n">
+        <v>21.95111274719238</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-9.737455368041992</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-26.37956047058105</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>16.971905</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1094.879150390625</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-6.67384147644043</v>
+      </c>
+      <c r="E129" t="n">
+        <v>21.93803596496582</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-10.33987998962402</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-27.34886360168457</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>17.148574</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1097.08056640625</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-7.726149082183838</v>
+      </c>
+      <c r="E130" t="n">
+        <v>22.01033401489258</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-10.77165412902832</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-27.69169998168945</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>17.328642</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1099.293212890625</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-8.814452171325684</v>
+      </c>
+      <c r="E131" t="n">
+        <v>22.18011093139648</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-11.01162719726562</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-27.43647575378418</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>17.490156</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1099.293212890625</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-8.814452171325684</v>
+      </c>
+      <c r="E132" t="n">
+        <v>22.18011093139648</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-11.01162719726562</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-27.43647575378418</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>17.65361</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1101.526733398438</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-9.919038772583008</v>
+      </c>
+      <c r="E133" t="n">
+        <v>22.44217300415039</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-11.05768394470215</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-26.6612377166748</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>17.820798</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1103.789306640625</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-11.02103328704834</v>
+      </c>
+      <c r="E134" t="n">
+        <v>22.77850723266602</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-10.92797565460205</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-25.48313522338867</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>17.984857</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1106.08740234375</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-12.10405254364014</v>
+      </c>
+      <c r="E135" t="n">
+        <v>23.16633987426758</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-10.65233039855957</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-24.03153228759766</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>18.157853</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1108.424926757812</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-13.15494823455811</v>
+      </c>
+      <c r="E136" t="n">
+        <v>23.58420372009277</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-10.26431655883789</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-22.42597770690918</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>18.330082</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1110.804321289062</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-14.16383647918701</v>
+      </c>
+      <c r="E137" t="n">
+        <v>24.0147819519043</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-9.795738220214844</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-20.76641273498535</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>18.502122</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1113.226684570312</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-15.12377643585205</v>
+      </c>
+      <c r="E138" t="n">
+        <v>24.44549751281738</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-9.273978233337402</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-19.12789916992188</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>18.676575</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1115.683837890625</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-16.05650520324707</v>
+      </c>
+      <c r="E139" t="n">
+        <v>24.72602653503418</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-9.197158813476562</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-18.29483985900879</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>18.846906</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1118.171020507812</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-16.9763298034668</v>
+      </c>
+      <c r="E140" t="n">
+        <v>24.97701454162598</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-9.19938850402832</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-18.58264541625977</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>19.017613</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1120.680786132812</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-17.90362358093262</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25.12981414794922</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-9.452360153198242</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-19.81091117858887</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>19.189547</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1123.189086914062</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-18.88469886779785</v>
+      </c>
+      <c r="E142" t="n">
+        <v>24.94273376464844</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-10.31371212005615</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-22.34892272949219</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>19.358963</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1125.674438476562</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-19.95333862304688</v>
+      </c>
+      <c r="E143" t="n">
+        <v>24.60149192810059</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-11.36314582824707</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-26.15690040588379</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>19.534579</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1128.133056640625</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-21.11541938781738</v>
+      </c>
+      <c r="E144" t="n">
+        <v>24.31740760803223</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-12.30807018280029</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-30.11728286743164</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>19.714987</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1130.552490234375</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-22.3847599029541</v>
+      </c>
+      <c r="E145" t="n">
+        <v>23.86689376831055</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-13.40026950836182</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-33.66481399536133</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>19.894074</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1132.92236328125</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-23.76697731018066</v>
+      </c>
+      <c r="E146" t="n">
+        <v>23.36271858215332</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-14.48318481445312</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-36.67113494873047</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>20.074744</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1135.240478515625</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-25.2575626373291</v>
+      </c>
+      <c r="E147" t="n">
+        <v>22.8715763092041</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-15.4919605255127</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-38.98728561401367</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>20.260701</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1137.511352539062</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-26.84662246704102</v>
+      </c>
+      <c r="E148" t="n">
+        <v>22.45623779296875</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-16.3766040802002</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-40.49435043334961</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20.444484</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1139.74609375</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-28.5188102722168</v>
+      </c>
+      <c r="E149" t="n">
+        <v>22.18506622314453</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-17.08134269714355</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-41.11169815063477</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>20.625097</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1141.962524414062</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-30.25265502929688</v>
+      </c>
+      <c r="E150" t="n">
+        <v>22.12061500549316</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-17.54599761962891</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-40.80755615234375</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20.806123</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1144.183471679688</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-32.02064514160156</v>
+      </c>
+      <c r="E151" t="n">
+        <v>22.29623985290527</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-17.71809005737305</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-39.62181091308594</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20.987433</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1146.43212890625</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-33.79189300537109</v>
+      </c>
+      <c r="E152" t="n">
+        <v>22.6906681060791</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-17.58538818359375</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-37.69709396362305</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.173478</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1148.735961914062</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-35.51735687255859</v>
+      </c>
+      <c r="E153" t="n">
+        <v>23.40810203552246</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-16.81055068969727</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-34.68760681152344</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21.352972</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1151.109497070312</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-37.15871429443359</v>
+      </c>
+      <c r="E154" t="n">
+        <v>24.18505096435547</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-15.77460765838623</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-30.56226348876953</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>21.534294</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1153.547607421875</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-38.72647857666016</v>
+      </c>
+      <c r="E155" t="n">
+        <v>24.77659606933594</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-15.17171001434326</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-26.80875778198242</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>21.715482</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1156.052001953125</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-40.21719360351562</v>
+      </c>
+      <c r="E156" t="n">
+        <v>25.39883804321289</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-14.41794967651367</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-24.33088111877441</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>21.902787</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1158.619506835938</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-41.62984466552734</v>
+      </c>
+      <c r="E157" t="n">
+        <v>25.94420623779297</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-13.79000186920166</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-23.14402198791504</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>22.085447</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1161.2265625</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-43.00911712646484</v>
+      </c>
+      <c r="E158" t="n">
+        <v>26.10647392272949</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-13.88828086853027</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-24.03001022338867</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>22.273022</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1163.839233398438</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-44.41377639770508</v>
+      </c>
+      <c r="E159" t="n">
+        <v>25.92437744140625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-14.52184772491455</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-27.53941535949707</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>22.461753</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1166.41796875</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-45.89840316772461</v>
+      </c>
+      <c r="E160" t="n">
+        <v>25.31876945495605</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-15.62912273406982</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-32.97633361816406</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>22.657083</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1168.921020507812</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-47.50206756591797</v>
+      </c>
+      <c r="E161" t="n">
+        <v>24.3514575958252</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-16.95822334289551</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-39.41172790527344</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>22.852954</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1171.317138671875</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-49.23986053466797</v>
+      </c>
+      <c r="E162" t="n">
+        <v>23.14422988891602</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-18.32054328918457</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-46.06095504760742</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>23.046324</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1173.596801757812</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-51.10866928100586</v>
+      </c>
+      <c r="E163" t="n">
+        <v>21.96867370605469</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-19.5716495513916</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-52.14787673950195</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>23.235297</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1175.7626953125</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-53.08778762817383</v>
+      </c>
+      <c r="E164" t="n">
+        <v>20.81642723083496</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-20.55011749267578</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-57.16569519042969</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>23.422438</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1177.7900390625</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-55.18049240112305</v>
+      </c>
+      <c r="E165" t="n">
+        <v>19.3598747253418</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-21.69199752807617</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-60.92809677124023</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>23.626221</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1179.68212890625</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-57.38317108154297</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18.11981391906738</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-22.61265754699707</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-63.53164291381836</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>23.820338</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1183.152221679688</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-62.06083297729492</v>
+      </c>
+      <c r="E167" t="n">
+        <v>17.00092315673828</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-23.86683464050293</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-62.19561767578125</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>24.012633</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1184.8408203125</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-64.48098754882812</v>
+      </c>
+      <c r="E168" t="n">
+        <v>17.31002426147461</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-23.94106101989746</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-57.40818786621094</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>24.208915</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1186.593994140625</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-66.881591796875</v>
+      </c>
+      <c r="E169" t="n">
+        <v>18.25712776184082</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-23.42814636230469</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-50.89119338989258</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>24.404436</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1188.461669921875</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-69.20090484619141</v>
+      </c>
+      <c r="E170" t="n">
+        <v>19.48752212524414</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-22.42019462585449</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-43.84865951538086</v>
       </c>
     </row>
   </sheetData>

--- a/path.xlsx
+++ b/path.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.410944</v>
+        <v>1.554104</v>
       </c>
       <c r="C2" t="n">
         <v>1000</v>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.500786</v>
+        <v>1.696099</v>
       </c>
       <c r="C3" t="n">
         <v>1000</v>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.582217</v>
+        <v>1.78496</v>
       </c>
       <c r="C4" t="n">
         <v>1000</v>
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.657208</v>
+        <v>1.890524</v>
       </c>
       <c r="C5" t="n">
         <v>1000</v>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.747437</v>
+        <v>1.992557</v>
       </c>
       <c r="C6" t="n">
         <v>1000</v>
@@ -586,19 +586,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.82797</v>
+        <v>2.099407</v>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D7" t="n">
         <v>8.75</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.002735002897679806</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.633828571381059e-09</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.920707</v>
+        <v>2.200758</v>
       </c>
       <c r="C8" t="n">
         <v>1000.000732421875</v>
@@ -632,22 +632,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.00348</v>
+        <v>2.300847</v>
       </c>
       <c r="C9" t="n">
         <v>1000.000732421875</v>
       </c>
       <c r="D9" t="n">
-        <v>8.75</v>
+        <v>8.74616527557373</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002735002897679806</v>
+        <v>0.001835593837313354</v>
       </c>
       <c r="F9" t="n">
-        <v>3.633828571381059e-09</v>
+        <v>-0.04869551956653595</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0.0006713866605423391</v>
       </c>
     </row>
     <row r="10">
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.088187</v>
+        <v>2.399822</v>
       </c>
       <c r="C10" t="n">
         <v>1000.000732421875</v>
@@ -678,22 +678,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.177559</v>
+        <v>2.503583</v>
       </c>
       <c r="C11" t="n">
-        <v>1000.000732421875</v>
+        <v>1000.000549316406</v>
       </c>
       <c r="D11" t="n">
-        <v>8.74616527557373</v>
+        <v>8.74620532989502</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001835593837313354</v>
+        <v>6.809675687691197e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04869551956653595</v>
+        <v>-0.006366176530718803</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0006713866605423391</v>
+        <v>-0.0007934570894576609</v>
       </c>
     </row>
     <row r="12">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.262819</v>
+        <v>2.5996</v>
       </c>
       <c r="C12" t="n">
         <v>1000.000549316406</v>
@@ -724,22 +724,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.341749</v>
+        <v>2.698185</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.000549316406</v>
+        <v>1000.000610351562</v>
       </c>
       <c r="D13" t="n">
-        <v>8.74620532989502</v>
+        <v>8.746031761169434</v>
       </c>
       <c r="E13" t="n">
-        <v>6.809675687691197e-05</v>
+        <v>-0.000417017174186185</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006366176530718803</v>
+        <v>0.01056433189660311</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0007934570894576609</v>
+        <v>-0.00079345703125</v>
       </c>
     </row>
     <row r="14">
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.429823</v>
+        <v>2.808587</v>
       </c>
       <c r="C14" t="n">
         <v>1000.000610351562</v>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.512247</v>
+        <v>2.908359</v>
       </c>
       <c r="C15" t="n">
         <v>1000.000610351562</v>
@@ -793,22 +793,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.596804</v>
+        <v>3.023162</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.000610351562</v>
+        <v>1000.000732421875</v>
       </c>
       <c r="D16" t="n">
-        <v>8.746031761169434</v>
+        <v>8.745903968811035</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.000417017174186185</v>
+        <v>-0.0004458405310288072</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01056433189660311</v>
+        <v>0.01482934225350618</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00079345703125</v>
+        <v>-0.0007019041222520173</v>
       </c>
     </row>
     <row r="17">
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.693725</v>
+        <v>3.121342</v>
       </c>
       <c r="C17" t="n">
         <v>1000.000732421875</v>
@@ -839,22 +839,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.777297</v>
+        <v>3.236423</v>
       </c>
       <c r="C18" t="n">
-        <v>1000.000732421875</v>
+        <v>1000.000854492188</v>
       </c>
       <c r="D18" t="n">
-        <v>8.745903968811035</v>
+        <v>8.745845794677734</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0004458405310288072</v>
+        <v>-0.0003465904155746102</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01482934225350618</v>
+        <v>0.01352384872734547</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0007019041222520173</v>
+        <v>-0.00054931640625</v>
       </c>
     </row>
     <row r="19">
@@ -862,7 +862,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.876399</v>
+        <v>3.336989</v>
       </c>
       <c r="C19" t="n">
         <v>1000.000854492188</v>
@@ -885,22 +885,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.96205</v>
+        <v>3.45171</v>
       </c>
       <c r="C20" t="n">
-        <v>1000.000854492188</v>
+        <v>1000.000915527344</v>
       </c>
       <c r="D20" t="n">
-        <v>8.745845794677734</v>
+        <v>8.745829582214355</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0003465904155746102</v>
+        <v>-0.0002376677002757788</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01352384872734547</v>
+        <v>0.0104242404922843</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00054931640625</v>
+        <v>-0.0003662109666038305</v>
       </c>
     </row>
     <row r="21">
@@ -908,22 +908,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.068442</v>
+        <v>3.563759</v>
       </c>
       <c r="C21" t="n">
-        <v>1000.000915527344</v>
+        <v>1000.0009765625</v>
       </c>
       <c r="D21" t="n">
-        <v>8.745829582214355</v>
+        <v>8.745831489562988</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0002376677002757788</v>
+        <v>-0.000152517925016582</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0104242404922843</v>
+        <v>0.007282883860170841</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0003662109666038305</v>
+        <v>-0.0002136230323230848</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.166741</v>
+        <v>3.676443</v>
       </c>
       <c r="C22" t="n">
-        <v>1000.000915527344</v>
+        <v>1000.0009765625</v>
       </c>
       <c r="D22" t="n">
-        <v>8.745829582214355</v>
+        <v>8.745831489562988</v>
       </c>
       <c r="E22" t="n">
         <v>-0.000152517925016582</v>
@@ -954,22 +954,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.26175</v>
+        <v>3.783553</v>
       </c>
       <c r="C23" t="n">
-        <v>1000.0009765625</v>
+        <v>1000.001098632812</v>
       </c>
       <c r="D23" t="n">
-        <v>8.745831489562988</v>
+        <v>8.74583911895752</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.000152517925016582</v>
+        <v>-9.406788740307093e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.007282883860170841</v>
+        <v>0.004742854740470648</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0002136230323230848</v>
+        <v>-0.0001220703125</v>
       </c>
     </row>
     <row r="24">
@@ -977,7 +977,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.359781</v>
+        <v>3.887897</v>
       </c>
       <c r="C24" t="n">
         <v>1000.001098632812</v>
@@ -1000,22 +1000,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.44526</v>
+        <v>3.999252</v>
       </c>
       <c r="C25" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D25" t="n">
-        <v>8.74583911895752</v>
+        <v>8.745846748352051</v>
       </c>
       <c r="E25" t="n">
-        <v>-9.406788740307093e-05</v>
+        <v>-5.667558434652165e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004742854740470648</v>
+        <v>0.002915197517722845</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0001220703125</v>
+        <v>-3.05175763060106e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1023,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.54241</v>
+        <v>4.108873</v>
       </c>
       <c r="C26" t="n">
         <v>1000.001098632812</v>
@@ -1046,22 +1046,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.632716</v>
+        <v>4.223124</v>
       </c>
       <c r="C27" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D27" t="n">
-        <v>8.745846748352051</v>
+        <v>8.745851516723633</v>
       </c>
       <c r="E27" t="n">
-        <v>-5.667558434652165e-05</v>
+        <v>-3.362639108672738e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002915197517722845</v>
+        <v>0.001698925625532866</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.05175763060106e-05</v>
+        <v>7.692676263104659e-06</v>
       </c>
     </row>
     <row r="28">
@@ -1069,7 +1069,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.731897</v>
+        <v>4.343199</v>
       </c>
       <c r="C28" t="n">
         <v>1000.001098632812</v>
@@ -1092,22 +1092,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.822532</v>
+        <v>4.464192</v>
       </c>
       <c r="C29" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D29" t="n">
-        <v>8.745851516723633</v>
+        <v>8.74582576751709</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.362639108672738e-05</v>
+        <v>-1.149873605754692e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001698925625532866</v>
+        <v>0.0001140835447586142</v>
       </c>
       <c r="G29" t="n">
-        <v>7.692676263104659e-06</v>
+        <v>1.421349679731065e-05</v>
       </c>
     </row>
     <row r="30">
@@ -1115,7 +1115,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.92075</v>
+        <v>4.571635</v>
       </c>
       <c r="C30" t="n">
         <v>1000.001098632812</v>
@@ -1138,22 +1138,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.010482</v>
+        <v>4.708095</v>
       </c>
       <c r="C31" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D31" t="n">
-        <v>8.74582576751709</v>
+        <v>8.745797157287598</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.149873605754692e-05</v>
+        <v>-1.39398889587028e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0001140835447586142</v>
+        <v>0.0001271224027732387</v>
       </c>
       <c r="G31" t="n">
-        <v>1.421349679731065e-05</v>
+        <v>1.427052120561711e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1161,7 +1161,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.110848</v>
+        <v>4.819681</v>
       </c>
       <c r="C32" t="n">
         <v>1000.001098632812</v>
@@ -1184,22 +1184,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.207393</v>
+        <v>4.931975</v>
       </c>
       <c r="C33" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D33" t="n">
-        <v>8.745797157287598</v>
+        <v>8.745771408081055</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.39398889587028e-05</v>
+        <v>-1.134508147515589e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0001271224027732387</v>
+        <v>0.000103889760794118</v>
       </c>
       <c r="G33" t="n">
-        <v>1.427052120561711e-05</v>
+        <v>1.43187880894402e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1207,22 +1207,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.308074</v>
+        <v>5.050296</v>
       </c>
       <c r="C34" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D34" t="n">
-        <v>8.745771408081055</v>
+        <v>8.74575138092041</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.134508147515589e-05</v>
+        <v>-7.979348993103486e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.000103889760794118</v>
+        <v>7.483115768991411e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>1.43187880894402e-05</v>
+        <v>1.435257399862166e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1230,22 +1230,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.407125</v>
+        <v>5.164839</v>
       </c>
       <c r="C35" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D35" t="n">
-        <v>8.745771408081055</v>
+        <v>8.74575138092041</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.134508147515589e-05</v>
+        <v>-7.979348993103486e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000103889760794118</v>
+        <v>7.483115768991411e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>1.43187880894402e-05</v>
+        <v>1.435257399862166e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1253,22 +1253,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.520879</v>
+        <v>5.285315</v>
       </c>
       <c r="C36" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D36" t="n">
-        <v>8.74575138092041</v>
+        <v>8.745742797851562</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.979348993103486e-06</v>
+        <v>-2.142563971574418e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>7.483115768991411e-05</v>
+        <v>2.11067217605887e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>1.435257399862166e-05</v>
+        <v>1.43694687722018e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1276,22 +1276,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.620603</v>
+        <v>5.40313</v>
       </c>
       <c r="C37" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D37" t="n">
-        <v>8.74575138092041</v>
+        <v>8.745742797851562</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.979348993103486e-06</v>
+        <v>-2.142563971574418e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>7.483115768991411e-05</v>
+        <v>2.11067217605887e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>1.435257399862166e-05</v>
+        <v>1.43694687722018e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1299,22 +1299,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.722876</v>
+        <v>5.541215</v>
       </c>
       <c r="C38" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D38" t="n">
-        <v>8.745742797851562</v>
+        <v>8.74573802947998</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.142563971574418e-06</v>
+        <v>-3.128575372102205e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>2.11067217605887e-05</v>
+        <v>3.031447158718947e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>1.43694687722018e-05</v>
+        <v>1.438458093616646e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1322,22 +1322,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.827976</v>
+        <v>5.663561</v>
       </c>
       <c r="C39" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D39" t="n">
-        <v>8.74573802947998</v>
+        <v>8.745732307434082</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.128575372102205e-06</v>
+        <v>-2.649436510182568e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>3.031447158718947e-05</v>
+        <v>2.660348218341824e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438458093616646e-05</v>
+        <v>1.439588504581479e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1345,22 +1345,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.926635</v>
+        <v>5.784172</v>
       </c>
       <c r="C40" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D40" t="n">
-        <v>8.74573802947998</v>
+        <v>8.745732307434082</v>
       </c>
       <c r="E40" t="n">
-        <v>-3.128575372102205e-06</v>
+        <v>-2.649436510182568e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>3.031447158718947e-05</v>
+        <v>2.660348218341824e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>1.438458093616646e-05</v>
+        <v>1.439588504581479e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1368,22 +1368,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.02935</v>
+        <v>5.906712</v>
       </c>
       <c r="C41" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D41" t="n">
-        <v>8.745732307434082</v>
+        <v>8.7457275390625</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.649436510182568e-06</v>
+        <v>-1.935645514095086e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>2.660348218341824e-05</v>
+        <v>1.994365993596148e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>1.439588504581479e-05</v>
+        <v>1.440321375412168e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1391,22 +1391,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.131444</v>
+        <v>6.028194</v>
       </c>
       <c r="C42" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D42" t="n">
-        <v>8.745732307434082</v>
+        <v>8.7457275390625</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.649436510182568e-06</v>
+        <v>-1.935645514095086e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>2.660348218341824e-05</v>
+        <v>1.994365993596148e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>1.439588504581479e-05</v>
+        <v>1.440321375412168e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1414,22 +1414,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.249266</v>
+        <v>6.173372</v>
       </c>
       <c r="C43" t="n">
         <v>1000.001098632812</v>
       </c>
       <c r="D43" t="n">
-        <v>8.7457275390625</v>
+        <v>8.745724678039551</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.935645514095086e-06</v>
+        <v>-4.014884495973092e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>1.994365993596148e-05</v>
+        <v>4.645531589630991e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>1.440321375412168e-05</v>
+        <v>1.440676714992151e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1437,22 +1437,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.354506</v>
+        <v>6.301324</v>
       </c>
       <c r="C44" t="n">
-        <v>1000.001098632812</v>
+        <v>1000.0673828125</v>
       </c>
       <c r="D44" t="n">
-        <v>8.7457275390625</v>
+        <v>8.745007514953613</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.935645514095086e-06</v>
+        <v>1.255920052528381</v>
       </c>
       <c r="F44" t="n">
-        <v>1.994365993596148e-05</v>
+        <v>-0.01732652448117733</v>
       </c>
       <c r="G44" t="n">
-        <v>1.440321375412168e-05</v>
+        <v>-0.02642822265625</v>
       </c>
     </row>
     <row r="45">
@@ -1460,22 +1460,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.461165</v>
+        <v>6.424547</v>
       </c>
       <c r="C45" t="n">
-        <v>1000.001098632812</v>
+        <v>1000.0673828125</v>
       </c>
       <c r="D45" t="n">
-        <v>8.745724678039551</v>
+        <v>8.745007514953613</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.014884495973092e-07</v>
+        <v>1.255920052528381</v>
       </c>
       <c r="F45" t="n">
-        <v>4.645531589630991e-06</v>
+        <v>-0.01732652448117733</v>
       </c>
       <c r="G45" t="n">
-        <v>1.440676714992151e-05</v>
+        <v>-0.02642822265625</v>
       </c>
     </row>
     <row r="46">
@@ -1483,22 +1483,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.568505</v>
+        <v>6.553831</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.0673828125</v>
+        <v>1000.276489257812</v>
       </c>
       <c r="D46" t="n">
-        <v>8.745007514953613</v>
+        <v>8.742654800415039</v>
       </c>
       <c r="E46" t="n">
-        <v>1.255920052528381</v>
+        <v>2.575202941894531</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.01732652448117733</v>
+        <v>-0.03915747255086899</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02642822265625</v>
+        <v>-0.1107788011431694</v>
       </c>
     </row>
     <row r="47">
@@ -1506,22 +1506,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.674587</v>
+        <v>6.686031</v>
       </c>
       <c r="C47" t="n">
-        <v>1000.0673828125</v>
+        <v>1000.276489257812</v>
       </c>
       <c r="D47" t="n">
-        <v>8.745007514953613</v>
+        <v>8.742654800415039</v>
       </c>
       <c r="E47" t="n">
-        <v>1.255920052528381</v>
+        <v>2.575202941894531</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.01732652448117733</v>
+        <v>-0.03915747255086899</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02642822265625</v>
+        <v>-0.1107788011431694</v>
       </c>
     </row>
     <row r="48">
@@ -1529,22 +1529,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.793779</v>
+        <v>6.823758</v>
       </c>
       <c r="C48" t="n">
-        <v>1000.276489257812</v>
+        <v>1000.602661132812</v>
       </c>
       <c r="D48" t="n">
-        <v>8.742654800415039</v>
+        <v>8.738525390625</v>
       </c>
       <c r="E48" t="n">
-        <v>2.575202941894531</v>
+        <v>3.662173748016357</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.03915747255086899</v>
+        <v>-0.06300290673971176</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1107788011431694</v>
+        <v>-0.2413635551929474</v>
       </c>
     </row>
     <row r="49">
@@ -1552,22 +1552,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.901219</v>
+        <v>6.949159</v>
       </c>
       <c r="C49" t="n">
-        <v>1000.276489257812</v>
+        <v>1001.023254394531</v>
       </c>
       <c r="D49" t="n">
-        <v>8.742654800415039</v>
+        <v>8.732319831848145</v>
       </c>
       <c r="E49" t="n">
-        <v>2.575202941894531</v>
+        <v>4.541271209716797</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.03915747255086899</v>
+        <v>-0.08916348963975906</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1107788011431694</v>
+        <v>-0.4074401259422302</v>
       </c>
     </row>
     <row r="50">
@@ -1575,22 +1575,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.007678</v>
+        <v>7.079476</v>
       </c>
       <c r="C50" t="n">
-        <v>1000.602661132812</v>
+        <v>1001.023254394531</v>
       </c>
       <c r="D50" t="n">
-        <v>8.738525390625</v>
+        <v>8.732319831848145</v>
       </c>
       <c r="E50" t="n">
-        <v>3.662173748016357</v>
+        <v>4.541271209716797</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.06300290673971176</v>
+        <v>-0.08916348963975906</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.2413635551929474</v>
+        <v>-0.4074401259422302</v>
       </c>
     </row>
     <row r="51">
@@ -1598,22 +1598,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.118115</v>
+        <v>7.228922</v>
       </c>
       <c r="C51" t="n">
-        <v>1001.023254394531</v>
+        <v>1001.52099609375</v>
       </c>
       <c r="D51" t="n">
-        <v>8.732319831848145</v>
+        <v>8.723714828491211</v>
       </c>
       <c r="E51" t="n">
-        <v>4.541271209716797</v>
+        <v>5.268417835235596</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.08916348963975906</v>
+        <v>-0.1172889024019241</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.4074401259422302</v>
+        <v>-0.5984190702438354</v>
       </c>
     </row>
     <row r="52">
@@ -1621,22 +1621,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.226041</v>
+        <v>7.36045</v>
       </c>
       <c r="C52" t="n">
-        <v>1001.023254394531</v>
+        <v>1002.083984375</v>
       </c>
       <c r="D52" t="n">
-        <v>8.732319831848145</v>
+        <v>8.712429046630859</v>
       </c>
       <c r="E52" t="n">
-        <v>4.541271209716797</v>
+        <v>5.888685703277588</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.08916348963975906</v>
+        <v>-0.147413432598114</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.4074401259422302</v>
+        <v>-0.80487060546875</v>
       </c>
     </row>
     <row r="53">
@@ -1644,22 +1644,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.348738</v>
+        <v>7.490314</v>
       </c>
       <c r="C53" t="n">
-        <v>1001.52099609375</v>
+        <v>1002.083984375</v>
       </c>
       <c r="D53" t="n">
-        <v>8.723714828491211</v>
+        <v>8.712429046630859</v>
       </c>
       <c r="E53" t="n">
-        <v>5.268417835235596</v>
+        <v>5.888685703277588</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1172889024019241</v>
+        <v>-0.147413432598114</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.5984190702438354</v>
+        <v>-0.80487060546875</v>
       </c>
     </row>
     <row r="54">
@@ -1667,22 +1667,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.461931</v>
+        <v>7.636994</v>
       </c>
       <c r="C54" t="n">
-        <v>1002.083984375</v>
+        <v>1002.704223632812</v>
       </c>
       <c r="D54" t="n">
-        <v>8.712429046630859</v>
+        <v>8.698147773742676</v>
       </c>
       <c r="E54" t="n">
-        <v>5.888685703277588</v>
+        <v>6.435371398925781</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.147413432598114</v>
+        <v>-0.179594874382019</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.80487060546875</v>
+        <v>-1.01989734172821</v>
       </c>
     </row>
     <row r="55">
@@ -1690,22 +1690,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.569616</v>
+        <v>7.762614</v>
       </c>
       <c r="C55" t="n">
-        <v>1002.083984375</v>
+        <v>1002.704223632812</v>
       </c>
       <c r="D55" t="n">
-        <v>8.712429046630859</v>
+        <v>8.698147773742676</v>
       </c>
       <c r="E55" t="n">
-        <v>5.888685703277588</v>
+        <v>6.435371398925781</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.147413432598114</v>
+        <v>-0.179594874382019</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.80487060546875</v>
+        <v>-1.01989734172821</v>
       </c>
     </row>
     <row r="56">
@@ -1713,22 +1713,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.683552</v>
+        <v>7.903205</v>
       </c>
       <c r="C56" t="n">
-        <v>1002.704223632812</v>
+        <v>1003.376098632812</v>
       </c>
       <c r="D56" t="n">
-        <v>8.698147773742676</v>
+        <v>8.680624961853027</v>
       </c>
       <c r="E56" t="n">
-        <v>6.435371398925781</v>
+        <v>6.93337345123291</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.179594874382019</v>
+        <v>-0.2133295983076096</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.01989734172821</v>
+        <v>-1.237701296806335</v>
       </c>
     </row>
     <row r="57">
@@ -1736,22 +1736,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.799497</v>
+        <v>8.035997</v>
       </c>
       <c r="C57" t="n">
-        <v>1002.704223632812</v>
+        <v>1004.095825195312</v>
       </c>
       <c r="D57" t="n">
-        <v>8.698147773742676</v>
+        <v>8.659655570983887</v>
       </c>
       <c r="E57" t="n">
-        <v>6.435371398925781</v>
+        <v>7.399051189422607</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.179594874382019</v>
+        <v>-0.2483720332384109</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.01989734172821</v>
+        <v>-1.45318615436554</v>
       </c>
     </row>
     <row r="58">
@@ -1759,22 +1759,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.915962</v>
+        <v>8.179403000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>1003.376098632812</v>
+        <v>1004.095825195312</v>
       </c>
       <c r="D58" t="n">
-        <v>8.680624961853027</v>
+        <v>8.659655570983887</v>
       </c>
       <c r="E58" t="n">
-        <v>6.93337345123291</v>
+        <v>7.399051189422607</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2133295983076096</v>
+        <v>-0.2483720332384109</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.237701296806335</v>
+        <v>-1.45318615436554</v>
       </c>
     </row>
     <row r="59">
@@ -1782,22 +1782,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.0299</v>
+        <v>8.320696</v>
       </c>
       <c r="C59" t="n">
-        <v>1004.095825195312</v>
+        <v>1004.861145019531</v>
       </c>
       <c r="D59" t="n">
-        <v>8.659655570983887</v>
+        <v>8.635075569152832</v>
       </c>
       <c r="E59" t="n">
-        <v>7.399051189422607</v>
+        <v>7.842730522155762</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2483720332384109</v>
+        <v>-0.2844030559062958</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.45318615436554</v>
+        <v>-1.662323236465454</v>
       </c>
     </row>
     <row r="60">
@@ -1805,22 +1805,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.148656</v>
+        <v>8.460597</v>
       </c>
       <c r="C60" t="n">
-        <v>1004.095825195312</v>
+        <v>1005.669921875</v>
       </c>
       <c r="D60" t="n">
-        <v>8.659655570983887</v>
+        <v>8.606767654418945</v>
       </c>
       <c r="E60" t="n">
-        <v>7.399051189422607</v>
+        <v>8.270839691162109</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2483720332384109</v>
+        <v>-0.321064680814743</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.45318615436554</v>
+        <v>-1.861785650253296</v>
       </c>
     </row>
     <row r="61">
@@ -1828,22 +1828,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.272551</v>
+        <v>8.603275</v>
       </c>
       <c r="C61" t="n">
-        <v>1004.861145019531</v>
+        <v>1005.669921875</v>
       </c>
       <c r="D61" t="n">
-        <v>8.635075569152832</v>
+        <v>8.606767654418945</v>
       </c>
       <c r="E61" t="n">
-        <v>7.842730522155762</v>
+        <v>8.270839691162109</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2844030559062958</v>
+        <v>-0.321064680814743</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.662323236465454</v>
+        <v>-1.861785650253296</v>
       </c>
     </row>
     <row r="62">
@@ -1851,22 +1851,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.388838</v>
+        <v>8.7475</v>
       </c>
       <c r="C62" t="n">
-        <v>1005.669921875</v>
+        <v>1006.520812988281</v>
       </c>
       <c r="D62" t="n">
-        <v>8.606767654418945</v>
+        <v>8.574660301208496</v>
       </c>
       <c r="E62" t="n">
-        <v>8.270839691162109</v>
+        <v>8.687372207641602</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.321064680814743</v>
+        <v>-0.3579919040203094</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.861785650253296</v>
+        <v>-2.049072504043579</v>
       </c>
     </row>
     <row r="63">
@@ -1874,22 +1874,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.506086</v>
+        <v>8.895087</v>
       </c>
       <c r="C63" t="n">
-        <v>1005.669921875</v>
+        <v>1007.413208007812</v>
       </c>
       <c r="D63" t="n">
-        <v>8.606767654418945</v>
+        <v>8.538722038269043</v>
       </c>
       <c r="E63" t="n">
-        <v>8.270839691162109</v>
+        <v>9.094834327697754</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.321064680814743</v>
+        <v>-0.3948204219341278</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.861785650253296</v>
+        <v>-2.2222900390625</v>
       </c>
     </row>
     <row r="64">
@@ -1897,22 +1897,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.634204</v>
+        <v>9.031810999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>1006.520812988281</v>
+        <v>1008.345825195312</v>
       </c>
       <c r="D64" t="n">
-        <v>8.574660301208496</v>
+        <v>8.498969078063965</v>
       </c>
       <c r="E64" t="n">
-        <v>8.687372207641602</v>
+        <v>9.494812965393066</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3579919040203094</v>
+        <v>-0.431205689907074</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.049072504043579</v>
+        <v>-2.380157232284546</v>
       </c>
     </row>
     <row r="65">
@@ -1920,22 +1920,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.755283</v>
+        <v>9.170204</v>
       </c>
       <c r="C65" t="n">
-        <v>1007.413208007812</v>
+        <v>1008.345825195312</v>
       </c>
       <c r="D65" t="n">
-        <v>8.538722038269043</v>
+        <v>8.498969078063965</v>
       </c>
       <c r="E65" t="n">
-        <v>9.094834327697754</v>
+        <v>9.494812965393066</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3948204219341278</v>
+        <v>-0.431205689907074</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.2222900390625</v>
+        <v>-2.380157232284546</v>
       </c>
     </row>
     <row r="66">
@@ -1943,22 +1943,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.87917</v>
+        <v>9.323217</v>
       </c>
       <c r="C66" t="n">
-        <v>1007.413208007812</v>
+        <v>1009.318359375</v>
       </c>
       <c r="D66" t="n">
-        <v>8.538722038269043</v>
+        <v>8.455451965332031</v>
       </c>
       <c r="E66" t="n">
-        <v>9.094834327697754</v>
+        <v>9.888334274291992</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3948204219341278</v>
+        <v>-0.4668321907520294</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.2222900390625</v>
+        <v>-2.521850347518921</v>
       </c>
     </row>
     <row r="67">
@@ -1966,22 +1966,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.006342</v>
+        <v>9.462528000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>1008.345825195312</v>
+        <v>1010.329772949219</v>
       </c>
       <c r="D67" t="n">
-        <v>8.498969078063965</v>
+        <v>8.408257484436035</v>
       </c>
       <c r="E67" t="n">
-        <v>9.494812965393066</v>
+        <v>10.27607440948486</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.431205689907074</v>
+        <v>-0.5014278888702393</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.380157232284546</v>
+        <v>-2.647094488143921</v>
       </c>
     </row>
     <row r="68">
@@ -1989,22 +1989,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.126621999999999</v>
+        <v>9.605479000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1009.318359375</v>
+        <v>1010.329772949219</v>
       </c>
       <c r="D68" t="n">
-        <v>8.455451965332031</v>
+        <v>8.408257484436035</v>
       </c>
       <c r="E68" t="n">
-        <v>9.888334274291992</v>
+        <v>10.27607440948486</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4668321907520294</v>
+        <v>-0.5014278888702393</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.521850347518921</v>
+        <v>-2.647094488143921</v>
       </c>
     </row>
     <row r="69">
@@ -2012,22 +2012,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.249185000000001</v>
+        <v>9.763329000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>1009.318359375</v>
+        <v>1011.379638671875</v>
       </c>
       <c r="D69" t="n">
-        <v>8.455451965332031</v>
+        <v>8.357501983642578</v>
       </c>
       <c r="E69" t="n">
-        <v>9.888334274291992</v>
+        <v>10.65848731994629</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4668321907520294</v>
+        <v>-0.5347641110420227</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.521850347518921</v>
+        <v>-2.756012439727783</v>
       </c>
     </row>
     <row r="70">
@@ -2035,22 +2035,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.373848000000001</v>
+        <v>9.90396</v>
       </c>
       <c r="C70" t="n">
-        <v>1010.329772949219</v>
+        <v>1012.467468261719</v>
       </c>
       <c r="D70" t="n">
-        <v>8.408257484436035</v>
+        <v>8.303324699401855</v>
       </c>
       <c r="E70" t="n">
-        <v>10.27607440948486</v>
+        <v>11.03588962554932</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5014278888702393</v>
+        <v>-0.5666682720184326</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.647094488143921</v>
+        <v>-2.849059820175171</v>
       </c>
     </row>
     <row r="71">
@@ -2058,22 +2058,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.493789</v>
+        <v>10.057</v>
       </c>
       <c r="C71" t="n">
-        <v>1011.379638671875</v>
+        <v>1012.467468261719</v>
       </c>
       <c r="D71" t="n">
-        <v>8.357501983642578</v>
+        <v>8.303324699401855</v>
       </c>
       <c r="E71" t="n">
-        <v>10.65848731994629</v>
+        <v>11.03588962554932</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5347641110420227</v>
+        <v>-0.5666682720184326</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.756012439727783</v>
+        <v>-2.849059820175171</v>
       </c>
     </row>
     <row r="72">
@@ -2081,22 +2081,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.620566</v>
+        <v>10.208406</v>
       </c>
       <c r="C72" t="n">
-        <v>1011.379638671875</v>
+        <v>1013.592895507812</v>
       </c>
       <c r="D72" t="n">
-        <v>8.357501983642578</v>
+        <v>8.245881080627441</v>
       </c>
       <c r="E72" t="n">
-        <v>10.65848731994629</v>
+        <v>11.40850639343262</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5347641110420227</v>
+        <v>-0.5970171093940735</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.756012439727783</v>
+        <v>-2.927033424377441</v>
       </c>
     </row>
     <row r="73">
@@ -2104,22 +2104,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.743520999999999</v>
+        <v>10.371449</v>
       </c>
       <c r="C73" t="n">
-        <v>1012.467468261719</v>
+        <v>1014.755065917969</v>
       </c>
       <c r="D73" t="n">
-        <v>8.303324699401855</v>
+        <v>8.185341835021973</v>
       </c>
       <c r="E73" t="n">
-        <v>11.03588962554932</v>
+        <v>11.77649974822998</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.5666682720184326</v>
+        <v>-0.6257410049438477</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.849059820175171</v>
+        <v>-2.990967273712158</v>
       </c>
     </row>
     <row r="74">
@@ -2127,22 +2127,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.869906</v>
+        <v>10.522669</v>
       </c>
       <c r="C74" t="n">
-        <v>1013.592895507812</v>
+        <v>1015.952453613281</v>
       </c>
       <c r="D74" t="n">
-        <v>8.245881080627441</v>
+        <v>8.108875274658203</v>
       </c>
       <c r="E74" t="n">
-        <v>11.40850639343262</v>
+        <v>12.11740779876709</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.5970171093940735</v>
+        <v>-0.8767603039741516</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.927033424377441</v>
+        <v>-3.415924549102783</v>
       </c>
     </row>
     <row r="75">
@@ -2150,22 +2150,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.002128000000001</v>
+        <v>10.675194</v>
       </c>
       <c r="C75" t="n">
-        <v>1014.755065917969</v>
+        <v>1015.952453613281</v>
       </c>
       <c r="D75" t="n">
-        <v>8.185341835021973</v>
+        <v>8.108875274658203</v>
       </c>
       <c r="E75" t="n">
-        <v>11.77649974822998</v>
+        <v>12.11740779876709</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.6257410049438477</v>
+        <v>-0.8767603039741516</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.990967273712158</v>
+        <v>-3.415924549102783</v>
       </c>
     </row>
     <row r="76">
@@ -2173,22 +2173,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.122585000000001</v>
+        <v>10.833862</v>
       </c>
       <c r="C76" t="n">
-        <v>1014.755065917969</v>
+        <v>1017.184509277344</v>
       </c>
       <c r="D76" t="n">
-        <v>8.185341835021973</v>
+        <v>8.016312599182129</v>
       </c>
       <c r="E76" t="n">
-        <v>11.77649974822998</v>
+        <v>12.46096134185791</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6257410049438477</v>
+        <v>-1.063696622848511</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.990967273712158</v>
+        <v>-4.159333229064941</v>
       </c>
     </row>
     <row r="77">
@@ -2196,22 +2196,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.259536000000001</v>
+        <v>10.983434</v>
       </c>
       <c r="C77" t="n">
-        <v>1015.953857421875</v>
+        <v>1018.450622558594</v>
       </c>
       <c r="D77" t="n">
-        <v>8.121878623962402</v>
+        <v>7.905660152435303</v>
       </c>
       <c r="E77" t="n">
-        <v>12.13999938964844</v>
+        <v>12.79610157012939</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.6528212428092957</v>
+        <v>-1.272997617721558</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.042053461074829</v>
+        <v>-5.027956485748291</v>
       </c>
     </row>
     <row r="78">
@@ -2219,22 +2219,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.386742</v>
+        <v>11.137327</v>
       </c>
       <c r="C78" t="n">
-        <v>1017.188903808594</v>
+        <v>1019.750061035156</v>
       </c>
       <c r="D78" t="n">
-        <v>8.055670738220215</v>
+        <v>7.774425506591797</v>
       </c>
       <c r="E78" t="n">
-        <v>12.49910449981689</v>
+        <v>13.12402439117432</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6782829761505127</v>
+        <v>-1.490433812141418</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.081635475158691</v>
+        <v>-5.929721355438232</v>
       </c>
     </row>
     <row r="79">
@@ -2242,22 +2242,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.517325</v>
+        <v>11.282244</v>
       </c>
       <c r="C79" t="n">
-        <v>1017.188903808594</v>
+        <v>1019.750061035156</v>
       </c>
       <c r="D79" t="n">
-        <v>8.055670738220215</v>
+        <v>7.774425506591797</v>
       </c>
       <c r="E79" t="n">
-        <v>12.49910449981689</v>
+        <v>13.12402439117432</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6782829761505127</v>
+        <v>-1.490433812141418</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.081635475158691</v>
+        <v>-5.929721355438232</v>
       </c>
     </row>
     <row r="80">
@@ -2265,22 +2265,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.646459999999999</v>
+        <v>11.461103</v>
       </c>
       <c r="C80" t="n">
-        <v>1018.459533691406</v>
+        <v>1021.082214355469</v>
       </c>
       <c r="D80" t="n">
-        <v>7.986887454986572</v>
+        <v>7.621891498565674</v>
       </c>
       <c r="E80" t="n">
-        <v>12.8538932800293</v>
+        <v>13.44665908813477</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.7021879553794861</v>
+        <v>-1.70228374004364</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.111083984375</v>
+        <v>-6.79370641708374</v>
       </c>
     </row>
     <row r="81">
@@ -2288,22 +2288,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.777232</v>
+        <v>11.611105</v>
       </c>
       <c r="C81" t="n">
-        <v>1019.765380859375</v>
+        <v>1022.446533203125</v>
       </c>
       <c r="D81" t="n">
-        <v>7.915695667266846</v>
+        <v>7.44843053817749</v>
       </c>
       <c r="E81" t="n">
-        <v>13.20443344116211</v>
+        <v>13.76532459259033</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.7246329188346863</v>
+        <v>-1.901645421981812</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.131836652755737</v>
+        <v>-7.569557666778564</v>
       </c>
     </row>
     <row r="82">
@@ -2311,22 +2311,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.909305</v>
+        <v>11.782091</v>
       </c>
       <c r="C82" t="n">
-        <v>1021.106079101562</v>
+        <v>1023.842407226562</v>
       </c>
       <c r="D82" t="n">
-        <v>7.842248439788818</v>
+        <v>7.255271434783936</v>
       </c>
       <c r="E82" t="n">
-        <v>13.55078220367432</v>
+        <v>14.08145523071289</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7457382082939148</v>
+        <v>-2.082325458526611</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.14532470703125</v>
+        <v>-8.226938247680664</v>
       </c>
     </row>
     <row r="83">
@@ -2334,22 +2334,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.038221</v>
+        <v>11.942995</v>
       </c>
       <c r="C83" t="n">
-        <v>1021.106079101562</v>
+        <v>1023.842407226562</v>
       </c>
       <c r="D83" t="n">
-        <v>7.842248439788818</v>
+        <v>7.255271434783936</v>
       </c>
       <c r="E83" t="n">
-        <v>13.55078220367432</v>
+        <v>14.08145523071289</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7457382082939148</v>
+        <v>-2.082325458526611</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.14532470703125</v>
+        <v>-8.226938247680664</v>
       </c>
     </row>
     <row r="84">
@@ -2357,22 +2357,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.175218</v>
+        <v>12.101581</v>
       </c>
       <c r="C84" t="n">
-        <v>1022.481140136719</v>
+        <v>1025.269775390625</v>
       </c>
       <c r="D84" t="n">
-        <v>7.766683578491211</v>
+        <v>7.044283390045166</v>
       </c>
       <c r="E84" t="n">
-        <v>13.89299011230469</v>
+        <v>14.3962230682373</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.7656408548355103</v>
+        <v>-2.240209341049194</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.152801513671875</v>
+        <v>-8.750773429870605</v>
       </c>
     </row>
     <row r="85">
@@ -2380,22 +2380,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10.308876</v>
+        <v>12.268112</v>
       </c>
       <c r="C85" t="n">
-        <v>1023.89013671875</v>
+        <v>1026.728515625</v>
       </c>
       <c r="D85" t="n">
-        <v>7.689128398895264</v>
+        <v>6.817752361297607</v>
       </c>
       <c r="E85" t="n">
-        <v>14.23110675811768</v>
+        <v>14.71041393280029</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.7844861149787903</v>
+        <v>-2.373221874237061</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.155549049377441</v>
+        <v>-9.138440132141113</v>
       </c>
     </row>
     <row r="86">
@@ -2403,22 +2403,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.44676</v>
+        <v>12.42334</v>
       </c>
       <c r="C86" t="n">
-        <v>1025.332763671875</v>
+        <v>1028.218627929688</v>
       </c>
       <c r="D86" t="n">
-        <v>7.609691143035889</v>
+        <v>6.578164577484131</v>
       </c>
       <c r="E86" t="n">
-        <v>14.56517505645752</v>
+        <v>15.02441120147705</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8024211525917053</v>
+        <v>-2.481052875518799</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.154694080352783</v>
+        <v>-9.396652221679688</v>
       </c>
     </row>
     <row r="87">
@@ -2426,22 +2426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10.574801</v>
+        <v>12.586854</v>
       </c>
       <c r="C87" t="n">
-        <v>1025.332763671875</v>
+        <v>1028.218627929688</v>
       </c>
       <c r="D87" t="n">
-        <v>7.609691143035889</v>
+        <v>6.578164577484131</v>
       </c>
       <c r="E87" t="n">
-        <v>14.56517505645752</v>
+        <v>15.02441120147705</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8024211525917053</v>
+        <v>-2.481052875518799</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.154694080352783</v>
+        <v>-9.396652221679688</v>
       </c>
     </row>
     <row r="88">
@@ -2449,22 +2449,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10.712576</v>
+        <v>12.75035</v>
       </c>
       <c r="C88" t="n">
-        <v>1026.80859375</v>
+        <v>1029.739868164062</v>
       </c>
       <c r="D88" t="n">
-        <v>7.528464794158936</v>
+        <v>6.328024864196777</v>
       </c>
       <c r="E88" t="n">
-        <v>14.89524173736572</v>
+        <v>15.33822631835938</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8195913434028625</v>
+        <v>-2.564900159835815</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.151184558868408</v>
+        <v>-9.538861274719238</v>
       </c>
     </row>
     <row r="89">
@@ -2472,22 +2472,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.848416</v>
+        <v>12.929051</v>
       </c>
       <c r="C89" t="n">
-        <v>1028.317138671875</v>
+        <v>1031.292236328125</v>
       </c>
       <c r="D89" t="n">
-        <v>7.445528507232666</v>
+        <v>6.069704532623291</v>
       </c>
       <c r="E89" t="n">
-        <v>15.22134208679199</v>
+        <v>15.65156745910645</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8361294865608215</v>
+        <v>-2.627145528793335</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.145905017852783</v>
+        <v>-9.58308219909668</v>
       </c>
     </row>
     <row r="90">
@@ -2495,22 +2495,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.98849</v>
+        <v>13.098024</v>
       </c>
       <c r="C90" t="n">
-        <v>1029.858154296875</v>
+        <v>1032.875732421875</v>
       </c>
       <c r="D90" t="n">
-        <v>7.360946655273438</v>
+        <v>5.805325984954834</v>
       </c>
       <c r="E90" t="n">
-        <v>15.54352378845215</v>
+        <v>15.96394634246826</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8521557450294495</v>
+        <v>-2.671020030975342</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.139465808868408</v>
+        <v>-9.549543380737305</v>
       </c>
     </row>
     <row r="91">
@@ -2518,22 +2518,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.120993</v>
+        <v>13.260477</v>
       </c>
       <c r="C91" t="n">
-        <v>1029.858154296875</v>
+        <v>1034.490356445312</v>
       </c>
       <c r="D91" t="n">
-        <v>7.360946655273438</v>
+        <v>5.536677837371826</v>
       </c>
       <c r="E91" t="n">
-        <v>15.54352378845215</v>
+        <v>16.27476692199707</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8521557450294495</v>
+        <v>-2.700230360031128</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.139465808868408</v>
+        <v>-9.459118843078613</v>
       </c>
     </row>
     <row r="92">
@@ -2541,22 +2541,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.262258</v>
+        <v>13.432141</v>
       </c>
       <c r="C92" t="n">
-        <v>1031.431030273438</v>
+        <v>1036.135864257812</v>
       </c>
       <c r="D92" t="n">
-        <v>7.274770736694336</v>
+        <v>5.265176773071289</v>
       </c>
       <c r="E92" t="n">
-        <v>15.86182308197021</v>
+        <v>16.58341026306152</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8677734136581421</v>
+        <v>-2.718674659729004</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.132477521896362</v>
+        <v>-9.33180046081543</v>
       </c>
     </row>
     <row r="93">
@@ -2564,22 +2564,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.401234</v>
+        <v>13.59398</v>
       </c>
       <c r="C93" t="n">
-        <v>1033.033203125</v>
+        <v>1036.135864257812</v>
       </c>
       <c r="D93" t="n">
-        <v>7.169400691986084</v>
+        <v>5.265176773071289</v>
       </c>
       <c r="E93" t="n">
-        <v>16.1416015625</v>
+        <v>16.58341026306152</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.196021676063538</v>
+        <v>-2.718674659729004</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.618103742599487</v>
+        <v>-9.33180046081543</v>
       </c>
     </row>
     <row r="94">
@@ -2587,22 +2587,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.540941</v>
+        <v>13.772519</v>
       </c>
       <c r="C94" t="n">
-        <v>1034.664428710938</v>
+        <v>1037.811889648438</v>
       </c>
       <c r="D94" t="n">
-        <v>7.040660381317139</v>
+        <v>4.991847038269043</v>
       </c>
       <c r="E94" t="n">
-        <v>16.4223461151123</v>
+        <v>16.88928031921387</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.480881929397583</v>
+        <v>-2.730157613754272</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.620943069458008</v>
+        <v>-9.185497283935547</v>
       </c>
     </row>
     <row r="95">
@@ -2610,22 +2610,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.683867</v>
+        <v>13.942524</v>
       </c>
       <c r="C95" t="n">
-        <v>1034.664428710938</v>
+        <v>1039.518310546875</v>
       </c>
       <c r="D95" t="n">
-        <v>7.040660381317139</v>
+        <v>4.717333316802979</v>
       </c>
       <c r="E95" t="n">
-        <v>16.4223461151123</v>
+        <v>17.19185256958008</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.480881929397583</v>
+        <v>-2.738234996795654</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.620943069458008</v>
+        <v>-9.035473823547363</v>
       </c>
     </row>
     <row r="96">
@@ -2633,22 +2633,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.81996</v>
+        <v>14.111505</v>
       </c>
       <c r="C96" t="n">
-        <v>1036.322998046875</v>
+        <v>1041.254760742188</v>
       </c>
       <c r="D96" t="n">
-        <v>6.883400917053223</v>
+        <v>4.441927909851074</v>
       </c>
       <c r="E96" t="n">
-        <v>16.68780517578125</v>
+        <v>17.4907054901123</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.823136448860168</v>
+        <v>-2.746015787124634</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.888797283172607</v>
+        <v>-8.893932342529297</v>
       </c>
     </row>
     <row r="97">
@@ -2656,22 +2656,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.967655</v>
+        <v>14.280185</v>
       </c>
       <c r="C97" t="n">
-        <v>1038.007690429688</v>
+        <v>1043.020874023438</v>
       </c>
       <c r="D97" t="n">
-        <v>6.69122838973999</v>
+        <v>4.165621280670166</v>
       </c>
       <c r="E97" t="n">
-        <v>16.93797874450684</v>
+        <v>17.78565788269043</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.204539775848389</v>
+        <v>-2.756076335906982</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.273780345916748</v>
+        <v>-8.76990795135498</v>
       </c>
     </row>
     <row r="98">
@@ -2679,22 +2679,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.107994</v>
+        <v>14.450701</v>
       </c>
       <c r="C98" t="n">
-        <v>1039.716796875</v>
+        <v>1043.020874023438</v>
       </c>
       <c r="D98" t="n">
-        <v>6.460826396942139</v>
+        <v>4.165621280670166</v>
       </c>
       <c r="E98" t="n">
-        <v>17.17680740356445</v>
+        <v>17.78565788269043</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.596282958984375</v>
+        <v>-2.756076335906982</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.651379585266113</v>
+        <v>-8.76990795135498</v>
       </c>
     </row>
     <row r="99">
@@ -2702,22 +2702,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.256611</v>
+        <v>14.617198</v>
       </c>
       <c r="C99" t="n">
-        <v>1041.449829101562</v>
+        <v>1044.816162109375</v>
       </c>
       <c r="D99" t="n">
-        <v>6.191465377807617</v>
+        <v>3.888153314590454</v>
       </c>
       <c r="E99" t="n">
-        <v>17.40855407714844</v>
+        <v>18.07683563232422</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.977402925491333</v>
+        <v>-2.770406246185303</v>
       </c>
       <c r="G99" t="n">
-        <v>-9.92121696472168</v>
+        <v>-8.669320106506348</v>
       </c>
     </row>
     <row r="100">
@@ -2725,22 +2725,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.402076</v>
+        <v>14.801749</v>
       </c>
       <c r="C100" t="n">
-        <v>1041.449829101562</v>
+        <v>1046.640502929688</v>
       </c>
       <c r="D100" t="n">
-        <v>6.191465377807617</v>
+        <v>3.60907769203186</v>
       </c>
       <c r="E100" t="n">
-        <v>17.40855407714844</v>
+        <v>18.3643741607666</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.977402925491333</v>
+        <v>-2.79034686088562</v>
       </c>
       <c r="G100" t="n">
-        <v>-9.92121696472168</v>
+        <v>-8.595165252685547</v>
       </c>
     </row>
     <row r="101">
@@ -2748,22 +2748,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.543547</v>
+        <v>15.000262</v>
       </c>
       <c r="C101" t="n">
-        <v>1043.205932617188</v>
+        <v>1048.493286132812</v>
       </c>
       <c r="D101" t="n">
-        <v>5.88463830947876</v>
+        <v>3.327826261520386</v>
       </c>
       <c r="E101" t="n">
-        <v>17.63856506347656</v>
+        <v>18.6484317779541</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.328850269317627</v>
+        <v>-2.816616058349609</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.01155090332031</v>
+        <v>-8.547983169555664</v>
       </c>
     </row>
     <row r="102">
@@ -2771,22 +2771,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.697435</v>
+        <v>15.175018</v>
       </c>
       <c r="C102" t="n">
-        <v>1044.985229492188</v>
+        <v>1050.374389648438</v>
       </c>
       <c r="D102" t="n">
-        <v>5.543717384338379</v>
+        <v>3.043770313262939</v>
       </c>
       <c r="E102" t="n">
-        <v>17.8721752166748</v>
+        <v>18.92918395996094</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.635523080825806</v>
+        <v>-2.849368572235107</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.8770923614502</v>
+        <v>-8.526285171508789</v>
       </c>
     </row>
     <row r="103">
@@ -2794,22 +2794,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.847524</v>
+        <v>15.346959</v>
       </c>
       <c r="C103" t="n">
-        <v>1046.7880859375</v>
+        <v>1052.283447265625</v>
       </c>
       <c r="D103" t="n">
-        <v>5.173484802246094</v>
+        <v>2.756278514862061</v>
       </c>
       <c r="E103" t="n">
-        <v>18.11360740661621</v>
+        <v>19.20683479309082</v>
       </c>
       <c r="F103" t="n">
-        <v>-3.887078762054443</v>
+        <v>-2.888280153274536</v>
       </c>
       <c r="G103" t="n">
-        <v>-12.49666404724121</v>
+        <v>-8.527079582214355</v>
       </c>
     </row>
     <row r="104">
@@ -2817,22 +2817,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.9935</v>
+        <v>15.540921</v>
       </c>
       <c r="C104" t="n">
-        <v>1048.615356445312</v>
+        <v>1054.220092773438</v>
       </c>
       <c r="D104" t="n">
-        <v>4.77963924407959</v>
+        <v>2.464757680892944</v>
       </c>
       <c r="E104" t="n">
-        <v>18.36545562744141</v>
+        <v>19.48160552978516</v>
       </c>
       <c r="F104" t="n">
-        <v>-4.078084468841553</v>
+        <v>-2.932654857635498</v>
       </c>
       <c r="G104" t="n">
-        <v>-12.86998462677002</v>
+        <v>-8.546243667602539</v>
       </c>
     </row>
     <row r="105">
@@ -2840,22 +2840,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.159071</v>
+        <v>15.726208</v>
       </c>
       <c r="C105" t="n">
-        <v>1050.468139648438</v>
+        <v>1054.220092773438</v>
       </c>
       <c r="D105" t="n">
-        <v>4.368278503417969</v>
+        <v>2.464757680892944</v>
       </c>
       <c r="E105" t="n">
-        <v>18.62851333618164</v>
+        <v>19.48160552978516</v>
       </c>
       <c r="F105" t="n">
-        <v>-4.207977771759033</v>
+        <v>-2.932654857635498</v>
       </c>
       <c r="G105" t="n">
-        <v>-13.01442337036133</v>
+        <v>-8.546243667602539</v>
       </c>
     </row>
     <row r="106">
@@ -2863,22 +2863,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.303309</v>
+        <v>15.903475</v>
       </c>
       <c r="C106" t="n">
-        <v>1050.468139648438</v>
+        <v>1056.184326171875</v>
       </c>
       <c r="D106" t="n">
-        <v>4.368278503417969</v>
+        <v>2.168691396713257</v>
       </c>
       <c r="E106" t="n">
-        <v>18.62851333618164</v>
+        <v>19.75372314453125</v>
       </c>
       <c r="F106" t="n">
-        <v>-4.207977771759033</v>
+        <v>-2.981531381607056</v>
       </c>
       <c r="G106" t="n">
-        <v>-13.01442337036133</v>
+        <v>-8.579263687133789</v>
       </c>
     </row>
     <row r="107">
@@ -2886,22 +2886,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.454582</v>
+        <v>16.091479</v>
       </c>
       <c r="C107" t="n">
-        <v>1052.347534179688</v>
+        <v>1058.175415039062</v>
       </c>
       <c r="D107" t="n">
-        <v>3.945422887802124</v>
+        <v>1.867663025856018</v>
       </c>
       <c r="E107" t="n">
-        <v>18.9019947052002</v>
+        <v>20.02343559265137</v>
       </c>
       <c r="F107" t="n">
-        <v>-4.280540466308594</v>
+        <v>-3.033787965774536</v>
       </c>
       <c r="G107" t="n">
-        <v>-12.96074295043945</v>
+        <v>-8.621438980102539</v>
       </c>
     </row>
     <row r="108">
@@ -2909,22 +2909,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.609555</v>
+        <v>16.279819</v>
       </c>
       <c r="C108" t="n">
-        <v>1054.25439453125</v>
+        <v>1060.188842773438</v>
       </c>
       <c r="D108" t="n">
-        <v>3.516614675521851</v>
+        <v>1.54115903377533</v>
       </c>
       <c r="E108" t="n">
-        <v>19.18403434753418</v>
+        <v>20.21091461181641</v>
       </c>
       <c r="F108" t="n">
-        <v>-4.302825450897217</v>
+        <v>-3.454090595245361</v>
       </c>
       <c r="G108" t="n">
-        <v>-12.74827861785889</v>
+        <v>-9.231640815734863</v>
       </c>
     </row>
     <row r="109">
@@ -2932,22 +2932,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.757345</v>
+        <v>16.469408</v>
       </c>
       <c r="C109" t="n">
-        <v>1056.189575195312</v>
+        <v>1062.222412109375</v>
       </c>
       <c r="D109" t="n">
-        <v>3.086619138717651</v>
+        <v>1.181113123893738</v>
       </c>
       <c r="E109" t="n">
-        <v>19.47221183776855</v>
+        <v>20.39741706848145</v>
       </c>
       <c r="F109" t="n">
-        <v>-4.284116268157959</v>
+        <v>-3.861974716186523</v>
       </c>
       <c r="G109" t="n">
-        <v>-12.42030811309814</v>
+        <v>-10.49623107910156</v>
       </c>
     </row>
     <row r="110">
@@ -2955,22 +2955,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.910675</v>
+        <v>16.647924</v>
       </c>
       <c r="C110" t="n">
-        <v>1058.153442382812</v>
+        <v>1064.273681640625</v>
       </c>
       <c r="D110" t="n">
-        <v>2.65923547744751</v>
+        <v>0.7791574597358704</v>
       </c>
       <c r="E110" t="n">
-        <v>19.76395797729492</v>
+        <v>20.55178833007812</v>
       </c>
       <c r="F110" t="n">
-        <v>-4.234859943389893</v>
+        <v>-4.361332893371582</v>
       </c>
       <c r="G110" t="n">
-        <v>-12.02000713348389</v>
+        <v>-12.13527297973633</v>
       </c>
     </row>
     <row r="111">
@@ -2978,22 +2978,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.066612</v>
+        <v>16.832336</v>
       </c>
       <c r="C111" t="n">
-        <v>1060.146362304688</v>
+        <v>1066.339233398438</v>
       </c>
       <c r="D111" t="n">
-        <v>2.23720908164978</v>
+        <v>0.3250974118709564</v>
       </c>
       <c r="E111" t="n">
-        <v>20.05688858032227</v>
+        <v>20.67320442199707</v>
       </c>
       <c r="F111" t="n">
-        <v>-4.165743827819824</v>
+        <v>-4.932399749755859</v>
       </c>
       <c r="G111" t="n">
-        <v>-11.58720684051514</v>
+        <v>-13.95882034301758</v>
       </c>
     </row>
     <row r="112">
@@ -3001,22 +3001,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.216192</v>
+        <v>17.041033</v>
       </c>
       <c r="C112" t="n">
-        <v>1060.146362304688</v>
+        <v>1068.415893554688</v>
       </c>
       <c r="D112" t="n">
-        <v>2.23720908164978</v>
+        <v>-0.187301978468895</v>
       </c>
       <c r="E112" t="n">
-        <v>20.05688858032227</v>
+        <v>20.77058219909668</v>
       </c>
       <c r="F112" t="n">
-        <v>-4.165743827819824</v>
+        <v>-5.534834384918213</v>
       </c>
       <c r="G112" t="n">
-        <v>-11.58720684051514</v>
+        <v>-15.79652404785156</v>
       </c>
     </row>
     <row r="113">
@@ -3024,22 +3024,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>14.371805</v>
+        <v>17.247637</v>
       </c>
       <c r="C113" t="n">
-        <v>1062.168579101562</v>
+        <v>1070.501953125</v>
       </c>
       <c r="D113" t="n">
-        <v>1.822231531143188</v>
+        <v>-0.7603356242179871</v>
       </c>
       <c r="E113" t="n">
-        <v>20.34895706176758</v>
+        <v>20.85505294799805</v>
       </c>
       <c r="F113" t="n">
-        <v>-4.08696174621582</v>
+        <v>-6.133912086486816</v>
       </c>
       <c r="G113" t="n">
-        <v>-11.15645027160645</v>
+        <v>-17.50089645385742</v>
       </c>
     </row>
     <row r="114">
@@ -3047,22 +3047,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.537006</v>
+        <v>17.444549</v>
       </c>
       <c r="C114" t="n">
-        <v>1064.219604492188</v>
+        <v>1070.501953125</v>
       </c>
       <c r="D114" t="n">
-        <v>1.41500449180603</v>
+        <v>-0.7603356242179871</v>
       </c>
       <c r="E114" t="n">
-        <v>20.6385498046875</v>
+        <v>20.85505294799805</v>
       </c>
       <c r="F114" t="n">
-        <v>-4.007652759552002</v>
+        <v>-6.133912086486816</v>
       </c>
       <c r="G114" t="n">
-        <v>-10.75553894042969</v>
+        <v>-17.50089645385742</v>
       </c>
     </row>
     <row r="115">
@@ -3070,22 +3070,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14.69738</v>
+        <v>17.641992</v>
       </c>
       <c r="C115" t="n">
-        <v>1066.299560546875</v>
+        <v>1072.596435546875</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01535701751709</v>
+        <v>-1.392639875411987</v>
       </c>
       <c r="E115" t="n">
-        <v>20.92446327209473</v>
+        <v>20.94070053100586</v>
       </c>
       <c r="F115" t="n">
-        <v>-3.935525178909302</v>
+        <v>-6.696249008178711</v>
       </c>
       <c r="G115" t="n">
-        <v>-10.40498352050781</v>
+        <v>-18.95654678344727</v>
       </c>
     </row>
     <row r="116">
@@ -3093,22 +3093,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.849813</v>
+        <v>17.843363</v>
       </c>
       <c r="C116" t="n">
-        <v>1068.407958984375</v>
+        <v>1074.700073242188</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6223960518836975</v>
+        <v>-2.079483270645142</v>
       </c>
       <c r="E116" t="n">
-        <v>21.20586776733398</v>
+        <v>21.04240989685059</v>
       </c>
       <c r="F116" t="n">
-        <v>-3.876605749130249</v>
+        <v>-7.192148208618164</v>
       </c>
       <c r="G116" t="n">
-        <v>-10.11802673339844</v>
+        <v>-20.08127021789551</v>
       </c>
     </row>
     <row r="117">
@@ -3116,22 +3116,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.008888</v>
+        <v>18.047183</v>
       </c>
       <c r="C117" t="n">
-        <v>1070.544311523438</v>
+        <v>1076.815185546875</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2346799373626709</v>
+        <v>-2.813250303268433</v>
       </c>
       <c r="E117" t="n">
-        <v>21.48226547241211</v>
+        <v>21.17345428466797</v>
       </c>
       <c r="F117" t="n">
-        <v>-3.83514142036438</v>
+        <v>-7.597486019134521</v>
       </c>
       <c r="G117" t="n">
-        <v>-9.90131950378418</v>
+        <v>-20.82667922973633</v>
       </c>
     </row>
     <row r="118">
@@ -3139,22 +3139,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.174469</v>
+        <v>18.25173</v>
       </c>
       <c r="C118" t="n">
-        <v>1072.7080078125</v>
+        <v>1078.944702148438</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.149606466293335</v>
+        <v>-3.584110021591187</v>
       </c>
       <c r="E118" t="n">
-        <v>21.75338554382324</v>
+        <v>21.34316825866699</v>
       </c>
       <c r="F118" t="n">
-        <v>-3.81367015838623</v>
+        <v>-7.895541667938232</v>
       </c>
       <c r="G118" t="n">
-        <v>-9.755661010742188</v>
+        <v>-21.1789493560791</v>
       </c>
     </row>
     <row r="119">
@@ -3162,22 +3162,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.332422</v>
+        <v>18.449746</v>
       </c>
       <c r="C119" t="n">
-        <v>1072.7080078125</v>
+        <v>1081.0927734375</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.149606466293335</v>
+        <v>-4.380879878997803</v>
       </c>
       <c r="E119" t="n">
-        <v>21.75338554382324</v>
+        <v>21.55504035949707</v>
       </c>
       <c r="F119" t="n">
-        <v>-3.81367015838623</v>
+        <v>-8.078898429870605</v>
       </c>
       <c r="G119" t="n">
-        <v>-9.755661010742188</v>
+        <v>-21.15764617919922</v>
       </c>
     </row>
     <row r="120">
@@ -3185,22 +3185,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.485119</v>
+        <v>18.648506</v>
       </c>
       <c r="C120" t="n">
-        <v>1074.898681640625</v>
+        <v>1083.263549804688</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.5324850082397461</v>
+        <v>-5.192038536071777</v>
       </c>
       <c r="E120" t="n">
-        <v>22.01918411254883</v>
+        <v>21.80647659301758</v>
       </c>
       <c r="F120" t="n">
-        <v>-3.813204526901245</v>
+        <v>-8.15035343170166</v>
       </c>
       <c r="G120" t="n">
-        <v>-9.67744255065918</v>
+        <v>-20.81209945678711</v>
       </c>
     </row>
     <row r="121">
@@ -3208,22 +3208,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.642773</v>
+        <v>18.843693</v>
       </c>
       <c r="C121" t="n">
-        <v>1077.110107421875</v>
+        <v>1085.46044921875</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.9386793971061707</v>
+        <v>-6.006755352020264</v>
       </c>
       <c r="E121" t="n">
-        <v>22.17850494384766</v>
+        <v>22.09040641784668</v>
       </c>
       <c r="F121" t="n">
-        <v>-4.252508163452148</v>
+        <v>-8.122226715087891</v>
       </c>
       <c r="G121" t="n">
-        <v>-10.28917026519775</v>
+        <v>-20.21349716186523</v>
       </c>
     </row>
     <row r="122">
@@ -3231,22 +3231,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.804329</v>
+        <v>19.041542</v>
       </c>
       <c r="C122" t="n">
-        <v>1079.33837890625</v>
+        <v>1087.686401367188</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.381850361824036</v>
+        <v>-6.815736770629883</v>
       </c>
       <c r="E122" t="n">
-        <v>22.32456016540527</v>
+        <v>22.3976001739502</v>
       </c>
       <c r="F122" t="n">
-        <v>-4.724204063415527</v>
+        <v>-8.013493537902832</v>
       </c>
       <c r="G122" t="n">
-        <v>-11.75468921661377</v>
+        <v>-19.44415473937988</v>
       </c>
     </row>
     <row r="123">
@@ -3254,22 +3254,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.966521</v>
+        <v>19.252331</v>
       </c>
       <c r="C123" t="n">
-        <v>1081.570434570312</v>
+        <v>1089.943603515625</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.893348336219788</v>
+        <v>-7.611753463745117</v>
       </c>
       <c r="E123" t="n">
-        <v>22.25547981262207</v>
+        <v>22.71853446960449</v>
       </c>
       <c r="F123" t="n">
-        <v>-5.687849998474121</v>
+        <v>-7.846768856048584</v>
       </c>
       <c r="G123" t="n">
-        <v>-14.30571460723877</v>
+        <v>-18.58734512329102</v>
       </c>
     </row>
     <row r="124">
@@ -3277,22 +3277,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>16.145751</v>
+        <v>19.482125</v>
       </c>
       <c r="C124" t="n">
-        <v>1083.804931640625</v>
+        <v>1092.232666015625</v>
       </c>
       <c r="D124" t="n">
-        <v>-2.477503061294556</v>
+        <v>-8.389893531799316</v>
       </c>
       <c r="E124" t="n">
-        <v>22.29160118103027</v>
+        <v>23.04463386535645</v>
       </c>
       <c r="F124" t="n">
-        <v>-6.397495746612549</v>
+        <v>-7.645818710327148</v>
       </c>
       <c r="G124" t="n">
-        <v>-17.30768966674805</v>
+        <v>-17.72007369995117</v>
       </c>
     </row>
     <row r="125">
@@ -3300,22 +3300,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>16.304133</v>
+        <v>19.700064</v>
       </c>
       <c r="C125" t="n">
-        <v>1086.037719726562</v>
+        <v>1094.554321289062</v>
       </c>
       <c r="D125" t="n">
-        <v>-3.144207000732422</v>
+        <v>-9.147597312927246</v>
       </c>
       <c r="E125" t="n">
-        <v>22.22880744934082</v>
+        <v>23.3687915802002</v>
       </c>
       <c r="F125" t="n">
-        <v>-7.273129940032959</v>
+        <v>-7.433814525604248</v>
       </c>
       <c r="G125" t="n">
-        <v>-20.14031791687012</v>
+        <v>-16.9087085723877</v>
       </c>
     </row>
     <row r="126">
@@ -3323,22 +3323,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16.464008</v>
+        <v>19.911162</v>
       </c>
       <c r="C126" t="n">
-        <v>1088.261962890625</v>
+        <v>1096.908081054688</v>
       </c>
       <c r="D126" t="n">
-        <v>-3.90177321434021</v>
+        <v>-9.884560585021973</v>
       </c>
       <c r="E126" t="n">
-        <v>22.12738037109375</v>
+        <v>23.68548965454102</v>
       </c>
       <c r="F126" t="n">
-        <v>-8.162338256835938</v>
+        <v>-7.23209285736084</v>
       </c>
       <c r="G126" t="n">
-        <v>-22.68739318847656</v>
+        <v>-16.20625305175781</v>
       </c>
     </row>
     <row r="127">
@@ -3346,22 +3346,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16.630113</v>
+        <v>20.132151</v>
       </c>
       <c r="C127" t="n">
-        <v>1090.475708007812</v>
+        <v>1099.292846679688</v>
       </c>
       <c r="D127" t="n">
-        <v>-4.748083591461182</v>
+        <v>-10.60251522064209</v>
       </c>
       <c r="E127" t="n">
-        <v>22.02480888366699</v>
+        <v>23.9906177520752</v>
       </c>
       <c r="F127" t="n">
-        <v>-8.99769401550293</v>
+        <v>-7.05916166305542</v>
       </c>
       <c r="G127" t="n">
-        <v>-24.80402565002441</v>
+        <v>-15.65092468261719</v>
       </c>
     </row>
     <row r="128">
@@ -3369,22 +3369,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>16.802597</v>
+        <v>20.344366</v>
       </c>
       <c r="C128" t="n">
-        <v>1092.679931640625</v>
+        <v>1101.700073242188</v>
       </c>
       <c r="D128" t="n">
-        <v>-5.675973415374756</v>
+        <v>-11.32811164855957</v>
       </c>
       <c r="E128" t="n">
-        <v>21.95111274719238</v>
+        <v>24.14236831665039</v>
       </c>
       <c r="F128" t="n">
-        <v>-9.737455368041992</v>
+        <v>-7.35463809967041</v>
       </c>
       <c r="G128" t="n">
-        <v>-26.37956047058105</v>
+        <v>-15.92164516448975</v>
       </c>
     </row>
     <row r="129">
@@ -3392,22 +3392,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>16.971905</v>
+        <v>20.57094</v>
       </c>
       <c r="C129" t="n">
-        <v>1094.879150390625</v>
+        <v>1104.123901367188</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.67384147644043</v>
+        <v>-12.07814407348633</v>
       </c>
       <c r="E129" t="n">
-        <v>21.93803596496582</v>
+        <v>24.26536560058594</v>
       </c>
       <c r="F129" t="n">
-        <v>-10.33987998962402</v>
+        <v>-7.728226184844971</v>
       </c>
       <c r="G129" t="n">
-        <v>-27.34886360168457</v>
+        <v>-17.19099044799805</v>
       </c>
     </row>
     <row r="130">
@@ -3415,22 +3415,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>17.148574</v>
+        <v>20.788116</v>
       </c>
       <c r="C130" t="n">
-        <v>1097.08056640625</v>
+        <v>1106.557250976562</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.726149082183838</v>
+        <v>-12.87072467803955</v>
       </c>
       <c r="E130" t="n">
-        <v>22.01033401489258</v>
+        <v>24.30289649963379</v>
       </c>
       <c r="F130" t="n">
-        <v>-10.77165412902832</v>
+        <v>-8.296139717102051</v>
       </c>
       <c r="G130" t="n">
-        <v>-27.69169998168945</v>
+        <v>-19.15079307556152</v>
       </c>
     </row>
     <row r="131">
@@ -3438,22 +3438,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>17.328642</v>
+        <v>21.009485</v>
       </c>
       <c r="C131" t="n">
-        <v>1099.293212890625</v>
+        <v>1108.990478515625</v>
       </c>
       <c r="D131" t="n">
-        <v>-8.814452171325684</v>
+        <v>-13.72629356384277</v>
       </c>
       <c r="E131" t="n">
-        <v>22.18011093139648</v>
+        <v>24.24742317199707</v>
       </c>
       <c r="F131" t="n">
-        <v>-11.01162719726562</v>
+        <v>-9.030488967895508</v>
       </c>
       <c r="G131" t="n">
-        <v>-27.43647575378418</v>
+        <v>-21.54921531677246</v>
       </c>
     </row>
     <row r="132">
@@ -3461,22 +3461,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>17.490156</v>
+        <v>21.229405</v>
       </c>
       <c r="C132" t="n">
-        <v>1099.293212890625</v>
+        <v>1111.414672851562</v>
       </c>
       <c r="D132" t="n">
-        <v>-8.814452171325684</v>
+        <v>-14.65972423553467</v>
       </c>
       <c r="E132" t="n">
-        <v>22.18011093139648</v>
+        <v>24.11174583435059</v>
       </c>
       <c r="F132" t="n">
-        <v>-11.01162719726562</v>
+        <v>-9.871535301208496</v>
       </c>
       <c r="G132" t="n">
-        <v>-27.43647575378418</v>
+        <v>-24.14423370361328</v>
       </c>
     </row>
     <row r="133">
@@ -3484,22 +3484,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>17.65361</v>
+        <v>21.449906</v>
       </c>
       <c r="C133" t="n">
-        <v>1101.526733398438</v>
+        <v>1113.822387695312</v>
       </c>
       <c r="D133" t="n">
-        <v>-9.919038772583008</v>
+        <v>-15.68001651763916</v>
       </c>
       <c r="E133" t="n">
-        <v>22.44217300415039</v>
+        <v>23.91489410400391</v>
       </c>
       <c r="F133" t="n">
-        <v>-11.05768394470215</v>
+        <v>-10.7654857635498</v>
       </c>
       <c r="G133" t="n">
-        <v>-26.6612377166748</v>
+        <v>-26.71534538269043</v>
       </c>
     </row>
     <row r="134">
@@ -3507,22 +3507,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>17.820798</v>
+        <v>21.678765</v>
       </c>
       <c r="C134" t="n">
-        <v>1103.789306640625</v>
+        <v>1116.208740234375</v>
       </c>
       <c r="D134" t="n">
-        <v>-11.02103328704834</v>
+        <v>-16.79083442687988</v>
       </c>
       <c r="E134" t="n">
-        <v>22.77850723266602</v>
+        <v>23.68322944641113</v>
       </c>
       <c r="F134" t="n">
-        <v>-10.92797565460205</v>
+        <v>-11.66266345977783</v>
       </c>
       <c r="G134" t="n">
-        <v>-25.48313522338867</v>
+        <v>-29.0765380859375</v>
       </c>
     </row>
     <row r="135">
@@ -3530,22 +3530,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>17.984857</v>
+        <v>21.897831</v>
       </c>
       <c r="C135" t="n">
-        <v>1106.08740234375</v>
+        <v>1118.5712890625</v>
       </c>
       <c r="D135" t="n">
-        <v>-12.10405254364014</v>
+        <v>-17.99092102050781</v>
       </c>
       <c r="E135" t="n">
-        <v>23.16633987426758</v>
+        <v>23.44890785217285</v>
       </c>
       <c r="F135" t="n">
-        <v>-10.65233039855957</v>
+        <v>-12.51781940460205</v>
       </c>
       <c r="G135" t="n">
-        <v>-24.03153228759766</v>
+        <v>-31.07637596130371</v>
       </c>
     </row>
     <row r="136">
@@ -3553,22 +3553,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>18.157853</v>
+        <v>22.106823</v>
       </c>
       <c r="C136" t="n">
-        <v>1108.424926757812</v>
+        <v>1120.911499023438</v>
       </c>
       <c r="D136" t="n">
-        <v>-13.15494823455811</v>
+        <v>-19.27446365356445</v>
       </c>
       <c r="E136" t="n">
-        <v>23.58420372009277</v>
+        <v>23.24789047241211</v>
       </c>
       <c r="F136" t="n">
-        <v>-10.26431655883789</v>
+        <v>-13.28899955749512</v>
       </c>
       <c r="G136" t="n">
-        <v>-22.42597770690918</v>
+        <v>-32.59700012207031</v>
       </c>
     </row>
     <row r="137">
@@ -3576,22 +3576,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>18.330082</v>
+        <v>22.334344</v>
       </c>
       <c r="C137" t="n">
-        <v>1110.804321289062</v>
+        <v>1123.234252929688</v>
       </c>
       <c r="D137" t="n">
-        <v>-14.16383647918701</v>
+        <v>-20.63134002685547</v>
       </c>
       <c r="E137" t="n">
-        <v>24.0147819519043</v>
+        <v>23.11691093444824</v>
       </c>
       <c r="F137" t="n">
-        <v>-9.795738220214844</v>
+        <v>-13.93670272827148</v>
       </c>
       <c r="G137" t="n">
-        <v>-20.76641273498535</v>
+        <v>-33.55574035644531</v>
       </c>
     </row>
     <row r="138">
@@ -3599,22 +3599,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>18.502122</v>
+        <v>22.551033</v>
       </c>
       <c r="C138" t="n">
-        <v>1113.226684570312</v>
+        <v>1125.548095703125</v>
       </c>
       <c r="D138" t="n">
-        <v>-15.12377643585205</v>
+        <v>-22.04743766784668</v>
       </c>
       <c r="E138" t="n">
-        <v>24.44549751281738</v>
+        <v>23.08813095092773</v>
       </c>
       <c r="F138" t="n">
-        <v>-9.273978233337402</v>
+        <v>-14.42561626434326</v>
       </c>
       <c r="G138" t="n">
-        <v>-19.12789916992188</v>
+        <v>-33.91129684448242</v>
       </c>
     </row>
     <row r="139">
@@ -3622,22 +3622,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>18.676575</v>
+        <v>22.776209</v>
       </c>
       <c r="C139" t="n">
-        <v>1115.683837890625</v>
+        <v>1127.864379882812</v>
       </c>
       <c r="D139" t="n">
-        <v>-16.05650520324707</v>
+        <v>-23.50522613525391</v>
       </c>
       <c r="E139" t="n">
-        <v>24.72602653503418</v>
+        <v>23.18267059326172</v>
       </c>
       <c r="F139" t="n">
-        <v>-9.197158813476562</v>
+        <v>-14.72800636291504</v>
       </c>
       <c r="G139" t="n">
-        <v>-18.29483985900879</v>
+        <v>-33.67045211791992</v>
       </c>
     </row>
     <row r="140">
@@ -3645,22 +3645,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>18.846906</v>
+        <v>22.996262</v>
       </c>
       <c r="C140" t="n">
-        <v>1118.171020507812</v>
+        <v>1130.195434570312</v>
       </c>
       <c r="D140" t="n">
-        <v>-16.9763298034668</v>
+        <v>-24.98499870300293</v>
       </c>
       <c r="E140" t="n">
-        <v>24.97701454162598</v>
+        <v>23.40205764770508</v>
       </c>
       <c r="F140" t="n">
-        <v>-9.19938850402832</v>
+        <v>-14.83188152313232</v>
       </c>
       <c r="G140" t="n">
-        <v>-18.58264541625977</v>
+        <v>-32.89369964599609</v>
       </c>
     </row>
     <row r="141">
@@ -3668,22 +3668,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19.017613</v>
+        <v>23.215948</v>
       </c>
       <c r="C141" t="n">
-        <v>1120.680786132812</v>
+        <v>1132.553100585938</v>
       </c>
       <c r="D141" t="n">
-        <v>-17.90362358093262</v>
+        <v>-26.46702766418457</v>
       </c>
       <c r="E141" t="n">
-        <v>25.12981414794922</v>
+        <v>23.72788047790527</v>
       </c>
       <c r="F141" t="n">
-        <v>-9.452360153198242</v>
+        <v>-14.7487268447876</v>
       </c>
       <c r="G141" t="n">
-        <v>-19.81091117858887</v>
+        <v>-31.69355773925781</v>
       </c>
     </row>
     <row r="142">
@@ -3691,22 +3691,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>19.189547</v>
+        <v>23.439303</v>
       </c>
       <c r="C142" t="n">
-        <v>1123.189086914062</v>
+        <v>1134.946411132812</v>
       </c>
       <c r="D142" t="n">
-        <v>-18.88469886779785</v>
+        <v>-27.93368530273438</v>
       </c>
       <c r="E142" t="n">
-        <v>24.94273376464844</v>
+        <v>24.13181495666504</v>
       </c>
       <c r="F142" t="n">
-        <v>-10.31371212005615</v>
+        <v>-14.50711727142334</v>
       </c>
       <c r="G142" t="n">
-        <v>-22.34892272949219</v>
+        <v>-30.20923233032227</v>
       </c>
     </row>
     <row r="143">
@@ -3714,22 +3714,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19.358963</v>
+        <v>23.653603</v>
       </c>
       <c r="C143" t="n">
-        <v>1125.674438476562</v>
+        <v>1137.381958007812</v>
       </c>
       <c r="D143" t="n">
-        <v>-19.95333862304688</v>
+        <v>-29.37075042724609</v>
       </c>
       <c r="E143" t="n">
-        <v>24.60149192810059</v>
+        <v>24.5846061706543</v>
       </c>
       <c r="F143" t="n">
-        <v>-11.36314582824707</v>
+        <v>-14.14383125305176</v>
       </c>
       <c r="G143" t="n">
-        <v>-26.15690040588379</v>
+        <v>-28.57772254943848</v>
       </c>
     </row>
     <row r="144">
@@ -3737,22 +3737,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>19.534579</v>
+        <v>23.879613</v>
       </c>
       <c r="C144" t="n">
-        <v>1128.133056640625</v>
+        <v>1139.853759765625</v>
       </c>
       <c r="D144" t="n">
-        <v>-21.11541938781738</v>
+        <v>-30.78835678100586</v>
       </c>
       <c r="E144" t="n">
-        <v>24.31740760803223</v>
+        <v>24.88259506225586</v>
       </c>
       <c r="F144" t="n">
-        <v>-12.30807018280029</v>
+        <v>-14.07331657409668</v>
       </c>
       <c r="G144" t="n">
-        <v>-30.11728286743164</v>
+        <v>-27.53230285644531</v>
       </c>
     </row>
     <row r="145">
@@ -3760,22 +3760,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19.714987</v>
+        <v>24.092787</v>
       </c>
       <c r="C145" t="n">
-        <v>1130.552490234375</v>
+        <v>1142.358764648438</v>
       </c>
       <c r="D145" t="n">
-        <v>-22.3847599029541</v>
+        <v>-32.1925048828125</v>
       </c>
       <c r="E145" t="n">
-        <v>23.86689376831055</v>
+        <v>25.16946792602539</v>
       </c>
       <c r="F145" t="n">
-        <v>-13.40026950836182</v>
+        <v>-14.01753425598145</v>
       </c>
       <c r="G145" t="n">
-        <v>-33.66481399536133</v>
+        <v>-27.3925952911377</v>
       </c>
     </row>
     <row r="146">
@@ -3783,22 +3783,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>19.894074</v>
+        <v>24.30548</v>
       </c>
       <c r="C146" t="n">
-        <v>1132.92236328125</v>
+        <v>1144.8896484375</v>
       </c>
       <c r="D146" t="n">
-        <v>-23.76697731018066</v>
+        <v>-33.59590911865234</v>
       </c>
       <c r="E146" t="n">
-        <v>23.36271858215332</v>
+        <v>25.35695838928223</v>
       </c>
       <c r="F146" t="n">
-        <v>-14.48318481445312</v>
+        <v>-14.14004611968994</v>
       </c>
       <c r="G146" t="n">
-        <v>-36.67113494873047</v>
+        <v>-28.06233596801758</v>
       </c>
     </row>
     <row r="147">
@@ -3806,22 +3806,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>20.074744</v>
+        <v>24.524148</v>
       </c>
       <c r="C147" t="n">
-        <v>1135.240478515625</v>
+        <v>1147.43408203125</v>
       </c>
       <c r="D147" t="n">
-        <v>-25.2575626373291</v>
+        <v>-35.02026748657227</v>
       </c>
       <c r="E147" t="n">
-        <v>22.8715763092041</v>
+        <v>25.41366958618164</v>
       </c>
       <c r="F147" t="n">
-        <v>-15.4919605255127</v>
+        <v>-14.47765064239502</v>
       </c>
       <c r="G147" t="n">
-        <v>-38.98728561401367</v>
+        <v>-29.43319892883301</v>
       </c>
     </row>
     <row r="148">
@@ -3829,22 +3829,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>20.260701</v>
+        <v>24.74172</v>
       </c>
       <c r="C148" t="n">
-        <v>1137.511352539062</v>
+        <v>1149.978149414062</v>
       </c>
       <c r="D148" t="n">
-        <v>-26.84662246704102</v>
+        <v>-36.48715209960938</v>
       </c>
       <c r="E148" t="n">
-        <v>22.45623779296875</v>
+        <v>25.33551025390625</v>
       </c>
       <c r="F148" t="n">
-        <v>-16.3766040802002</v>
+        <v>-15.0074634552002</v>
       </c>
       <c r="G148" t="n">
-        <v>-40.49435043334961</v>
+        <v>-31.32207107543945</v>
       </c>
     </row>
     <row r="149">
@@ -3852,22 +3852,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>20.444484</v>
+        <v>24.958616</v>
       </c>
       <c r="C149" t="n">
-        <v>1139.74609375</v>
+        <v>1152.508422851562</v>
       </c>
       <c r="D149" t="n">
-        <v>-28.5188102722168</v>
+        <v>-38.01410293579102</v>
       </c>
       <c r="E149" t="n">
-        <v>22.18506622314453</v>
+        <v>25.13449096679688</v>
       </c>
       <c r="F149" t="n">
-        <v>-17.08134269714355</v>
+        <v>-15.68276119232178</v>
       </c>
       <c r="G149" t="n">
-        <v>-41.11169815063477</v>
+        <v>-33.51606750488281</v>
       </c>
     </row>
     <row r="150">
@@ -3875,22 +3875,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>20.625097</v>
+        <v>25.183964</v>
       </c>
       <c r="C150" t="n">
-        <v>1141.962524414062</v>
+        <v>1155.013671875</v>
       </c>
       <c r="D150" t="n">
-        <v>-30.25265502929688</v>
+        <v>-39.61333847045898</v>
       </c>
       <c r="E150" t="n">
-        <v>22.12061500549316</v>
+        <v>24.83538055419922</v>
       </c>
       <c r="F150" t="n">
-        <v>-17.54599761962891</v>
+        <v>-16.44965171813965</v>
       </c>
       <c r="G150" t="n">
-        <v>-40.80755615234375</v>
+        <v>-35.81253433227539</v>
       </c>
     </row>
     <row r="151">
@@ -3898,22 +3898,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>20.806123</v>
+        <v>25.403739</v>
       </c>
       <c r="C151" t="n">
-        <v>1144.183471679688</v>
+        <v>1157.485229492188</v>
       </c>
       <c r="D151" t="n">
-        <v>-32.02064514160156</v>
+        <v>-41.29189300537109</v>
       </c>
       <c r="E151" t="n">
-        <v>22.29623985290527</v>
+        <v>24.46964073181152</v>
       </c>
       <c r="F151" t="n">
-        <v>-17.71809005737305</v>
+        <v>-17.25830459594727</v>
       </c>
       <c r="G151" t="n">
-        <v>-39.62181091308594</v>
+        <v>-38.03220367431641</v>
       </c>
     </row>
     <row r="152">
@@ -3921,22 +3921,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>20.987433</v>
+        <v>25.628401</v>
       </c>
       <c r="C152" t="n">
-        <v>1146.43212890625</v>
+        <v>1159.918090820312</v>
       </c>
       <c r="D152" t="n">
-        <v>-33.79189300537109</v>
+        <v>-43.05217742919922</v>
       </c>
       <c r="E152" t="n">
-        <v>22.6906681060791</v>
+        <v>24.07315826416016</v>
       </c>
       <c r="F152" t="n">
-        <v>-17.58538818359375</v>
+        <v>-18.06534194946289</v>
       </c>
       <c r="G152" t="n">
-        <v>-37.69709396362305</v>
+        <v>-40.02397155761719</v>
       </c>
     </row>
     <row r="153">
@@ -3944,22 +3944,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>21.173478</v>
+        <v>25.856998</v>
       </c>
       <c r="C153" t="n">
-        <v>1148.735961914062</v>
+        <v>1162.31103515625</v>
       </c>
       <c r="D153" t="n">
-        <v>-35.51735687255859</v>
+        <v>-44.89250946044922</v>
       </c>
       <c r="E153" t="n">
-        <v>23.40810203552246</v>
+        <v>23.68534851074219</v>
       </c>
       <c r="F153" t="n">
-        <v>-16.81055068969727</v>
+        <v>-18.83267402648926</v>
       </c>
       <c r="G153" t="n">
-        <v>-34.68760681152344</v>
+        <v>-41.66480255126953</v>
       </c>
     </row>
     <row r="154">
@@ -3967,22 +3967,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>21.352972</v>
+        <v>26.079646</v>
       </c>
       <c r="C154" t="n">
-        <v>1151.109497070312</v>
+        <v>1164.666748046875</v>
       </c>
       <c r="D154" t="n">
-        <v>-37.15871429443359</v>
+        <v>-46.80746459960938</v>
       </c>
       <c r="E154" t="n">
-        <v>24.18505096435547</v>
+        <v>23.34793853759766</v>
       </c>
       <c r="F154" t="n">
-        <v>-15.77460765838623</v>
+        <v>-19.52556610107422</v>
       </c>
       <c r="G154" t="n">
-        <v>-30.56226348876953</v>
+        <v>-42.85959625244141</v>
       </c>
     </row>
     <row r="155">
@@ -3990,22 +3990,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>21.534294</v>
+        <v>26.330413</v>
       </c>
       <c r="C155" t="n">
-        <v>1153.547607421875</v>
+        <v>1166.991333007812</v>
       </c>
       <c r="D155" t="n">
-        <v>-38.72647857666016</v>
+        <v>-48.78731918334961</v>
       </c>
       <c r="E155" t="n">
-        <v>24.77659606933594</v>
+        <v>23.07909774780273</v>
       </c>
       <c r="F155" t="n">
-        <v>-15.17171001434326</v>
+        <v>-20.09111595153809</v>
       </c>
       <c r="G155" t="n">
-        <v>-26.80875778198242</v>
+        <v>-43.54233169555664</v>
       </c>
     </row>
     <row r="156">
@@ -4013,22 +4013,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>21.715482</v>
+        <v>26.561021</v>
       </c>
       <c r="C156" t="n">
-        <v>1156.052001953125</v>
+        <v>1169.290771484375</v>
       </c>
       <c r="D156" t="n">
-        <v>-40.21719360351562</v>
+        <v>-50.81493377685547</v>
       </c>
       <c r="E156" t="n">
-        <v>25.39883804321289</v>
+        <v>22.87475776672363</v>
       </c>
       <c r="F156" t="n">
-        <v>-14.41794967651367</v>
+        <v>-20.46068382263184</v>
       </c>
       <c r="G156" t="n">
-        <v>-24.33088111877441</v>
+        <v>-43.68260955810547</v>
       </c>
     </row>
     <row r="157">
@@ -4036,22 +4036,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>21.902787</v>
+        <v>26.793389</v>
       </c>
       <c r="C157" t="n">
-        <v>1158.619506835938</v>
+        <v>1171.572875976562</v>
       </c>
       <c r="D157" t="n">
-        <v>-41.62984466552734</v>
+        <v>-52.86922073364258</v>
       </c>
       <c r="E157" t="n">
-        <v>25.94420623779297</v>
+        <v>22.7666187286377</v>
       </c>
       <c r="F157" t="n">
-        <v>-13.79000186920166</v>
+        <v>-20.61178398132324</v>
       </c>
       <c r="G157" t="n">
-        <v>-23.14402198791504</v>
+        <v>-43.29275512695312</v>
       </c>
     </row>
     <row r="158">
@@ -4059,22 +4059,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>22.085447</v>
+        <v>27.023098</v>
       </c>
       <c r="C158" t="n">
-        <v>1161.2265625</v>
+        <v>1176.078979492188</v>
       </c>
       <c r="D158" t="n">
-        <v>-43.00911712646484</v>
+        <v>-57.02129364013672</v>
       </c>
       <c r="E158" t="n">
-        <v>26.10647392272949</v>
+        <v>22.3414478302002</v>
       </c>
       <c r="F158" t="n">
-        <v>-13.88828086853027</v>
+        <v>-20.84544563293457</v>
       </c>
       <c r="G158" t="n">
-        <v>-24.03001022338867</v>
+        <v>-42.93629455566406</v>
       </c>
     </row>
     <row r="159">
@@ -4082,22 +4082,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>22.273022</v>
+        <v>27.246207</v>
       </c>
       <c r="C159" t="n">
-        <v>1163.839233398438</v>
+        <v>1178.306884765625</v>
       </c>
       <c r="D159" t="n">
-        <v>-44.41377639770508</v>
+        <v>-59.09918212890625</v>
       </c>
       <c r="E159" t="n">
-        <v>25.92437744140625</v>
+        <v>22.15915298461914</v>
       </c>
       <c r="F159" t="n">
-        <v>-14.52184772491455</v>
+        <v>-20.82665061950684</v>
       </c>
       <c r="G159" t="n">
-        <v>-27.53941535949707</v>
+        <v>-43.15058517456055</v>
       </c>
     </row>
     <row r="160">
@@ -4105,22 +4105,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>22.461753</v>
+        <v>27.487216</v>
       </c>
       <c r="C160" t="n">
-        <v>1166.41796875</v>
+        <v>1180.513061523438</v>
       </c>
       <c r="D160" t="n">
-        <v>-45.89840316772461</v>
+        <v>-61.17604827880859</v>
       </c>
       <c r="E160" t="n">
-        <v>25.31876945495605</v>
+        <v>21.90550994873047</v>
       </c>
       <c r="F160" t="n">
-        <v>-15.62912273406982</v>
+        <v>-20.83341789245605</v>
       </c>
       <c r="G160" t="n">
-        <v>-32.97633361816406</v>
+        <v>-43.59404754638672</v>
       </c>
     </row>
     <row r="161">
@@ -4128,22 +4128,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>22.657083</v>
+        <v>27.726095</v>
       </c>
       <c r="C161" t="n">
-        <v>1168.921020507812</v>
+        <v>1182.691650390625</v>
       </c>
       <c r="D161" t="n">
-        <v>-47.50206756591797</v>
+        <v>-63.25381088256836</v>
       </c>
       <c r="E161" t="n">
-        <v>24.3514575958252</v>
+        <v>21.60338592529297</v>
       </c>
       <c r="F161" t="n">
-        <v>-16.95822334289551</v>
+        <v>-20.85259246826172</v>
       </c>
       <c r="G161" t="n">
-        <v>-39.41172790527344</v>
+        <v>-44.24977111816406</v>
       </c>
     </row>
     <row r="162">
@@ -4151,22 +4151,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>22.852954</v>
+        <v>27.971641</v>
       </c>
       <c r="C162" t="n">
-        <v>1171.317138671875</v>
+        <v>1184.83740234375</v>
       </c>
       <c r="D162" t="n">
-        <v>-49.23986053466797</v>
+        <v>-65.33475494384766</v>
       </c>
       <c r="E162" t="n">
-        <v>23.14422988891602</v>
+        <v>21.25014114379883</v>
       </c>
       <c r="F162" t="n">
-        <v>-18.32054328918457</v>
+        <v>-20.89402008056641</v>
       </c>
       <c r="G162" t="n">
-        <v>-46.06095504760742</v>
+        <v>-45.04822158813477</v>
       </c>
     </row>
     <row r="163">
@@ -4174,22 +4174,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>23.046324</v>
+        <v>28.192999</v>
       </c>
       <c r="C163" t="n">
-        <v>1173.596801757812</v>
+        <v>1186.9453125</v>
       </c>
       <c r="D163" t="n">
-        <v>-51.10866928100586</v>
+        <v>-67.42112731933594</v>
       </c>
       <c r="E163" t="n">
-        <v>21.96867370605469</v>
+        <v>20.85505485534668</v>
       </c>
       <c r="F163" t="n">
-        <v>-19.5716495513916</v>
+        <v>-20.9532470703125</v>
       </c>
       <c r="G163" t="n">
-        <v>-52.14787673950195</v>
+        <v>-45.91807556152344</v>
       </c>
     </row>
     <row r="164">
@@ -4197,22 +4197,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>23.235297</v>
+        <v>28.420126</v>
       </c>
       <c r="C164" t="n">
-        <v>1175.7626953125</v>
+        <v>1189.011962890625</v>
       </c>
       <c r="D164" t="n">
-        <v>-53.08778762817383</v>
+        <v>-69.51424407958984</v>
       </c>
       <c r="E164" t="n">
-        <v>20.81642723083496</v>
+        <v>20.43394088745117</v>
       </c>
       <c r="F164" t="n">
-        <v>-20.55011749267578</v>
+        <v>-21.01874732971191</v>
       </c>
       <c r="G164" t="n">
-        <v>-57.16569519042969</v>
+        <v>-46.78786087036133</v>
       </c>
     </row>
     <row r="165">
@@ -4220,22 +4220,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>23.422438</v>
+        <v>28.644862</v>
       </c>
       <c r="C165" t="n">
-        <v>1177.7900390625</v>
+        <v>1191.036499023438</v>
       </c>
       <c r="D165" t="n">
-        <v>-55.18049240112305</v>
+        <v>-71.61485290527344</v>
       </c>
       <c r="E165" t="n">
-        <v>19.3598747253418</v>
+        <v>20.02281379699707</v>
       </c>
       <c r="F165" t="n">
-        <v>-21.69199752807617</v>
+        <v>-21.09714508056641</v>
       </c>
       <c r="G165" t="n">
-        <v>-60.92809677124023</v>
+        <v>-47.58994674682617</v>
       </c>
     </row>
     <row r="166">
@@ -4243,22 +4243,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>23.626221</v>
+        <v>28.86917</v>
       </c>
       <c r="C166" t="n">
-        <v>1179.68212890625</v>
+        <v>1193.023315429688</v>
       </c>
       <c r="D166" t="n">
-        <v>-57.38317108154297</v>
+        <v>-73.72679901123047</v>
       </c>
       <c r="E166" t="n">
-        <v>18.11981391906738</v>
+        <v>19.6800537109375</v>
       </c>
       <c r="F166" t="n">
-        <v>-22.61265754699707</v>
+        <v>-21.2184009552002</v>
       </c>
       <c r="G166" t="n">
-        <v>-63.53164291381836</v>
+        <v>-48.26041412353516</v>
       </c>
     </row>
     <row r="167">
@@ -4266,22 +4266,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>23.820338</v>
+        <v>29.0943</v>
       </c>
       <c r="C167" t="n">
-        <v>1183.152221679688</v>
+        <v>1194.979614257812</v>
       </c>
       <c r="D167" t="n">
-        <v>-62.06083297729492</v>
+        <v>-75.85332489013672</v>
       </c>
       <c r="E167" t="n">
-        <v>17.00092315673828</v>
+        <v>19.41745948791504</v>
       </c>
       <c r="F167" t="n">
-        <v>-23.86683464050293</v>
+        <v>-21.36008262634277</v>
       </c>
       <c r="G167" t="n">
-        <v>-62.19561767578125</v>
+        <v>-48.74900817871094</v>
       </c>
     </row>
     <row r="168">
@@ -4289,22 +4289,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>24.012633</v>
+        <v>29.33657</v>
       </c>
       <c r="C168" t="n">
-        <v>1184.8408203125</v>
+        <v>1196.9140625</v>
       </c>
       <c r="D168" t="n">
-        <v>-64.48098754882812</v>
+        <v>-77.9951171875</v>
       </c>
       <c r="E168" t="n">
-        <v>17.31002426147461</v>
+        <v>19.24221992492676</v>
       </c>
       <c r="F168" t="n">
-        <v>-23.94106101989746</v>
+        <v>-21.49960708618164</v>
       </c>
       <c r="G168" t="n">
-        <v>-57.40818786621094</v>
+        <v>-49.02645492553711</v>
       </c>
     </row>
     <row r="169">
@@ -4312,22 +4312,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>24.208915</v>
+        <v>29.576585</v>
       </c>
       <c r="C169" t="n">
-        <v>1186.593994140625</v>
+        <v>1200.75244140625</v>
       </c>
       <c r="D169" t="n">
-        <v>-66.881591796875</v>
+        <v>-82.31758880615234</v>
       </c>
       <c r="E169" t="n">
-        <v>18.25712776184082</v>
+        <v>19.16326904296875</v>
       </c>
       <c r="F169" t="n">
-        <v>-23.42814636230469</v>
+        <v>-21.70627975463867</v>
       </c>
       <c r="G169" t="n">
-        <v>-50.89119338989258</v>
+        <v>-48.9351692199707</v>
       </c>
     </row>
     <row r="170">
@@ -4335,22 +4335,4921 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>24.404436</v>
+        <v>29.81783</v>
       </c>
       <c r="C170" t="n">
-        <v>1188.461669921875</v>
+        <v>1202.6572265625</v>
       </c>
       <c r="D170" t="n">
-        <v>-69.20090484619141</v>
+        <v>-84.50498962402344</v>
       </c>
       <c r="E170" t="n">
-        <v>19.48752212524414</v>
+        <v>18.94840812683105</v>
       </c>
       <c r="F170" t="n">
-        <v>-22.42019462585449</v>
+        <v>-22.00356674194336</v>
       </c>
       <c r="G170" t="n">
-        <v>-43.84865951538086</v>
+        <v>-49.16923904418945</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>30.077994</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1204.548217773438</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-86.71719360351562</v>
+      </c>
+      <c r="E171" t="n">
+        <v>18.77705001831055</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-22.29143714904785</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-49.9897575378418</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>30.309771</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1206.420654296875</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-88.96006011962891</v>
+      </c>
+      <c r="E172" t="n">
+        <v>18.52552223205566</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-22.65442657470703</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-51.22954940795898</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>30.53498</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1208.264526367188</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-91.24187469482422</v>
+      </c>
+      <c r="E173" t="n">
+        <v>18.18859672546387</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-23.08458518981934</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-52.76435852050781</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>30.764994</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1210.071411132812</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-93.56912994384766</v>
+      </c>
+      <c r="E174" t="n">
+        <v>17.7792797088623</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-23.56253433227539</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-54.45015716552734</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>31.008511</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1211.834716796875</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-95.94598388671875</v>
+      </c>
+      <c r="E175" t="n">
+        <v>17.31984710693359</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-24.06635665893555</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-56.14482116699219</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>31.258211</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1215.217895507812</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-100.8532028198242</v>
+      </c>
+      <c r="E176" t="n">
+        <v>16.37754249572754</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-25.06406402587891</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-59.06840896606445</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>31.499868</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1216.840454101562</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-103.3805923461914</v>
+      </c>
+      <c r="E177" t="n">
+        <v>15.96642684936523</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-25.51970672607422</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-60.10295486450195</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>31.756042</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1218.421508789062</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-105.9536972045898</v>
+      </c>
+      <c r="E178" t="n">
+        <v>15.58280277252197</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-25.95498275756836</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-60.86229705810547</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>31.986818</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1219.973510742188</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-108.5659561157227</v>
+      </c>
+      <c r="E179" t="n">
+        <v>15.37444305419922</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-26.29755973815918</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-61.2459831237793</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>32.229816</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1221.50830078125</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-111.2094039916992</v>
+      </c>
+      <c r="E180" t="n">
+        <v>15.27278804779053</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-26.54667091369629</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-61.18194961547852</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>32.464144</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1223.036376953125</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-113.8697204589844</v>
+      </c>
+      <c r="E181" t="n">
+        <v>15.27976894378662</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-26.63427734375</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-60.70735168457031</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>32.712431</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1224.569458007812</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-116.5305404663086</v>
+      </c>
+      <c r="E182" t="n">
+        <v>15.40017223358154</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-26.56314468383789</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-59.88484191894531</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>32.965697</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1227.62548828125</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-121.8361892700195</v>
+      </c>
+      <c r="E183" t="n">
+        <v>15.18916511535645</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-26.47072601318359</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-59.45405578613281</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>33.236111</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1229.139282226562</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-124.4747924804688</v>
+      </c>
+      <c r="E184" t="n">
+        <v>14.99391555786133</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-26.39895629882812</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-60.03435516357422</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>33.494544</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1230.630004882812</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-127.1062774658203</v>
+      </c>
+      <c r="E185" t="n">
+        <v>14.69865322113037</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-26.34686279296875</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-60.97979736328125</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>33.740361</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1232.082763671875</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-129.7353057861328</v>
+      </c>
+      <c r="E186" t="n">
+        <v>14.24727916717529</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-26.34640502929688</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-62.22299194335938</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>33.987231</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1233.486206054688</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-132.3651733398438</v>
+      </c>
+      <c r="E187" t="n">
+        <v>13.70281982421875</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-26.36609840393066</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-63.67692184448242</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>34.238611</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1236.113525390625</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-137.6339416503906</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.44154167175293</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-26.44454765319824</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-66.70492553710938</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>34.481801</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1237.331909179688</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-140.2794647216797</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.82594680786133</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-26.55307388305664</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-68.04645538330078</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>34.748665</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1238.488159179688</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-142.9402008056641</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.21687793731689</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-26.71805191040039</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-69.22254180908203</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>35.002408</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1239.591430664062</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-145.6181640625</v>
+      </c>
+      <c r="E191" t="n">
+        <v>10.75638771057129</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-26.8804874420166</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-70.09864044189453</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>35.256402</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1240.65234375</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-148.3138885498047</v>
+      </c>
+      <c r="E192" t="n">
+        <v>10.40192031860352</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-27.04641723632812</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-70.56942749023438</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>35.512106</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1242.683349609375</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-153.7587585449219</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9.817110061645508</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-27.42193603515625</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-70.80034637451172</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>35.761127</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1243.65625</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-156.5111083984375</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9.555171012878418</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-27.63239669799805</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-71.3048095703125</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>36.021165</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1244.60595703125</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-159.284423828125</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9.298029899597168</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-27.85548782348633</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-72.01857757568359</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>36.285902</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1245.528686523438</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-162.0809936523438</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9.003582954406738</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-28.09857559204102</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-72.88041687011719</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>36.546828</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1246.420654296875</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-164.9026947021484</v>
+      </c>
+      <c r="E197" t="n">
+        <v>8.684689521789551</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-28.35438919067383</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-73.82218933105469</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>36.813189</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1248.103759765625</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-170.6255187988281</v>
+      </c>
+      <c r="E198" t="n">
+        <v>8.015670776367188</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-28.88322257995605</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-75.62711334228516</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>37.08404</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1248.89697265625</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-173.5267181396484</v>
+      </c>
+      <c r="E199" t="n">
+        <v>7.745246410369873</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-29.13639831542969</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-76.29366302490234</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>37.338675</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1249.66162109375</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-176.4538421630859</v>
+      </c>
+      <c r="E200" t="n">
+        <v>7.482254028320312</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-29.38924217224121</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-76.75741577148438</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>37.595637</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1250.403198242188</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-179.40576171875</v>
+      </c>
+      <c r="E201" t="n">
+        <v>7.296984672546387</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-29.62722015380859</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-77.03077697753906</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>37.870313</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1251.846069335938</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-185.36669921875</v>
+      </c>
+      <c r="E202" t="n">
+        <v>7.135754108428955</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-29.90326309204102</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-76.96333312988281</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>38.154468</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1252.560791015625</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-188.3565521240234</v>
+      </c>
+      <c r="E203" t="n">
+        <v>7.155036926269531</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-29.89219093322754</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-76.65486145019531</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>38.414006</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1253.279418945312</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-191.3405303955078</v>
+      </c>
+      <c r="E204" t="n">
+        <v>7.227743148803711</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-29.80035781860352</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-76.22165679931641</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>38.686537</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1254.714111328125</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-197.270751953125</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.845556259155273</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-29.57049942016602</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-76.10774230957031</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>38.954521</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1255.378784179688</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-200.2186431884766</v>
+      </c>
+      <c r="E206" t="n">
+        <v>6.28506326675415</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-29.47414207458496</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-77.81281280517578</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>39.224047</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1255.984008789062</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-203.1554870605469</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.523124217987061</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-29.37433815002441</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-80.36386108398438</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>39.484545</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1256.502807617188</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-206.081298828125</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.517136573791504</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-29.25411796569824</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-83.465087890625</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>39.764022</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1257.210693359375</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-211.8877716064453</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.1633620262146</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-28.8957633972168</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-90.19207000732422</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>40.060165</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1257.381958007812</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-214.7655181884766</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.93414306640625</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-28.72393798828125</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-93.27495574951172</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>40.318142</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1257.423217773438</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-217.6272277832031</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-0.361487865447998</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-28.54901885986328</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-96.02983093261719</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>40.595339</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1257.163452148438</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-223.3152465820312</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-2.341245174407959</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-28.34902763366699</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-99.35309600830078</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>40.872343</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1256.898071289062</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-226.1506805419922</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-2.980214834213257</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-28.33697128295898</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-99.53567504882812</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>41.142818</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1256.57666015625</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-228.9885101318359</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-3.360624074935913</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-28.39189910888672</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-98.84071350097656</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>41.432096</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1255.937866210938</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-234.7003631591797</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-2.757136821746826</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-28.69858741760254</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-94.96108245849609</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>41.705799</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1255.690795898438</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-237.5806121826172</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-2.032010793685913</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-28.86775398254395</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-92.28589630126953</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>41.97842</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1255.52734375</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-240.4757537841797</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-1.080756902694702</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-29.00631523132324</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-89.43478393554688</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>42.271456</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1255.489135742188</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-246.3016510009766</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.8807308077812195</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-29.21631813049316</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-84.37691497802734</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>42.548001</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1255.617919921875</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-249.2285614013672</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.807096242904663</v>
+      </c>
+      <c r="F219" t="n">
+        <v>-29.29916954040527</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-82.58818054199219</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>42.814149</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1255.841430664062</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-252.1629486083984</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.710163593292236</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-29.36743354797363</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-81.29540252685547</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>43.096978</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1256.487182617188</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-258.0664672851562</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.646807193756104</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-29.65115356445312</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-80.94670104980469</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>43.361064</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1256.858276367188</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-261.0438842773438</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.693474054336548</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-29.85732650756836</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-81.96946716308594</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>43.63111</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1257.222045898438</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-264.0433044433594</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.468603134155273</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-30.09067535400391</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-83.55842590332031</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>43.921182</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1257.817260742188</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-270.111083984375</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.289275407791138</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-30.52616882324219</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-87.65374755859375</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>44.199097</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1258.01318359375</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-273.1689453125</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.514784336090088</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-30.6173152923584</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-89.74187469482422</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>44.476973</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1258.125244140625</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-276.2294921875</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.631952702999115</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-30.60433197021484</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-91.73271942138672</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>44.76674</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1258.11181640625</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-282.3279724121094</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-0.8271708488464355</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-30.37839508056641</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-94.59133911132812</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>45.042314</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1258.003540039062</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-285.35498046875</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-1.36828887462616</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-30.19818496704102</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-95.19677734375</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>45.318664</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1257.66064453125</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-291.3490905761719</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-1.885038375854492</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-29.78028297424316</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-94.85831451416016</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>45.612957</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1257.475341796875</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-294.3143920898438</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-1.765728116035461</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-29.56399536132812</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-93.83102416992188</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>45.888803</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1257.310546875</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-297.2576293945312</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-1.445933818817139</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-29.34111213684082</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-92.40619659423828</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>46.181718</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1257.114501953125</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-303.0835571289062</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-0.3692932724952698</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-28.99190330505371</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-89.02594757080078</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>46.462973</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1257.104248046875</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-305.9777221679688</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.2613275349140167</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-28.90460586547852</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-87.40239715576172</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>46.740162</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1257.280029296875</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-311.7506103515625</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.515162467956543</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-28.8427848815918</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-84.7447509765625</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>47.032187</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1257.452758789062</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-314.6371459960938</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.990137338638306</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-28.87080001831055</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-84.05113220214844</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>47.319297</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1257.671752929688</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-317.5282287597656</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.393692493438721</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-28.92941856384277</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-83.74972534179688</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>47.618122</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1258.173461914062</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-323.34033203125</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2.526937246322632</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-29.17637825012207</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-84.56851196289062</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>47.899697</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1258.41943359375</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-326.2677612304688</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.335587501525879</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-29.33945274353027</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-85.58935546875</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>48.19886</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1258.820678710938</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-332.1739501953125</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.553184032440186</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-29.69360542297363</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-88.20306396484375</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>48.495611</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1258.954833984375</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-335.1535339355469</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.055945873260498</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-29.87080955505371</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-89.51606750488281</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>48.785399</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1259.064453125</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-341.1647338867188</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.01458151172846556</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-30.21429061889648</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-91.77235412597656</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>49.097162</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1259.047119140625</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-344.1964111328125</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-0.4058431386947632</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-30.38916969299316</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-92.43581390380859</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>49.383489</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1258.902099609375</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-350.3124084472656</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-0.9579309821128845</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-30.72361183166504</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-92.80919647216797</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>49.690015</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1258.803466796875</v>
+      </c>
+      <c r="D244" t="n">
+        <v>-353.3897094726562</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-0.9971098899841309</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-30.79865837097168</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-92.4091796875</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>49.976953</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1258.706176757812</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-356.4697265625</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-0.9054499864578247</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-30.79839706420898</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-91.71638488769531</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>50.285637</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1258.574584960938</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-362.6114807128906</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-0.3197246789932251</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-30.61115074157715</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-89.75962829589844</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>50.572422</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1258.559692382812</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-365.6626586914062</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.07757513970136642</v>
+      </c>
+      <c r="F247" t="n">
+        <v>-30.44605445861816</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-88.68331146240234</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>50.885389</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1258.658447265625</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-371.705810546875</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.9448885321617126</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-30.01510429382324</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-86.67053985595703</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>51.178256</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1258.768920898438</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-374.6928100585938</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.317021250724792</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-29.76821136474609</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-85.96614837646484</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>51.498981</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1259.09130859375</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-380.589599609375</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.859222531318665</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-29.24422454833984</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-85.252685546875</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>51.786181</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1259.28173828125</v>
+      </c>
+      <c r="D251" t="n">
+        <v>-383.4997253417969</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.953796625137329</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-29.0096607208252</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-85.37838745117188</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>52.101151</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1259.669189453125</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-389.2743530273438</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.825217962265015</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-28.80044555664062</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-86.39459228515625</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>52.408858</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1259.842651367188</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-392.1544189453125</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.602123260498047</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-28.7975902557373</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-87.20241546630859</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>52.726641</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1260.105712890625</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-397.9252319335938</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.9610478281974792</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-28.91094398498535</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-89.03871154785156</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>53.027781</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1260.231323242188</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-403.7296447753906</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.2358016520738602</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-29.11847114562988</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-90.62515258789062</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>53.335469</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1260.242919921875</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-406.6492919921875</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-0.05594512820243835</v>
+      </c>
+      <c r="F256" t="n">
+        <v>-29.24798965454102</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-91.19618988037109</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>53.640598</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1260.184936523438</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-412.531005859375</v>
+      </c>
+      <c r="E257" t="n">
+        <v>-0.4926567673683167</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-29.54578971862793</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-91.71920013427734</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>53.941446</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1260.132080078125</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-415.4956970214844</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-0.5666446089744568</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-29.71329307556152</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-91.59166717529297</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>54.250243</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1260.02294921875</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-421.477294921875</v>
+      </c>
+      <c r="E259" t="n">
+        <v>-0.4479527473449707</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-30.07073211669922</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-90.75654602050781</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>54.5564</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1259.986328125</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-424.4953308105469</v>
+      </c>
+      <c r="E260" t="n">
+        <v>-0.2551602125167847</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-30.25436973571777</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-90.10237884521484</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>54.881656</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1259.985717773438</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-430.5848388671875</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.3104534447193146</v>
+      </c>
+      <c r="F261" t="n">
+        <v>-30.58590316772461</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-88.58556365966797</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>55.185511</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1260.031005859375</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-433.6473083496094</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.6354624629020691</v>
+      </c>
+      <c r="F262" t="n">
+        <v>-30.64333343505859</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-87.85356903076172</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>55.524248</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1260.211547851562</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-439.7677307128906</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.110651731491089</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-30.54229354858398</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-86.82852172851562</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>55.824962</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1260.326416015625</v>
+      </c>
+      <c r="D264" t="n">
+        <v>-442.8143005371094</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.174355506896973</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-30.4172420501709</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-86.97972106933594</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>56.138496</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1260.551879882812</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-448.8607788085938</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.9260805249214172</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-30.07231903076172</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-88.32750701904297</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>56.449827</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1260.6748046875</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-454.8282470703125</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.1571760177612305</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-29.6336612701416</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-90.72869873046875</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>56.767211</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1260.671508789062</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-457.77685546875</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-0.3321440517902374</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-29.38307952880859</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-92.07332611083984</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>57.073345</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1260.50634765625</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-463.5949401855469</v>
+      </c>
+      <c r="E268" t="n">
+        <v>-1.40312647819519</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-28.85302352905273</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-94.63460540771484</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>57.398356</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1260.346069335938</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-466.4696044921875</v>
+      </c>
+      <c r="E269" t="n">
+        <v>-1.890374422073364</v>
+      </c>
+      <c r="F269" t="n">
+        <v>-28.67098045349121</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-95.59870910644531</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>57.7393</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1259.88720703125</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-472.1836853027344</v>
+      </c>
+      <c r="E270" t="n">
+        <v>-2.674164056777954</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-28.50986671447754</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-96.74072265625</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>58.05084</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1259.596801757812</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-475.0338134765625</v>
+      </c>
+      <c r="E271" t="n">
+        <v>-3.512066841125488</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-28.50066757202148</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-97.71894073486328</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>58.377479</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1258.906494140625</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-480.7385864257812</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-3.838081359863281</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-28.55094337463379</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-98.36838531494141</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>58.691714</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1258.084838867188</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-486.4673767089844</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-4.47797155380249</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-28.70462417602539</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-99.63732147216797</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>59.009071</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1257.627685546875</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-489.3451843261719</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-4.759824275970459</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-28.80734825134277</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-100.1453399658203</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>59.33477</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1256.631225585938</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-495.1347961425781</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-5.230430603027344</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-29.05714988708496</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-100.8372421264648</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>59.646102</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1256.1025390625</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-498.0502319335938</v>
+      </c>
+      <c r="E276" t="n">
+        <v>-5.378656387329102</v>
+      </c>
+      <c r="F276" t="n">
+        <v>-29.20987319946289</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-100.9300003051758</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>59.971103</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1255.0107421875</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-503.9302368164062</v>
+      </c>
+      <c r="E277" t="n">
+        <v>-5.506833553314209</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-29.56231880187988</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-100.6946182250977</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>60.276995</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1253.917724609375</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-509.8864440917969</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-5.384877681732178</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-29.97149848937988</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-99.93881225585938</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>60.610084</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1253.385009765625</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-512.894775390625</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-5.242968082427979</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-30.15763664245605</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-99.45223236083984</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>60.92596</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1252.351806640625</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-518.9398193359375</v>
+      </c>
+      <c r="E280" t="n">
+        <v>-5.240918636322021</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-30.21425437927246</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-99.02268218994141</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>61.264974</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1251.820556640625</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-521.9550170898438</v>
+      </c>
+      <c r="E281" t="n">
+        <v>-5.481178283691406</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-30.0915584564209</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-99.97386932373047</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>61.611435</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1250.65771484375</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-527.9271850585938</v>
+      </c>
+      <c r="E282" t="n">
+        <v>-6.442998886108398</v>
+      </c>
+      <c r="F282" t="n">
+        <v>-29.57433700561523</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-103.4743881225586</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>61.9348</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1249.245849609375</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-533.7601318359375</v>
+      </c>
+      <c r="E283" t="n">
+        <v>-7.962640285491943</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-28.70168304443359</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-108.1847381591797</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>62.276563</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1248.421508789062</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-536.6051635742188</v>
+      </c>
+      <c r="E284" t="n">
+        <v>-8.771442413330078</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-28.18007278442383</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-110.5895919799805</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>62.596876</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1246.521118164062</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-542.1253051757812</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-10.39462089538574</v>
+      </c>
+      <c r="F285" t="n">
+        <v>-27.02925300598145</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-114.8407211303711</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>62.937731</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1245.454223632812</v>
+      </c>
+      <c r="D286" t="n">
+        <v>-544.8054809570312</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-11.10038089752197</v>
+      </c>
+      <c r="F286" t="n">
+        <v>-26.55764770507812</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-116.2915878295898</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>63.297303</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1243.119995117188</v>
+      </c>
+      <c r="D287" t="n">
+        <v>-550.0482788085938</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-12.18619728088379</v>
+      </c>
+      <c r="F287" t="n">
+        <v>-25.94319915771484</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-117.6008529663086</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>63.620936</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1240.644287109375</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-555.2310791015625</v>
+      </c>
+      <c r="E288" t="n">
+        <v>-12.44031620025635</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-25.93914413452148</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-116.2206878662109</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>63.958596</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1239.392700195312</v>
+      </c>
+      <c r="D289" t="n">
+        <v>-557.8287963867188</v>
+      </c>
+      <c r="E289" t="n">
+        <v>-12.50360298156738</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-26.0208911895752</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-115.2590255737305</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>64.30608100000001</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1236.913696289062</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-563.0739135742188</v>
+      </c>
+      <c r="E290" t="n">
+        <v>-12.31981754302979</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-26.38985443115234</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-114.0936965942383</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>64.631659</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1234.462646484375</v>
+      </c>
+      <c r="D291" t="n">
+        <v>-568.3949584960938</v>
+      </c>
+      <c r="E291" t="n">
+        <v>-12.27559757232666</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-26.75345802307129</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-114.0916595458984</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>64.96006300000001</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1233.231567382812</v>
+      </c>
+      <c r="D292" t="n">
+        <v>-571.0797729492188</v>
+      </c>
+      <c r="E292" t="n">
+        <v>-12.40276050567627</v>
+      </c>
+      <c r="F292" t="n">
+        <v>-26.88138389587402</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-114.4813766479492</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>65.290857</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1230.713012695312</v>
+      </c>
+      <c r="D293" t="n">
+        <v>-576.480712890625</v>
+      </c>
+      <c r="E293" t="n">
+        <v>-12.88945007324219</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-27.04109573364258</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-115.8865814208984</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>65.633729</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1229.409423828125</v>
+      </c>
+      <c r="D294" t="n">
+        <v>-579.1893920898438</v>
+      </c>
+      <c r="E294" t="n">
+        <v>-13.24127864837646</v>
+      </c>
+      <c r="F294" t="n">
+        <v>-27.06840515136719</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-116.7735214233398</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>65.98586299999999</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1226.683715820312</v>
+      </c>
+      <c r="D295" t="n">
+        <v>-584.607666015625</v>
+      </c>
+      <c r="E295" t="n">
+        <v>-14.06966972351074</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-27.05068778991699</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-118.6147766113281</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>66.33126</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1223.80029296875</v>
+      </c>
+      <c r="D296" t="n">
+        <v>-590.013916015625</v>
+      </c>
+      <c r="E296" t="n">
+        <v>-14.77591228485107</v>
+      </c>
+      <c r="F296" t="n">
+        <v>-26.92031478881836</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-119.8914489746094</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>66.672015</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1220.803100585938</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-595.3681030273438</v>
+      </c>
+      <c r="E297" t="n">
+        <v>-15.18679332733154</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-26.59897422790527</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-120.5031890869141</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>67.015378</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1219.266357421875</v>
+      </c>
+      <c r="D298" t="n">
+        <v>-598.0075073242188</v>
+      </c>
+      <c r="E298" t="n">
+        <v>-15.56040096282959</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-26.22143745422363</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-121.1173858642578</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>67.373324</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1216.1015625</v>
+      </c>
+      <c r="D299" t="n">
+        <v>-603.1717529296875</v>
+      </c>
+      <c r="E299" t="n">
+        <v>-16.27294731140137</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-25.33513832092285</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-123.8364486694336</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>67.711438</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1212.779418945312</v>
+      </c>
+      <c r="D300" t="n">
+        <v>-608.1300659179688</v>
+      </c>
+      <c r="E300" t="n">
+        <v>-17.18878173828125</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-24.12333488464355</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-127.5788955688477</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>68.055556</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1211.048095703125</v>
+      </c>
+      <c r="D301" t="n">
+        <v>-610.5135498046875</v>
+      </c>
+      <c r="E301" t="n">
+        <v>-17.65156555175781</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-23.45395851135254</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-129.5096740722656</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>68.440617</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1207.443115234375</v>
+      </c>
+      <c r="D302" t="n">
+        <v>-615.0692138671875</v>
+      </c>
+      <c r="E302" t="n">
+        <v>-18.54842567443848</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-22.06203269958496</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-132.9393463134766</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>68.797707</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1203.663696289062</v>
+      </c>
+      <c r="D303" t="n">
+        <v>-619.378662109375</v>
+      </c>
+      <c r="E303" t="n">
+        <v>-19.34513664245605</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-21.02205276489258</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-134.8828735351562</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>69.165719</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1199.749877929688</v>
+      </c>
+      <c r="D304" t="n">
+        <v>-623.5409545898438</v>
+      </c>
+      <c r="E304" t="n">
+        <v>-19.78687858581543</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-20.62686920166016</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-134.9399871826172</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>69.531615</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1197.769775390625</v>
+      </c>
+      <c r="D305" t="n">
+        <v>-625.6090698242188</v>
+      </c>
+      <c r="E305" t="n">
+        <v>-19.79568481445312</v>
+      </c>
+      <c r="F305" t="n">
+        <v>-20.71415328979492</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-134.2289276123047</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>69.90329699999999</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1193.815307617188</v>
+      </c>
+      <c r="D306" t="n">
+        <v>-629.7882080078125</v>
+      </c>
+      <c r="E306" t="n">
+        <v>-19.74994850158691</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-21.05025291442871</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-132.2326812744141</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>70.266175</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1189.867431640625</v>
+      </c>
+      <c r="D307" t="n">
+        <v>-634.0422973632812</v>
+      </c>
+      <c r="E307" t="n">
+        <v>-19.76169586181641</v>
+      </c>
+      <c r="F307" t="n">
+        <v>-21.4282398223877</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-131.8797302246094</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>70.623276</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1185.88525390625</v>
+      </c>
+      <c r="D308" t="n">
+        <v>-638.3486328125</v>
+      </c>
+      <c r="E308" t="n">
+        <v>-20.15059471130371</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-21.51338386535645</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-133.0784454345703</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>70.990268</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1183.856201171875</v>
+      </c>
+      <c r="D309" t="n">
+        <v>-640.5004272460938</v>
+      </c>
+      <c r="E309" t="n">
+        <v>-20.49264526367188</v>
+      </c>
+      <c r="F309" t="n">
+        <v>-21.41994285583496</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-134.1434936523438</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>71.35913499999999</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1179.678100585938</v>
+      </c>
+      <c r="D310" t="n">
+        <v>-644.757568359375</v>
+      </c>
+      <c r="E310" t="n">
+        <v>-21.37632942199707</v>
+      </c>
+      <c r="F310" t="n">
+        <v>-21.01469230651855</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-136.7720642089844</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>71.745329</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1175.307495117188</v>
+      </c>
+      <c r="D311" t="n">
+        <v>-648.9130859375</v>
+      </c>
+      <c r="E311" t="n">
+        <v>-22.3951358795166</v>
+      </c>
+      <c r="F311" t="n">
+        <v>-20.42001342773438</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-139.3649444580078</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>72.09892600000001</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1170.735961914062</v>
+      </c>
+      <c r="D312" t="n">
+        <v>-652.9500122070312</v>
+      </c>
+      <c r="E312" t="n">
+        <v>-23.35722923278809</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-19.85903549194336</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-141.3409729003906</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>72.473735</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1165.995483398438</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-656.8861083984375</v>
+      </c>
+      <c r="E313" t="n">
+        <v>-24.00812530517578</v>
+      </c>
+      <c r="F313" t="n">
+        <v>-19.43452262878418</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-142.2426910400391</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>72.82771</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1163.579711914062</v>
+      </c>
+      <c r="D314" t="n">
+        <v>-658.8090209960938</v>
+      </c>
+      <c r="E314" t="n">
+        <v>-24.31291007995605</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-19.02597808837891</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-142.7174987792969</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>73.189824</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1158.686767578125</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-662.540771484375</v>
+      </c>
+      <c r="E315" t="n">
+        <v>-24.69669151306152</v>
+      </c>
+      <c r="F315" t="n">
+        <v>-18.18523406982422</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-144.5868682861328</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>73.53418499999999</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1153.73046875</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-666.0863647460938</v>
+      </c>
+      <c r="E316" t="n">
+        <v>-24.99625205993652</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-17.12800979614258</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-147.0035247802734</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>73.876424</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1148.722290039062</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-669.4085083007812</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-25.20524406433105</v>
+      </c>
+      <c r="F317" t="n">
+        <v>-15.97440052032471</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-149.3464050292969</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>74.237746</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1146.205322265625</v>
+      </c>
+      <c r="D318" t="n">
+        <v>-670.9837646484375</v>
+      </c>
+      <c r="E318" t="n">
+        <v>-25.24324607849121</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-15.4462776184082</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-150.2888031005859</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>74.621212</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1141.164916992188</v>
+      </c>
+      <c r="D319" t="n">
+        <v>-673.9798583984375</v>
+      </c>
+      <c r="E319" t="n">
+        <v>-25.21883010864258</v>
+      </c>
+      <c r="F319" t="n">
+        <v>-14.53624820709229</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-151.4474945068359</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>74.992383</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1136.128051757812</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-676.8435668945312</v>
+      </c>
+      <c r="E320" t="n">
+        <v>-25.18505096435547</v>
+      </c>
+      <c r="F320" t="n">
+        <v>-14.15406799316406</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-151.2622833251953</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>75.352994</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1131.100219726562</v>
+      </c>
+      <c r="D321" t="n">
+        <v>-679.6915283203125</v>
+      </c>
+      <c r="E321" t="n">
+        <v>-25.06778335571289</v>
+      </c>
+      <c r="F321" t="n">
+        <v>-14.39071655273438</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-149.9160919189453</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>75.739791</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1126.064086914062</v>
+      </c>
+      <c r="D322" t="n">
+        <v>-682.5635986328125</v>
+      </c>
+      <c r="E322" t="n">
+        <v>-25.26829528808594</v>
+      </c>
+      <c r="F322" t="n">
+        <v>-14.35730648040771</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-149.7458038330078</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>76.10957999999999</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1123.529541015625</v>
+      </c>
+      <c r="D323" t="n">
+        <v>-683.9994506835938</v>
+      </c>
+      <c r="E323" t="n">
+        <v>-25.46073722839355</v>
+      </c>
+      <c r="F323" t="n">
+        <v>-14.24250316619873</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-150.4867706298828</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>76.484605</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1118.387573242188</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-686.8150634765625</v>
+      </c>
+      <c r="E324" t="n">
+        <v>-26.05070686340332</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-13.68408870697021</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-153.0818023681641</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>76.866502</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1113.105346679688</v>
+      </c>
+      <c r="D325" t="n">
+        <v>-689.4730224609375</v>
+      </c>
+      <c r="E325" t="n">
+        <v>-26.83968925476074</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-12.68613052368164</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-156.4524078369141</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>77.230012</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1107.659057617188</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-691.9102783203125</v>
+      </c>
+      <c r="E326" t="n">
+        <v>-27.6662425994873</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-11.5092077255249</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-159.6670227050781</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>77.588064</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1102.05126953125</v>
+      </c>
+      <c r="D327" t="n">
+        <v>-694.1173095703125</v>
+      </c>
+      <c r="E327" t="n">
+        <v>-28.42473030090332</v>
+      </c>
+      <c r="F327" t="n">
+        <v>-10.44784927368164</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-161.939453125</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>77.97155100000001</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1096.301635742188</v>
+      </c>
+      <c r="D328" t="n">
+        <v>-696.1453247070312</v>
+      </c>
+      <c r="E328" t="n">
+        <v>-29.04664421081543</v>
+      </c>
+      <c r="F328" t="n">
+        <v>-9.803654670715332</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-162.7513580322266</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>78.338306</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1093.380737304688</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-697.1071166992188</v>
+      </c>
+      <c r="E329" t="n">
+        <v>-29.33472061157227</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-9.419647216796875</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-163.0025177001953</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>78.718237</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1087.485107421875</v>
+      </c>
+      <c r="D330" t="n">
+        <v>-698.9383544921875</v>
+      </c>
+      <c r="E330" t="n">
+        <v>-29.59947204589844</v>
+      </c>
+      <c r="F330" t="n">
+        <v>-8.799892425537109</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-164.0705871582031</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>79.086978</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1081.56884765625</v>
+      </c>
+      <c r="D331" t="n">
+        <v>-700.643798828125</v>
+      </c>
+      <c r="E331" t="n">
+        <v>-29.59481620788574</v>
+      </c>
+      <c r="F331" t="n">
+        <v>-8.121980667114258</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-165.4398040771484</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>79.45358899999999</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1075.672607421875</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-702.2081909179688</v>
+      </c>
+      <c r="E332" t="n">
+        <v>-29.41690063476562</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-7.416959762573242</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-166.7653198242188</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>79.828548</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1069.82470703125</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-703.6358642578125</v>
+      </c>
+      <c r="E333" t="n">
+        <v>-29.11278343200684</v>
+      </c>
+      <c r="F333" t="n">
+        <v>-6.797587871551514</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-167.7061920166016</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>80.206889</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1064.047485351562</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-704.9554443359375</v>
+      </c>
+      <c r="E334" t="n">
+        <v>-28.7044506072998</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-6.38447904586792</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-168.0215454101562</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>80.582926</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1061.1904296875</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-705.5901489257812</v>
+      </c>
+      <c r="E335" t="n">
+        <v>-28.4899730682373</v>
+      </c>
+      <c r="F335" t="n">
+        <v>-6.298954963684082</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-167.9114990234375</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>80.9834</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1055.515380859375</v>
+      </c>
+      <c r="D336" t="n">
+        <v>-706.8135986328125</v>
+      </c>
+      <c r="E336" t="n">
+        <v>-28.36142349243164</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-5.680982112884521</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-168.2114105224609</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>81.36756699999999</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1049.832763671875</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-707.8477172851562</v>
+      </c>
+      <c r="E337" t="n">
+        <v>-28.53550720214844</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-4.335288524627686</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-172.4678344726562</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>81.754717</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1044.105834960938</v>
+      </c>
+      <c r="D338" t="n">
+        <v>-708.5519409179688</v>
+      </c>
+      <c r="E338" t="n">
+        <v>-28.760009765625</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-2.273251295089722</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-178.5746307373047</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>82.12764300000001</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1038.33935546875</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-708.81201171875</v>
+      </c>
+      <c r="E339" t="n">
+        <v>-28.88814926147461</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.05323730409145355</v>
+      </c>
+      <c r="G339" t="n">
+        <v>175.5091552734375</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>82.496807</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1032.551025390625</v>
+      </c>
+      <c r="D340" t="n">
+        <v>-708.6129760742188</v>
+      </c>
+      <c r="E340" t="n">
+        <v>-28.96274375915527</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2.15812087059021</v>
+      </c>
+      <c r="G340" t="n">
+        <v>171.4810180664062</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>82.87147899999999</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1029.648681640625</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-708.366943359375</v>
+      </c>
+      <c r="E341" t="n">
+        <v>-29.0441837310791</v>
+      </c>
+      <c r="F341" t="n">
+        <v>2.88300347328186</v>
+      </c>
+      <c r="G341" t="n">
+        <v>170.5991363525391</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>83.259456</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1023.810302734375</v>
+      </c>
+      <c r="D342" t="n">
+        <v>-707.6953735351562</v>
+      </c>
+      <c r="E342" t="n">
+        <v>-29.33382034301758</v>
+      </c>
+      <c r="F342" t="n">
+        <v>3.578995227813721</v>
+      </c>
+      <c r="G342" t="n">
+        <v>171.4613494873047</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>83.655243</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1017.894287109375</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-707.0272216796875</v>
+      </c>
+      <c r="E343" t="n">
+        <v>-29.78458023071289</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2.823153257369995</v>
+      </c>
+      <c r="G343" t="n">
+        <v>175.5693206787109</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>84.042952</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1011.8935546875</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-706.6105346679688</v>
+      </c>
+      <c r="E344" t="n">
+        <v>-30.17040634155273</v>
+      </c>
+      <c r="F344" t="n">
+        <v>1.090795636177063</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-179.1188659667969</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>84.422214</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1005.829833984375</v>
+      </c>
+      <c r="D345" t="n">
+        <v>-706.573486328125</v>
+      </c>
+      <c r="E345" t="n">
+        <v>-30.42212104797363</v>
+      </c>
+      <c r="F345" t="n">
+        <v>-0.9218875169754028</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-174.3793029785156</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>84.81720199999999</v>
+      </c>
+      <c r="C346" t="n">
+        <v>999.731201171875</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-706.9226684570312</v>
+      </c>
+      <c r="E346" t="n">
+        <v>-30.49032211303711</v>
+      </c>
+      <c r="F346" t="n">
+        <v>-2.638799428939819</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-171.6077880859375</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>85.227656</v>
+      </c>
+      <c r="C347" t="n">
+        <v>993.64453125</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-707.5433349609375</v>
+      </c>
+      <c r="E347" t="n">
+        <v>-30.36028480529785</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-3.462559461593628</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-171.6789245605469</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>85.618754</v>
+      </c>
+      <c r="C348" t="n">
+        <v>987.5949096679688</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-708.2134399414062</v>
+      </c>
+      <c r="E348" t="n">
+        <v>-30.14748954772949</v>
+      </c>
+      <c r="F348" t="n">
+        <v>-3.022101879119873</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-174.5776824951172</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>86.002404</v>
+      </c>
+      <c r="C349" t="n">
+        <v>981.6001586914062</v>
+      </c>
+      <c r="D349" t="n">
+        <v>-708.701171875</v>
+      </c>
+      <c r="E349" t="n">
+        <v>-29.81927680969238</v>
+      </c>
+      <c r="F349" t="n">
+        <v>-1.63600218296051</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-179.0249481201172</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>86.386337</v>
+      </c>
+      <c r="C350" t="n">
+        <v>975.6876831054688</v>
+      </c>
+      <c r="D350" t="n">
+        <v>-708.87451171875</v>
+      </c>
+      <c r="E350" t="n">
+        <v>-29.33173942565918</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.1000126600265503</v>
+      </c>
+      <c r="G350" t="n">
+        <v>176.5315704345703</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>86.775572</v>
+      </c>
+      <c r="C351" t="n">
+        <v>969.8753051757812</v>
+      </c>
+      <c r="D351" t="n">
+        <v>-708.70849609375</v>
+      </c>
+      <c r="E351" t="n">
+        <v>-28.86721038818359</v>
+      </c>
+      <c r="F351" t="n">
+        <v>1.681252598762512</v>
+      </c>
+      <c r="G351" t="n">
+        <v>173.4296722412109</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>87.157163</v>
+      </c>
+      <c r="C352" t="n">
+        <v>964.12255859375</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-708.2738647460938</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-28.69821548461914</v>
+      </c>
+      <c r="F352" t="n">
+        <v>2.62818169593811</v>
+      </c>
+      <c r="G352" t="n">
+        <v>172.7496948242188</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>87.551395</v>
+      </c>
+      <c r="C353" t="n">
+        <v>961.2504272460938</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-708.0064086914062</v>
+      </c>
+      <c r="E353" t="n">
+        <v>-28.72801208496094</v>
+      </c>
+      <c r="F353" t="n">
+        <v>2.681975841522217</v>
+      </c>
+      <c r="G353" t="n">
+        <v>173.4607391357422</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>87.936576</v>
+      </c>
+      <c r="C354" t="n">
+        <v>955.4842529296875</v>
+      </c>
+      <c r="D354" t="n">
+        <v>-707.506103515625</v>
+      </c>
+      <c r="E354" t="n">
+        <v>-28.9256706237793</v>
+      </c>
+      <c r="F354" t="n">
+        <v>2.08981466293335</v>
+      </c>
+      <c r="G354" t="n">
+        <v>176.5355529785156</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>88.32403600000001</v>
+      </c>
+      <c r="C355" t="n">
+        <v>949.671875</v>
+      </c>
+      <c r="D355" t="n">
+        <v>-707.2023315429688</v>
+      </c>
+      <c r="E355" t="n">
+        <v>-29.17034149169922</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.7521859407424927</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-179.4206695556641</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>88.72462899999999</v>
+      </c>
+      <c r="C356" t="n">
+        <v>943.8126831054688</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-707.1895751953125</v>
+      </c>
+      <c r="E356" t="n">
+        <v>-29.38978958129883</v>
+      </c>
+      <c r="F356" t="n">
+        <v>-0.7823210954666138</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-175.7986297607422</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>89.120761</v>
+      </c>
+      <c r="C357" t="n">
+        <v>937.9083862304688</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-707.4663696289062</v>
+      </c>
+      <c r="E357" t="n">
+        <v>-29.62456703186035</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-2.047580480575562</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-173.7272796630859</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>89.50235499999999</v>
+      </c>
+      <c r="C358" t="n">
+        <v>931.9481811523438</v>
+      </c>
+      <c r="D358" t="n">
+        <v>-707.9395141601562</v>
+      </c>
+      <c r="E358" t="n">
+        <v>-29.95166969299316</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-2.6161208152771</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-173.860107421875</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>89.892261</v>
+      </c>
+      <c r="C359" t="n">
+        <v>925.9130859375</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-708.4434814453125</v>
+      </c>
+      <c r="E359" t="n">
+        <v>-30.3646297454834</v>
+      </c>
+      <c r="F359" t="n">
+        <v>-2.268062353134155</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-176.0737915039062</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>90.297116</v>
+      </c>
+      <c r="C360" t="n">
+        <v>919.8065185546875</v>
+      </c>
+      <c r="D360" t="n">
+        <v>-708.8076171875</v>
+      </c>
+      <c r="E360" t="n">
+        <v>-30.62117767333984</v>
+      </c>
+      <c r="F360" t="n">
+        <v>-1.204983234405518</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-179.3804321289062</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>90.698278</v>
+      </c>
+      <c r="C361" t="n">
+        <v>913.6893310546875</v>
+      </c>
+      <c r="D361" t="n">
+        <v>-708.9283447265625</v>
+      </c>
+      <c r="E361" t="n">
+        <v>-30.52386474609375</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.1309686452150345</v>
+      </c>
+      <c r="G361" t="n">
+        <v>177.4309539794922</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>91.089977</v>
+      </c>
+      <c r="C362" t="n">
+        <v>907.6184692382812</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-708.79296875</v>
+      </c>
+      <c r="E362" t="n">
+        <v>-30.19440650939941</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1.290546536445618</v>
+      </c>
+      <c r="G362" t="n">
+        <v>175.3401947021484</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>91.498914</v>
+      </c>
+      <c r="C363" t="n">
+        <v>901.6256103515625</v>
+      </c>
+      <c r="D363" t="n">
+        <v>-708.4710083007812</v>
+      </c>
+      <c r="E363" t="n">
+        <v>-29.76375389099121</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1.898215413093567</v>
+      </c>
+      <c r="G363" t="n">
+        <v>175.0072784423828</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>91.887643</v>
+      </c>
+      <c r="C364" t="n">
+        <v>895.72216796875</v>
+      </c>
+      <c r="D364" t="n">
+        <v>-708.0964965820312</v>
+      </c>
+      <c r="E364" t="n">
+        <v>-29.3092098236084</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1.73211395740509</v>
+      </c>
+      <c r="G364" t="n">
+        <v>176.5393676757812</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>92.28624000000001</v>
+      </c>
+      <c r="C365" t="n">
+        <v>889.9016723632812</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-707.8172607421875</v>
+      </c>
+      <c r="E365" t="n">
+        <v>-28.9726505279541</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.9185954332351685</v>
+      </c>
+      <c r="G365" t="n">
+        <v>179.2738189697266</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>92.68937200000001</v>
+      </c>
+      <c r="C366" t="n">
+        <v>884.1198120117188</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-707.7315673828125</v>
+      </c>
+      <c r="E366" t="n">
+        <v>-28.87375640869141</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-0.1904846876859665</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-177.8517608642578</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>93.101675</v>
+      </c>
+      <c r="C367" t="n">
+        <v>878.3402709960938</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-707.8648071289062</v>
+      </c>
+      <c r="E367" t="n">
+        <v>-28.92024421691895</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-1.217675805091858</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-175.8228759765625</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>93.500457</v>
+      </c>
+      <c r="C368" t="n">
+        <v>872.5374145507812</v>
+      </c>
+      <c r="D368" t="n">
+        <v>-708.169921875</v>
+      </c>
+      <c r="E368" t="n">
+        <v>-29.09561157226562</v>
+      </c>
+      <c r="F368" t="n">
+        <v>-1.822958469390869</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-175.2874450683594</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>93.913113</v>
+      </c>
+      <c r="C369" t="n">
+        <v>866.6871948242188</v>
+      </c>
+      <c r="D369" t="n">
+        <v>-708.540283203125</v>
+      </c>
+      <c r="E369" t="n">
+        <v>-29.38492584228516</v>
+      </c>
+      <c r="F369" t="n">
+        <v>-1.794241428375244</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-176.3608703613281</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>94.313675</v>
+      </c>
+      <c r="C370" t="n">
+        <v>860.7727661132812</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-708.8502807617188</v>
+      </c>
+      <c r="E370" t="n">
+        <v>-29.7274169921875</v>
+      </c>
+      <c r="F370" t="n">
+        <v>-1.188470482826233</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-178.5243377685547</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>94.71219499999999</v>
+      </c>
+      <c r="C371" t="n">
+        <v>854.7899169921875</v>
+      </c>
+      <c r="D371" t="n">
+        <v>-709.007568359375</v>
+      </c>
+      <c r="E371" t="n">
+        <v>-30.07100486755371</v>
+      </c>
+      <c r="F371" t="n">
+        <v>-0.2719023525714874</v>
+      </c>
+      <c r="G371" t="n">
+        <v>179.0803070068359</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>95.157326</v>
+      </c>
+      <c r="C372" t="n">
+        <v>848.738525390625</v>
+      </c>
+      <c r="D372" t="n">
+        <v>-708.9782104492188</v>
+      </c>
+      <c r="E372" t="n">
+        <v>-30.40940856933594</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.6327831745147705</v>
+      </c>
+      <c r="G372" t="n">
+        <v>177.2802886962891</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>95.575091</v>
+      </c>
+      <c r="C373" t="n">
+        <v>842.6287231445312</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-708.7926635742188</v>
+      </c>
+      <c r="E373" t="n">
+        <v>-30.61432838439941</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1.217439413070679</v>
+      </c>
+      <c r="G373" t="n">
+        <v>176.6631164550781</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>95.998082</v>
+      </c>
+      <c r="C374" t="n">
+        <v>836.510986328125</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-708.5379638671875</v>
+      </c>
+      <c r="E374" t="n">
+        <v>-30.53898620605469</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1.259791731834412</v>
+      </c>
+      <c r="G374" t="n">
+        <v>177.4002075195312</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>96.421967</v>
+      </c>
+      <c r="C375" t="n">
+        <v>830.43115234375</v>
+      </c>
+      <c r="D375" t="n">
+        <v>-708.3243408203125</v>
+      </c>
+      <c r="E375" t="n">
+        <v>-30.26916122436523</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.7810021638870239</v>
+      </c>
+      <c r="G375" t="n">
+        <v>179.1333465576172</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>96.840239</v>
+      </c>
+      <c r="C376" t="n">
+        <v>824.4200439453125</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-708.2357788085938</v>
+      </c>
+      <c r="E376" t="n">
+        <v>-29.86836051940918</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.01244699582457542</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-178.8124237060547</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>97.2621</v>
+      </c>
+      <c r="C377" t="n">
+        <v>818.4984741210938</v>
+      </c>
+      <c r="D377" t="n">
+        <v>-708.3043823242188</v>
+      </c>
+      <c r="E377" t="n">
+        <v>-29.3829174041748</v>
+      </c>
+      <c r="F377" t="n">
+        <v>-0.7635514140129089</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-177.1399993896484</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>97.68928099999999</v>
+      </c>
+      <c r="C378" t="n">
+        <v>812.6683349609375</v>
+      </c>
+      <c r="D378" t="n">
+        <v>-708.5087890625</v>
+      </c>
+      <c r="E378" t="n">
+        <v>-29.00148773193359</v>
+      </c>
+      <c r="F378" t="n">
+        <v>-1.295280933380127</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-176.4104919433594</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>98.09865600000001</v>
+      </c>
+      <c r="C379" t="n">
+        <v>806.8796997070312</v>
+      </c>
+      <c r="D379" t="n">
+        <v>-708.7833251953125</v>
+      </c>
+      <c r="E379" t="n">
+        <v>-28.91995811462402</v>
+      </c>
+      <c r="F379" t="n">
+        <v>-1.400464177131653</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-176.8859252929688</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>98.51630299999999</v>
+      </c>
+      <c r="C380" t="n">
+        <v>801.0843505859375</v>
+      </c>
+      <c r="D380" t="n">
+        <v>-709.0368041992188</v>
+      </c>
+      <c r="E380" t="n">
+        <v>-29.03291893005371</v>
+      </c>
+      <c r="F380" t="n">
+        <v>-1.052300810813904</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-178.313720703125</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>98.95562</v>
+      </c>
+      <c r="C381" t="n">
+        <v>795.2548217773438</v>
+      </c>
+      <c r="D381" t="n">
+        <v>-709.1925659179688</v>
+      </c>
+      <c r="E381" t="n">
+        <v>-29.24541282653809</v>
+      </c>
+      <c r="F381" t="n">
+        <v>-0.4196230471134186</v>
+      </c>
+      <c r="G381" t="n">
+        <v>179.9075164794922</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>99.435614</v>
+      </c>
+      <c r="C382" t="n">
+        <v>789.376708984375</v>
+      </c>
+      <c r="D382" t="n">
+        <v>-709.21484375</v>
+      </c>
+      <c r="E382" t="n">
+        <v>-29.51167869567871</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.2585508525371552</v>
+      </c>
+      <c r="G382" t="n">
+        <v>178.4192504882812</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>99.912252</v>
+      </c>
+      <c r="C383" t="n">
+        <v>780.4481811523438</v>
+      </c>
+      <c r="D383" t="n">
+        <v>-709.0358276367188</v>
+      </c>
+      <c r="E383" t="n">
+        <v>-29.99431037902832</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.8517475128173828</v>
+      </c>
+      <c r="G383" t="n">
+        <v>177.7322692871094</v>
       </c>
     </row>
   </sheetData>
